--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
   <si>
     <t>✨推荐网站</t>
   </si>
@@ -28,22 +28,31 @@
     <t>teacher</t>
   </si>
   <si>
-    <t>导航网站</t>
-  </si>
-  <si>
-    <t>download</t>
+    <t>精选设计资源导航网站</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>设计网站 &lt;span&gt;（部分需要科学上网）&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>designweb</t>
+  </si>
+  <si>
+    <t>配色网站</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>软件插件&lt;span&gt;（也包含软件下载)&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>chajian</t>
   </si>
   <si>
     <t>下载类</t>
-  </si>
-  <si>
-    <t>docs</t>
-  </si>
-  <si>
-    <t>designweb</t>
-  </si>
-  <si>
-    <t>color</t>
   </si>
   <si>
     <t>名称</t>
@@ -1185,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1206,7 +1215,7 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:59">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1248,505 +1257,845 @@
       <c r="W1" s="5"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:35">
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:59">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AM2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="M4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="S4" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W4" s="11"/>
       <c r="Y4" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AE4" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI4" s="11"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG4" s="11"/>
+    </row>
+    <row r="5" spans="1:54">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>22</v>
+      </c>
+      <c r="AJ5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="BB5" s="3"/>
+    </row>
+    <row r="6" spans="1:54">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="BB6" s="3"/>
+    </row>
+    <row r="7" spans="1:54">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>22</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="BB7" s="3"/>
+    </row>
+    <row r="8" spans="1:54">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="N8" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="7:17">
+        <v>44</v>
+      </c>
+      <c r="AJ8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="BB8" s="3"/>
+    </row>
+    <row r="9" spans="7:54">
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="BB9" s="3"/>
+    </row>
+    <row r="10" spans="36:54">
+      <c r="AJ10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="BB10" s="3"/>
+    </row>
+    <row r="11" spans="36:54">
+      <c r="AJ11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="BB11" s="3"/>
+    </row>
+    <row r="12" spans="36:54">
+      <c r="AJ12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="BB12" s="3"/>
+    </row>
+    <row r="13" spans="36:54">
+      <c r="AJ13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="BB13" s="3"/>
+    </row>
+    <row r="14" spans="36:54">
+      <c r="AJ14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="BB14" s="3"/>
+    </row>
+    <row r="15" spans="36:54">
+      <c r="AJ15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="BB15" s="3"/>
+    </row>
+    <row r="16" spans="36:54">
+      <c r="AJ16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="BB16" s="3"/>
+    </row>
+    <row r="17" spans="36:54">
+      <c r="AJ17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="BB17" s="3"/>
+    </row>
+    <row r="18" spans="36:54">
+      <c r="AJ18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="BB18" s="3"/>
+    </row>
+    <row r="19" spans="36:54">
+      <c r="AJ19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="BB19" s="3"/>
+    </row>
+    <row r="20" spans="36:54">
+      <c r="AJ20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="BB20" s="3"/>
+    </row>
+    <row r="21" spans="36:54">
+      <c r="AJ21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="BB21" s="3"/>
+    </row>
+    <row r="22" spans="36:54">
+      <c r="AJ22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="BB22" s="3"/>
+    </row>
+    <row r="23" spans="36:54">
+      <c r="AJ23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="BB23" s="3"/>
+    </row>
+    <row r="24" spans="36:54">
+      <c r="AJ24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="BB24" s="3"/>
+    </row>
+    <row r="25" spans="36:54">
+      <c r="AJ25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="BB25" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1796,6 +2145,22 @@
     <hyperlink ref="N8" r:id="rId10" display="http://ziyuanhuishequ.ys168.com"/>
     <hyperlink ref="N9" r:id="rId12" display="https://airtap.io/w/xiadj"/>
     <hyperlink ref="O9" r:id="rId13" display="https://pic.zhaotu.me/2023/03/24/-1c326616c9b761482.png"/>
+    <hyperlink ref="AL3" r:id="rId6" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AM3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AL4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AM4" r:id="rId4" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="AR3" r:id="rId6" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AS3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AR4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AS4" r:id="rId4" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="AX3" r:id="rId6" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AY3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AX4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AY4" r:id="rId4" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="BD3" r:id="rId6" display="https://www.kelongwo.com"/>
+    <hyperlink ref="BE3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="BD4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="BE4" r:id="rId4" display="https://github.com/fluidicon.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -19,25 +19,25 @@
     <t>✨推荐网站</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>nice iconfont icon-like-fill icon-animation</t>
   </si>
   <si>
     <t>老师推荐</t>
   </si>
   <si>
-    <t>teacher</t>
+    <t>teacher iconfont icon-shuzhuangtu</t>
   </si>
   <si>
     <t>精选设计资源导航网站</t>
   </si>
   <si>
-    <t>docs</t>
+    <t>docs iconfont icon-jingxuan</t>
   </si>
   <si>
     <t>设计网站 &lt;span&gt;（部分需要科学上网）&lt;/span&gt;</t>
   </si>
   <si>
-    <t>designweb</t>
+    <t>designweb iconfont icon-shejishi</t>
   </si>
   <si>
     <t>配色网站</t>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,30 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="57">
   <si>
     <t>✨推荐网站</t>
   </si>
   <si>
-    <t>nice iconfont icon-like-fill icon-animation</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iconfont icon-like-fill icon-animation</t>
   </si>
   <si>
     <t>老师推荐</t>
   </si>
   <si>
-    <t>teacher iconfont icon-shuzhuangtu</t>
+    <t xml:space="preserve">teacher </t>
+  </si>
+  <si>
+    <t>iconfont icon-shuzhuangtu</t>
   </si>
   <si>
     <t>精选设计资源导航网站</t>
   </si>
   <si>
-    <t>docs iconfont icon-jingxuan</t>
+    <t xml:space="preserve">docs </t>
+  </si>
+  <si>
+    <t>iconfont icon-jingxuan</t>
   </si>
   <si>
     <t>设计网站 &lt;span&gt;（部分需要科学上网）&lt;/span&gt;</t>
   </si>
   <si>
-    <t>designweb iconfont icon-shejishi</t>
+    <t xml:space="preserve">designweb </t>
+  </si>
+  <si>
+    <t>iconfont icon-shejishi</t>
   </si>
   <si>
     <t>配色网站</t>
@@ -870,7 +882,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1196,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,95 +1234,103 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="3"/>
       <c r="M1" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
       <c r="BA1" s="5"/>
       <c r="BB1" s="3"/>
       <c r="BC1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
@@ -1318,504 +1338,504 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:59">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP2" s="17"/>
       <c r="AQ2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AV2" s="17"/>
       <c r="AW2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BB2" s="17"/>
       <c r="BC2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:59">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="Z3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="AF3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AV3" s="3"/>
       <c r="AW3" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AZ3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BA3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BB3" s="3"/>
       <c r="BC3" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BD3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BF3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BG3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:59">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="S4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W4" s="11"/>
       <c r="Y4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AE4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO4" s="11"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AS4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AU4" s="11"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AY4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BA4" s="11"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BE4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BF4" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BG4" s="11"/>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="N5" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AP5" s="3"/>
@@ -1824,47 +1844,47 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AP6" s="3"/>
@@ -1873,45 +1893,45 @@
     </row>
     <row r="7" spans="1:54">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AP7" s="3"/>
@@ -1920,45 +1940,45 @@
     </row>
     <row r="8" spans="1:54">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
@@ -1967,34 +1987,34 @@
     </row>
     <row r="9" spans="7:54">
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="O9" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -28,7 +28,7 @@
     <t>老师推荐</t>
   </si>
   <si>
-    <t xml:space="preserve">teacher </t>
+    <t>teacher</t>
   </si>
   <si>
     <t>iconfont icon-shuzhuangtu</t>
@@ -37,7 +37,7 @@
     <t>精选设计资源导航网站</t>
   </si>
   <si>
-    <t xml:space="preserve">docs </t>
+    <t>docs</t>
   </si>
   <si>
     <t>iconfont icon-jingxuan</t>
@@ -46,7 +46,7 @@
     <t>设计网站 &lt;span&gt;（部分需要科学上网）&lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">designweb </t>
+    <t>designweb</t>
   </si>
   <si>
     <t>iconfont icon-shejishi</t>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>✨推荐网站</t>
   </si>
@@ -88,7 +88,7 @@
     <t>http://www.addog.vip</t>
   </si>
   <si>
-    <t>http://cdn.adguider.com/resource/images/icon_144-144.png</t>
+    <t>https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png</t>
   </si>
   <si>
     <t>👍广告人的网址导航</t>
@@ -97,10 +97,58 @@
     <t>tj</t>
   </si>
   <si>
-    <t>夏十一</t>
-  </si>
-  <si>
-    <t>https://github.io</t>
+    <t xml:space="preserve">   Screenlane</t>
+  </si>
+  <si>
+    <t>https://screenlane.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png</t>
+  </si>
+  <si>
+    <t>获得灵感, 跟上最新的web和移动应用程序UI设计趋势</t>
+  </si>
+  <si>
+    <t>克隆窝</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com</t>
+  </si>
+  <si>
+    <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
+  </si>
+  <si>
+    <t>yyds的网站</t>
+  </si>
+  <si>
+    <t>yyds</t>
+  </si>
+  <si>
+    <t>影视森林</t>
+  </si>
+  <si>
+    <t>https://ymck.me</t>
+  </si>
+  <si>
+    <t>https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png</t>
+  </si>
+  <si>
+    <t>一个别人做的免费影视导航站</t>
+  </si>
+  <si>
+    <t>Dribbble</t>
+  </si>
+  <si>
+    <t>https://dribbble.com</t>
+  </si>
+  <si>
+    <t>在Dribbble上查找顶级设计师和创意专家。我们是设计师获得灵感、反馈、社区和工作的地方。您最好的资源来发现和联系世界各地的设计师。</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>https://github.com</t>
   </si>
   <si>
     <t>https://github.com/fluidicon.png</t>
@@ -109,82 +157,139 @@
     <t>github程序员的网站</t>
   </si>
   <si>
+    <t>&lt;i style="color:red;"&gt;🤖一起用AI&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://17yongai.com</t>
+  </si>
+  <si>
+    <t>https://17yongai.com/wp-content/uploads/2023/02/logo.png</t>
+  </si>
+  <si>
+    <t>整理了各类AI相关的信息 涵盖AI网址 AI工具软件 AI软件免费教程</t>
+  </si>
+  <si>
+    <t>Collect UI</t>
+  </si>
+  <si>
+    <t>https://collectui.com</t>
+  </si>
+  <si>
+    <t>每日灵感来源于每日用户界面档案及其他, 基于可运球，手工挑选，每日更新。</t>
+  </si>
+  <si>
+    <t>资源汇社区</t>
+  </si>
+  <si>
+    <t>http://ziyuanhuishequ.ys168.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png</t>
+  </si>
+  <si>
+    <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
+  </si>
+  <si>
+    <t>zyhsq</t>
+  </si>
+  <si>
+    <t>Pixso</t>
+  </si>
+  <si>
+    <t>https://pixso.cn/community/home</t>
+  </si>
+  <si>
+    <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/?aff=7168</t>
+  </si>
+  <si>
+    <t>yyds 都很推荐的一个网站</t>
+  </si>
+  <si>
+    <t>Streamline</t>
+  </si>
+  <si>
+    <t>https://www.streamlinehq.com</t>
+  </si>
+  <si>
+    <t>Streamline获得了Figma 2022年最佳图形资源奖。世界上最大的图标、插图、表情符号和元素集。</t>
+  </si>
+  <si>
+    <t>&lt;i style="color:#e67c86"&gt;夏DJ导航站介绍&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://airtap.io/w/xiadj</t>
+  </si>
+  <si>
+    <t>/favicon.ico</t>
+  </si>
+  <si>
+    <t>由小张用&lt;i style="color:red;"&gt;❤&lt;/i&gt;制作</t>
+  </si>
+  <si>
     <t>zijiren</t>
   </si>
   <si>
-    <t>克隆窝</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com</t>
-  </si>
-  <si>
-    <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
-  </si>
-  <si>
-    <t>yyds的网站</t>
-  </si>
-  <si>
-    <t>yyds</t>
-  </si>
-  <si>
-    <t>影视森林</t>
-  </si>
-  <si>
-    <t>https://ymck.me</t>
-  </si>
-  <si>
-    <t>一个别人做的免费影视导航站</t>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>https://github.com</t>
-  </si>
-  <si>
-    <t>🤖一起用AI</t>
-  </si>
-  <si>
-    <t>https://17yongai.com</t>
-  </si>
-  <si>
-    <t>https://17yongai.com/wp-content/uploads/2023/02/logo.png</t>
-  </si>
-  <si>
-    <t>资源汇社区</t>
-  </si>
-  <si>
-    <t>http://ziyuanhuishequ.ys168.com</t>
-  </si>
-  <si>
-    <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
-  </si>
-  <si>
-    <t>zyhsq</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/?aff=7168</t>
-  </si>
-  <si>
-    <t>yyds 都很推荐的一个网站</t>
-  </si>
-  <si>
-    <t>夏DJ导航站介绍</t>
-  </si>
-  <si>
-    <t>https://airtap.io/w/xiadj</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/03/24/-1c326616c9b761482.png</t>
-  </si>
-  <si>
-    <t>由小张用♥制作</t>
-  </si>
-  <si>
-    <t>nologo_font zijiren</t>
-  </si>
-  <si>
-    <t>由小张用&lt;span style="color:red; "&gt;♥&lt;/span&gt;制作</t>
+    <t>Muzli Search</t>
+  </si>
+  <si>
+    <t>https://search.muz.li</t>
+  </si>
+  <si>
+    <t>搜索、发现、测试并为您的项目创建漂亮的调色板</t>
+  </si>
+  <si>
+    <t>小陈GPT💕</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml/favicon.ico</t>
+  </si>
+  <si>
+    <t>向她提问，几乎无所不能</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
+    <t>lottie</t>
+  </si>
+  <si>
+    <t>https://lottiefiles.com</t>
+  </si>
+  <si>
+    <t>世界上最大的洛蒂动画平台。随时随地添加免费动画（即使您不了解运动设计），或使用LottieFiles的设计和开发工具轻松创建、协作和发布运动</t>
+  </si>
+  <si>
+    <t>设计导航</t>
+  </si>
+  <si>
+    <t>#docs</t>
+  </si>
+  <si>
+    <t>🍀精选设计资源导航网站</t>
+  </si>
+  <si>
+    <t>后期屋（国内）</t>
+  </si>
+  <si>
+    <t>https://lanfucai.com</t>
+  </si>
+  <si>
+    <t>后期屋-ae模板网ae插件网视频素材下载站</t>
+  </si>
+  <si>
+    <t>aescripts+aeplugins</t>
+  </si>
+  <si>
+    <t>https://aescripts.com</t>
+  </si>
+  <si>
+    <t>主流插件网站（国外）</t>
   </si>
 </sst>
 </file>
@@ -192,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +347,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +427,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -264,113 +480,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,7 +496,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +622,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,13 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,151 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,50 +687,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,15 +701,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +720,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,6 +763,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,16 +807,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,169 +828,172 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1208,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1252,7 +1360,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -1352,7 +1460,7 @@
       <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +1476,7 @@
       <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1492,7 @@
       <c r="Q2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="17"/>
+      <c r="R2" s="18"/>
       <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1508,7 @@
       <c r="W2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="17"/>
+      <c r="X2" s="18"/>
       <c r="Y2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1524,7 @@
       <c r="AC2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="17"/>
+      <c r="AD2" s="18"/>
       <c r="AE2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +1540,7 @@
       <c r="AI2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="17"/>
+      <c r="AJ2" s="18"/>
       <c r="AK2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1556,7 @@
       <c r="AO2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" s="17"/>
+      <c r="AP2" s="18"/>
       <c r="AQ2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1572,7 @@
       <c r="AU2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="17"/>
+      <c r="AV2" s="18"/>
       <c r="AW2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +1588,7 @@
       <c r="BA2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BB2" s="17"/>
+      <c r="BB2" s="18"/>
       <c r="BC2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1497,537 +1605,510 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="156.75" spans="1:59">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9"/>
+      <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="S3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="242.25" spans="1:59">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>27</v>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="11"/>
-      <c r="Y4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="11"/>
-      <c r="AE4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI4" s="11"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="M4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="S4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="Y4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="10"/>
+      <c r="AE4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="10"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO4" s="11"/>
+      <c r="AK4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO4" s="10"/>
       <c r="AP4" s="3"/>
-      <c r="AQ4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU4" s="11"/>
+      <c r="AQ4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="3"/>
-      <c r="AW4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA4" s="11"/>
+      <c r="AW4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" s="10"/>
       <c r="BB4" s="3"/>
-      <c r="BC4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG4" s="11"/>
-    </row>
-    <row r="5" spans="1:54">
-      <c r="A5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="BC4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="BD4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10" t="s">
+      <c r="BE4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG4" s="10"/>
+    </row>
+    <row r="5" ht="128.25" spans="1:54">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="9"/>
       <c r="AJ5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="BB5" s="3"/>
     </row>
-    <row r="6" spans="1:54">
-      <c r="A6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9"/>
+    <row r="6" ht="228" spans="1:54">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="9"/>
       <c r="AJ6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="BB6" s="3"/>
     </row>
-    <row r="7" spans="1:54">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
+    <row r="7" ht="156.75" spans="1:54">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>42</v>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q7" s="9"/>
       <c r="AJ7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="BB7" s="3"/>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" ht="85.5" spans="1:54">
       <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="9"/>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="BB8" s="3"/>
     </row>
-    <row r="9" spans="7:54">
+    <row r="9" ht="242.25" spans="1:54">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="9"/>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="BB9" s="3"/>
     </row>
-    <row r="10" spans="36:54">
+    <row r="10" ht="71.25" spans="1:54">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="BB10" s="3"/>
     </row>
-    <row r="11" spans="36:54">
+    <row r="11" ht="42.75" spans="7:54">
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
@@ -2120,67 +2201,60 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="http://www.addog.vip" tooltip="http://www.addog.vip"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://cdn.adguider.com/resource/images/icon_144-144.png" tooltip="http://cdn.adguider.com/resource/images/icon_144-144.png"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png"/>
     <hyperlink ref="B4" r:id="rId3" display="https://ymck.me" tooltip="https://ymck.me"/>
-    <hyperlink ref="C4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="H4" r:id="rId5" display="https://github.io"/>
-    <hyperlink ref="I4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="N3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="O3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="N4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="O4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="T3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="U3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="T4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="U4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="Z3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="AA3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="Z4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="AA4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="AF3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="AG3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="AF4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="AG4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="H3" r:id="rId5" display="https://github.io"/>
-    <hyperlink ref="I3" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="C5" r:id="rId9" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="B6" r:id="rId10" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="B7" r:id="rId11" display="https://www.kelongwo.com/?aff=7168"/>
-    <hyperlink ref="C7" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="B8" r:id="rId12" display="https://airtap.io/w/xiadj"/>
-    <hyperlink ref="C8" r:id="rId13" display="https://pic.zhaotu.me/2023/03/24/-1c326616c9b761482.png"/>
-    <hyperlink ref="H5" r:id="rId1" display="http://www.addog.vip" tooltip="http://www.addog.vip"/>
-    <hyperlink ref="I5" r:id="rId2" display="http://cdn.adguider.com/resource/images/icon_144-144.png" tooltip="http://cdn.adguider.com/resource/images/icon_144-144.png"/>
-    <hyperlink ref="H6" r:id="rId3" display="https://ymck.me" tooltip="https://ymck.me"/>
-    <hyperlink ref="I6" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="I7" r:id="rId9" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="H8" r:id="rId10" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="H9" r:id="rId12" display="https://airtap.io/w/xiadj"/>
-    <hyperlink ref="I9" r:id="rId13" display="https://pic.zhaotu.me/2023/03/24/-1c326616c9b761482.png"/>
-    <hyperlink ref="N5" r:id="rId1" display="http://www.addog.vip" tooltip="http://www.addog.vip"/>
-    <hyperlink ref="O5" r:id="rId2" display="http://cdn.adguider.com/resource/images/icon_144-144.png" tooltip="http://cdn.adguider.com/resource/images/icon_144-144.png"/>
-    <hyperlink ref="N6" r:id="rId3" display="https://ymck.me" tooltip="https://ymck.me"/>
-    <hyperlink ref="O6" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="O7" r:id="rId9" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="N8" r:id="rId10" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="N9" r:id="rId12" display="https://airtap.io/w/xiadj"/>
-    <hyperlink ref="O9" r:id="rId13" display="https://pic.zhaotu.me/2023/03/24/-1c326616c9b761482.png"/>
-    <hyperlink ref="AL3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="AM3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="AL4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="AM4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="AR3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="AS3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="AR4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="AS4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="AX3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="AY3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="AX4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="AY4" r:id="rId4" display="https://github.com/fluidicon.png"/>
-    <hyperlink ref="BD3" r:id="rId6" display="https://www.kelongwo.com"/>
-    <hyperlink ref="BE3" r:id="rId7" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="BD4" r:id="rId8" display="https://github.com" tooltip="https://github.com"/>
-    <hyperlink ref="BE4" r:id="rId4" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png"/>
+    <hyperlink ref="N3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="O3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="N4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="O4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="T3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="U3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="T4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="U4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="Z3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AA3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="Z4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AA4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="AF3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AG3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AF4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AG4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="H3" r:id="rId9" display="https://screenlane.com" tooltip="https://screenlane.com"/>
+    <hyperlink ref="I3" r:id="rId10" display="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png"/>
+    <hyperlink ref="C5" r:id="rId11" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
+    <hyperlink ref="B6" r:id="rId12" display="http://ziyuanhuishequ.ys168.com"/>
+    <hyperlink ref="B7" r:id="rId13" display="https://www.kelongwo.com/?aff=7168"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://airtap.io/w/xiadj"/>
+    <hyperlink ref="C8" r:id="rId15" display="/favicon.ico"/>
+    <hyperlink ref="AL3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AM3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AL4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AM4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="AR3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AS3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AR4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AS4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="AX3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="AY3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="AX4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="AY4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="BD3" r:id="rId5" display="https://www.kelongwo.com"/>
+    <hyperlink ref="BE3" r:id="rId6" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
+    <hyperlink ref="BD4" r:id="rId7" display="https://github.com" tooltip="https://github.com"/>
+    <hyperlink ref="BE4" r:id="rId8" display="https://github.com/fluidicon.png"/>
+    <hyperlink ref="B9" r:id="rId16" display="https://gpt.1nav.ml" tooltip="https://gpt.1nav.ml "/>
+    <hyperlink ref="C9" r:id="rId17" display="https://gpt.1nav.ml/favicon.ico"/>
+    <hyperlink ref="C6" r:id="rId18" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
+    <hyperlink ref="H4" r:id="rId19" display="https://dribbble.com"/>
+    <hyperlink ref="H5" r:id="rId20" display="https://collectui.com"/>
+    <hyperlink ref="H6" r:id="rId21" display="https://pixso.cn/community/home"/>
+    <hyperlink ref="H8" r:id="rId22" display="https://search.muz.li"/>
+    <hyperlink ref="H7" r:id="rId23" display="https://www.streamlinehq.com"/>
+    <hyperlink ref="H9" r:id="rId24" display="https://lottiefiles.com"/>
+    <hyperlink ref="H10" r:id="rId25" display="https://lanfucai.com"/>
+    <hyperlink ref="H11" r:id="rId26" display="https://aescripts.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -2806,8 +2806,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CA4" sqref="CA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="570">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -22,36 +22,24 @@
     <t>nice</t>
   </si>
   <si>
-    <t xml:space="preserve"> iconfont icon-like-fill icon-animation</t>
-  </si>
-  <si>
     <t>👩‍🏫 老师推荐</t>
   </si>
   <si>
     <t>teacher</t>
   </si>
   <si>
-    <t>iconfont icon-shuzhuangtu</t>
-  </si>
-  <si>
     <t>🧭 精选设计资源导航网站</t>
   </si>
   <si>
     <t>docs</t>
   </si>
   <si>
-    <t>iconfont icon-jingxuan</t>
-  </si>
-  <si>
     <t>📐 设计网站 &lt;span&gt;（部分需要科学上网）&lt;/span&gt;</t>
   </si>
   <si>
     <t>designweb</t>
   </si>
   <si>
-    <t>iconfont icon-shejishi</t>
-  </si>
-  <si>
     <t>🎨 配色网站</t>
   </si>
   <si>
@@ -82,43 +70,43 @@
     <t>iconfont icon-apply</t>
   </si>
   <si>
-    <t>B站收藏 &lt;span&gt;(禹哥、小白和我推荐的一些up主)&lt;/span&gt;</t>
+    <t>📺️ B站收藏 &lt;span&gt;(禹哥、小白和我推荐的一些up主)&lt;/span&gt;</t>
   </si>
   <si>
     <t>bilibili</t>
   </si>
   <si>
-    <t>设计比赛</t>
+    <t>🥇 设计比赛</t>
   </si>
   <si>
     <t>designrace</t>
   </si>
   <si>
-    <t>在线搜图，动画</t>
+    <t>🖼️ 在线搜图，动画</t>
   </si>
   <si>
     <t>soutu</t>
   </si>
   <si>
-    <t>常用工具~查询</t>
+    <t>🧰 常用工具~查询</t>
   </si>
   <si>
     <t>tools</t>
   </si>
   <si>
-    <t>免费资源下载&lt;span&gt;（PPT模板,字体,设计素材，样机...）&lt;/span&gt;</t>
+    <t>🆓 免费资源下载&lt;span&gt;（PPT模板,字体,设计素材，样机...）&lt;/span&gt;</t>
   </si>
   <si>
     <t>download</t>
   </si>
   <si>
-    <t>毕业论文&lt;span&gt;（校内IP范围内部分免费）&lt;/span&gt;</t>
+    <t>💯 毕业论文&lt;span&gt;（校内IP范围内部分免费）&lt;/span&gt;</t>
   </si>
   <si>
     <t>dissertation</t>
   </si>
   <si>
-    <t>友情链接</t>
+    <t>🙇 友情链接</t>
   </si>
   <si>
     <t>名称</t>
@@ -1743,10 +1731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1805,20 +1793,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1832,8 +1806,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1849,7 +1869,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1862,9 +1882,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1878,47 +1897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,8 +1911,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1947,37 +1935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,13 +1953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,19 +1977,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,19 +2061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,79 +2091,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,9 +2131,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2167,6 +2145,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2186,52 +2203,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2258,30 +2234,30 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,116 +2267,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2413,13 +2389,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2467,22 +2437,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2806,8 +2767,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CA4" sqref="CA4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2825,2111 +2786,2101 @@
     <col min="31" max="59" width="9" style="1"/>
     <col min="60" max="60" width="9" style="4"/>
     <col min="61" max="65" width="9" style="1"/>
-    <col min="66" max="66" width="9" style="5"/>
+    <col min="66" max="66" width="9" style="3"/>
     <col min="67" max="71" width="9" style="1"/>
-    <col min="72" max="72" width="9" style="6"/>
+    <col min="72" max="72" width="9" style="3"/>
     <col min="73" max="77" width="9" style="1"/>
-    <col min="78" max="78" width="9" style="6"/>
+    <col min="78" max="78" width="9" style="3"/>
     <col min="79" max="83" width="9" style="1"/>
-    <col min="84" max="84" width="9" style="6"/>
+    <col min="84" max="84" width="9" style="3"/>
     <col min="85" max="89" width="9" style="1"/>
-    <col min="90" max="90" width="9" style="6"/>
+    <col min="90" max="90" width="9" style="3"/>
     <col min="91" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:95">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AF1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="7" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AL1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="7" t="s">
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AR1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="7" t="s">
+      <c r="AX1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AY1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="7" t="s">
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="7" t="s">
+      <c r="BD1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="7" t="s">
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BP1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="7" t="s">
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BV1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="7" t="s">
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="CB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="7" t="s">
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="CH1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="7" t="s">
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CB1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="CH1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="CN1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
+      <c r="CN1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6"/>
+      <c r="CQ1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:95">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="9" t="s">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="9" t="s">
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="9" t="s">
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AX2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="9" t="s">
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BD2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="9" t="s">
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BJ2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="9" t="s">
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BP2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BS2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="9" t="s">
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BV2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="BX2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BY2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="9" t="s">
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="CB2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="CD2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CE2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="9" t="s">
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CK2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="CH2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="CJ2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CK2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="9" t="s">
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CO2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="CN2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ2" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" ht="156.75" spans="1:95">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="K3" s="10"/>
+      <c r="M3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="N3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="M3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="S3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="T3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="V3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Y3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Z3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AC3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="AF3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="10" t="s">
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AL3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AM3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="10" t="s">
+      <c r="AN3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="10" t="s">
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AR3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AS3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AT3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="10" t="s">
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AX3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="BA3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="10" t="s">
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="BD3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="10" t="s">
+      <c r="BE3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BF3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="10" t="s">
+      <c r="BG3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BD3" s="13" t="s">
+      <c r="BI3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BE3" s="13" t="s">
+      <c r="BJ3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BK3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BG3" s="12" t="s">
+      <c r="BL3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="BN3" s="4"/>
       <c r="BO3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BP3" s="17" t="s">
+      <c r="BV3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="BQ3" s="17" t="s">
+      <c r="BX3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CB3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BV3" s="17" t="s">
+      <c r="CC3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CB3" s="17" t="s">
+      <c r="CH3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="CC3" s="17" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CN3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="CH3" s="17" t="s">
+      <c r="CP3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN3" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" ht="370.5" spans="1:94">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="K4" s="10"/>
+      <c r="M4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="N4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="M4" s="10" t="s">
+      <c r="Q4" s="11"/>
+      <c r="S4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="T4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="V4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Y4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="S4" s="1" t="s">
+      <c r="Z4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AC4" s="11"/>
+      <c r="AE4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AF4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="10" t="s">
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AC4" s="13"/>
-      <c r="AE4" s="10" t="s">
+      <c r="AL4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AM4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="10" t="s">
+      <c r="AN4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="10" t="s">
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AR4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="10" t="s">
+      <c r="AX4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AR4" s="13" t="s">
+      <c r="AY4" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="10" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="10" t="s">
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="BD4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="BE4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AZ4" s="10" t="s">
+      <c r="BF4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="10" t="s">
+      <c r="BG4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="BD4" s="13" t="s">
+      <c r="BI4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BE4" s="13" t="s">
+      <c r="BJ4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BF4" s="10" t="s">
+      <c r="BK4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="BG4" s="13" t="s">
+      <c r="BL4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BJ4" s="17" t="s">
+      <c r="BP4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="BK4" s="17" t="s">
+      <c r="BR4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BU4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BV4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="BP4" s="17" t="s">
+      <c r="BX4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BY4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BV4" s="17" t="s">
+      <c r="CB4" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="CG4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CH4" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="CB4" s="17" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CM4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CG4" s="1" t="s">
+      <c r="CN4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="CH4" s="17" t="s">
+      <c r="CP4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CN4" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" ht="228" spans="1:94">
       <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="I5" s="15"/>
+      <c r="K5" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="P5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="S5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="12" t="s">
+      <c r="V5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="Y5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="S5" s="1" t="s">
+      <c r="Z5" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="AB5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AF5" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="AH5" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL5" s="17" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="AL5" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX5" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="AX5" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="BE5" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BD5" s="17" t="s">
+      <c r="BJ5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="BE5" s="17" t="s">
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BP5" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="BJ5" s="17" t="s">
+      <c r="BR5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BK5" s="17"/>
-      <c r="BL5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BV5" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="BP5" s="17" t="s">
+      <c r="BX5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="CB5" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="17" t="s">
+      <c r="CC5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CH5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="CB5" s="17" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CM5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CN5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="CG5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH5" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CN5" s="17" t="s">
-        <v>201</v>
-      </c>
       <c r="CP5" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="299.25" spans="1:88">
-      <c r="A6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="K6" s="10"/>
+      <c r="M6" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="P6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="M6" s="10" t="s">
+      <c r="Q6" s="10"/>
+      <c r="S6" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="T6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="W6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="S6" s="10" t="s">
+      <c r="Z6" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="AB6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="10" t="s">
+      <c r="AE6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="W6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AF6" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="AG6" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="AL6" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY6" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="AX6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY6" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD6" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BD6" s="17" t="s">
+      <c r="BJ6" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="BE6" s="17" t="s">
+      <c r="BK6" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BP6" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="BJ6" s="17" t="s">
+      <c r="BR6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BK6" s="17" t="s">
+      <c r="BU6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BV6" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BX6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BR6" s="1" t="s">
+      <c r="CA6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="CB6" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="BV6" s="17" t="s">
+      <c r="CC6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="BX6" s="1" t="s">
+      <c r="CD6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CA6" s="1" t="s">
+      <c r="CG6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CB6" s="17" t="s">
+      <c r="CH6" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="CC6" s="17" t="s">
+      <c r="CJ6" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="CH6" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" ht="156.75" spans="1:88">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="10"/>
+      <c r="M7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="P7" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="M7" s="1" t="s">
+      <c r="Q7" s="10"/>
+      <c r="S7" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="T7" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="U7" s="11"/>
+      <c r="V7" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="W7" s="11"/>
+      <c r="AE7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="S7" s="10" t="s">
+      <c r="AF7" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="AH7" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="W7" s="13"/>
-      <c r="AE7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF7" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL7" s="17" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="AL7" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX7" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="AY7" s="17" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="AX7" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY7" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD7" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="BE7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG7" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BD7" s="17" t="s">
+      <c r="BI7" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BE7" s="17" t="s">
+      <c r="BJ7" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BK7" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BL7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BP7" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="BJ7" s="17" t="s">
+      <c r="BR7" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BK7" s="17" t="s">
+      <c r="BU7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BV7" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="BP7" s="17" t="s">
+      <c r="BX7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BR7" s="1" t="s">
+      <c r="CA7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BU7" s="1" t="s">
+      <c r="CB7" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="BV7" s="17" t="s">
+      <c r="CD7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BX7" s="1" t="s">
+      <c r="CG7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CA7" s="1" t="s">
+      <c r="CH7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="CB7" s="17" t="s">
+      <c r="CJ7" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CH7" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" ht="156.75" spans="1:89">
       <c r="A8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="G8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="H8" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="I8" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="J8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="M8" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="N8" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="O8" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="P8" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="Q8" s="10"/>
+      <c r="S8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="T8" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="V8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="AE8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="S8" s="1" t="s">
+      <c r="AF8" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="AH8" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF8" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AX8" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AY8" s="17" t="s">
-        <v>309</v>
+        <v>303</v>
+      </c>
+      <c r="AX8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AY8" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="BE8" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BU8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BD8" s="17" t="s">
+      <c r="BV8" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="BE8" s="17" t="s">
+      <c r="BX8" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="CA8" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="CB8" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="BV8" s="17" t="s">
+      <c r="CD8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BX8" s="1" t="s">
+      <c r="CG8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CH8" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="CB8" s="17" t="s">
+      <c r="CI8" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="CD8" s="1" t="s">
+      <c r="CJ8" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CG8" s="1" t="s">
+      <c r="CK8" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="CH8" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="CI8" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="CJ8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="9" ht="256.5" spans="1:88">
       <c r="A9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="T9" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="U9" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="S9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="AF9" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="AH9" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX9" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY9" s="17" t="s">
-        <v>340</v>
+        <v>334</v>
+      </c>
+      <c r="AX9" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="AY9" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BD9" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="BE9" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BD9" s="17" t="s">
+      <c r="BV9" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="BE9" s="17" t="s">
+      <c r="BX9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="CA9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="CB9" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="BV9" s="17" t="s">
+      <c r="CC9" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="BX9" s="1" t="s">
+      <c r="CD9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="CA9" s="1" t="s">
+      <c r="CG9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="CB9" s="17" t="s">
+      <c r="CH9" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="CC9" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CH9" s="17" t="s">
-        <v>354</v>
-      </c>
       <c r="CJ9" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" ht="99.75" spans="1:88">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="N10" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="P10" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="T10" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="U10" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="AF10" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="AH10" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF10" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AX10" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="AX10" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD10" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE10" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU10" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BD10" s="17" t="s">
+      <c r="BV10" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="BE10" s="17" t="s">
+      <c r="BX10" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="CA10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BG10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU10" s="1" t="s">
+      <c r="CB10" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="BV10" s="17" t="s">
+      <c r="CD10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CG10" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CH10" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="CB10" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="CD10" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="CG10" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="CH10" s="17" t="s">
-        <v>385</v>
-      </c>
       <c r="CJ10" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" ht="228" spans="7:88">
       <c r="G11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="P11" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="T11" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="V11" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="AF11" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="T11" s="17" t="s">
+      <c r="AH11" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF11" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="AI11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AX11" s="17" t="s">
-        <v>400</v>
+        <v>395</v>
+      </c>
+      <c r="AX11" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BD11" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE11" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BU11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BD11" s="17" t="s">
+      <c r="BV11" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="BE11" s="17" t="s">
+      <c r="BX11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="CB11" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="BV11" s="17" t="s">
+      <c r="CD11" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CG11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CH11" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="CB11" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="CD11" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CG11" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CH11" s="17" t="s">
-        <v>413</v>
-      </c>
       <c r="CJ11" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" ht="171" spans="7:82">
       <c r="G12" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="N12" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="P12" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="T12" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="U12" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="AF12" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="AH12" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AF12" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AX12" s="17" t="s">
-        <v>429</v>
+        <v>424</v>
+      </c>
+      <c r="AX12" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BD12" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="BE12" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BU12" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="BD12" s="17" t="s">
+      <c r="BV12" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="BE12" s="17" t="s">
+      <c r="BX12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CA12" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="CB12" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="CC12" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="BV12" s="17" t="s">
+      <c r="CD12" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="BX12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="CA12" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="CB12" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="CC12" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="13" ht="128.25" spans="13:82">
       <c r="M13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AX13" s="17" t="s">
-        <v>447</v>
+        <v>442</v>
+      </c>
+      <c r="AX13" s="15" t="s">
+        <v>443</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD13" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="BE13" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV13" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="BD13" s="17" t="s">
+      <c r="BW13" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="BE13" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="CB13" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="BV13" s="17" t="s">
+      <c r="CD13" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="BW13" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="BX13" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="CA13" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="CB13" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="CD13" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="14" ht="114" spans="13:82">
       <c r="M14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="T14" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="V14" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AX14" s="22" t="s">
-        <v>465</v>
+        <v>460</v>
+      </c>
+      <c r="AX14" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD14" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="BE14" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="BU14" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BD14" s="17" t="s">
+      <c r="BV14" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="BE14" s="17" t="s">
+      <c r="BX14" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="CA14" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="CB14" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="BV14" s="17" t="s">
+      <c r="CD14" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="BX14" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="CA14" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="CB14" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="15" ht="71.25" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>478</v>
+        <v>473</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AX15" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY15" s="17" t="s">
-        <v>482</v>
+        <v>476</v>
+      </c>
+      <c r="AX15" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="AY15" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BV15" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="BW15" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="CA15" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="BV15" s="17" t="s">
+      <c r="CB15" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="BW15" s="17" t="s">
+      <c r="CD15" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="BX15" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="CA15" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="CB15" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="16" ht="57" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AX16" s="17" t="s">
-        <v>495</v>
+        <v>490</v>
+      </c>
+      <c r="AX16" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BV16" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="CB16" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="BV16" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="CA16" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="CB16" s="17" t="s">
-        <v>501</v>
-      </c>
       <c r="CD16" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" ht="185.25" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>504</v>
+        <v>498</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>500</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BV17" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="BX17" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="CA17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="CB17" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="BV17" s="17" t="s">
+      <c r="CC17" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CD17" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="CA17" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="CB17" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="CC17" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="18" ht="370.5" spans="36:82">
@@ -4937,23 +4888,23 @@
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
-      <c r="BU18" s="26" t="s">
+      <c r="BU18" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="BV18" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="BX18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="CA18" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CB18" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="BV18" s="17" t="s">
+      <c r="CD18" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="BX18" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="CA18" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="CB18" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="19" ht="156.75" spans="36:82">
@@ -4962,25 +4913,25 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BV19" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="CA19" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="CB19" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="BV19" s="17" t="s">
+      <c r="CC19" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CD19" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="CA19" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="CB19" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="CC19" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="20" ht="128.25" spans="36:82">
@@ -4989,22 +4940,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="BV20" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="BX20" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="CB20" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="BV20" s="17" t="s">
+      <c r="CD20" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="BX20" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="CA20" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="CB20" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="21" ht="99.75" spans="36:82">
@@ -5013,22 +4964,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="BV21" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="BX21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="CB21" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="BV21" s="17" t="s">
+      <c r="CD21" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="BX21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="CA21" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="CB21" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="22" ht="85.5" spans="36:82">
@@ -5037,25 +4988,25 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="BV22" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="BX22" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="CA22" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="CB22" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="BV22" s="17" t="s">
+      <c r="CC22" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CD22" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="CA22" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="CB22" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="CC22" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="23" ht="85.5" spans="36:82">
@@ -5064,22 +5015,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV23" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="BX23" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CA23" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="CB23" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="BV23" s="17" t="s">
+      <c r="CD23" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="BX23" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="CA23" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="CB23" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="24" ht="71.25" spans="36:83">
@@ -5088,28 +5039,28 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="BV24" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="BX24" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="CA24" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="CB24" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="BV24" s="22" t="s">
+      <c r="CC24" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CD24" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CA24" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="CB24" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="CC24" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="CE24" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="114" spans="36:82">
@@ -5118,64 +5069,64 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="BV25" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="BX25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="CB25" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="BV25" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="BX25" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="CA25" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="CB25" s="17" t="s">
-        <v>562</v>
-      </c>
       <c r="CD25" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" ht="71.25" spans="73:82">
       <c r="BU26" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV26" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CB26" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="BV26" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="BX26" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB26" s="17" t="s">
-        <v>567</v>
-      </c>
       <c r="CD26" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" ht="57" spans="79:82">
       <c r="CA27" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="CB27" s="27" t="s">
-        <v>569</v>
+        <v>564</v>
+      </c>
+      <c r="CB27" s="12" t="s">
+        <v>565</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" ht="85.5" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="CB28" s="17" t="s">
-        <v>572</v>
+        <v>567</v>
+      </c>
+      <c r="CB28" s="15" t="s">
+        <v>568</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/2.xlsx
+++ b/2.xlsx
@@ -1273,7 +1273,7 @@
     <t>http://www.motiongreat.com</t>
   </si>
   <si>
-    <t>http://mg.limiabc.com/wp-content/uploads/2021/03/cropped-%E7%94%BB%E6%9D%BF-1-180x180.png</t>
+    <t>https://3o.hk/images/2023/04/18/image.png</t>
   </si>
   <si>
     <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
@@ -1731,10 +1731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1792,10 +1792,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1813,7 +1822,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1821,55 +1829,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,16 +1850,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,8 +1898,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,7 +1935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,7 +1947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,19 +1959,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,7 +2019,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,115 +2115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,6 +2126,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2164,6 +2197,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2178,54 +2226,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2234,10 +2234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2246,16 +2246,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2267,112 +2267,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2767,8 +2767,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="M11" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4535,7 +4535,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" ht="171" spans="7:82">
+    <row r="12" ht="142.5" spans="7:82">
       <c r="G12" s="1" t="s">
         <v>410</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="T12" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="16" t="s">
         <v>419</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -5322,7 +5322,7 @@
     <hyperlink ref="AS3" r:id="rId183" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
     <hyperlink ref="AY4" r:id="rId184" display="https://lf-cdn-tos.bytescm.com/obj/static/ies/ulike/web/resource/fe_official/assets/imgs/lv/favicon.ico"/>
     <hyperlink ref="U10" r:id="rId185" display="https://3o.hk/images/2023/04/17/20.png"/>
-    <hyperlink ref="U12" r:id="rId186" display="http://mg.limiabc.com/wp-content/uploads/2021/03/cropped-%E7%94%BB%E6%9D%BF-1-180x180.png"/>
+    <hyperlink ref="U12" r:id="rId186" display="https://3o.hk/images/2023/04/18/image.png" tooltip="https://3o.hk/images/2023/04/18/image.png"/>
     <hyperlink ref="U17" r:id="rId187" display="https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png"/>
     <hyperlink ref="AG6" r:id="rId188" display="https://3o.hk/images/2023/04/17/21.png"/>
     <hyperlink ref="AY6" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="573">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1340,6 +1340,15 @@
   </si>
   <si>
     <t>设计作品的交流平台,UI设计师推荐必去网站</t>
+  </si>
+  <si>
+    <t>干的库Pr插件</t>
+  </si>
+  <si>
+    <t>https://gan.cool</t>
+  </si>
+  <si>
+    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
   </si>
   <si>
     <t>adobe全家桶（不限速下载）</t>
@@ -1792,29 +1801,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1829,10 +1815,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1844,7 +1831,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1852,7 +1846,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1866,13 +1884,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1881,27 +1892,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1914,7 +1916,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,18 +1944,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1959,7 +1956,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,49 +2010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,48 +2040,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2085,7 +2052,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,25 +2106,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,6 +2135,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2144,20 +2162,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2177,7 +2192,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2196,36 +2235,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2234,10 +2243,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2246,16 +2255,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2267,112 +2276,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2767,8 +2776,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="V11" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4644,243 +4653,252 @@
       <c r="V13" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="AE13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AX13" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="BD13" s="15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="BE13" s="15" t="s">
         <v>372</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="BV13" s="15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="BW13" s="15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="CB13" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" ht="114" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="BD14" s="15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="BE14" s="15" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="BV14" s="15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="CB14" s="15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" ht="71.25" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AX15" s="15" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AY15" s="15" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="BV15" s="15" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="BW15" s="15" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="CB15" s="15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" ht="57" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AX16" s="15" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="BV16" s="15" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="CB16" s="15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" ht="185.25" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="BV17" s="15" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="CB17" s="15" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="CC17" s="15" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" ht="370.5" spans="36:82">
@@ -4889,22 +4907,22 @@
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="22" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="BV18" s="15" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="CB18" s="15" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" ht="156.75" spans="36:82">
@@ -4913,25 +4931,25 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="BV19" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="CB19" s="15" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="CC19" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" ht="128.25" spans="36:82">
@@ -4940,22 +4958,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="BV20" s="15" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="CB20" s="15" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" ht="99.75" spans="36:82">
@@ -4964,22 +4982,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="BV21" s="15" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="CB21" s="15" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" ht="85.5" spans="36:82">
@@ -4988,25 +5006,25 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="BV22" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="CB22" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="CC22" s="15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" ht="85.5" spans="36:82">
@@ -5015,22 +5033,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="BV23" s="15" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="CB23" s="15" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" ht="71.25" spans="36:83">
@@ -5039,25 +5057,25 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="CB24" s="15" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="CC24" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="CE24" s="1" t="s">
         <v>70</v>
@@ -5069,64 +5087,64 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="BV25" s="15" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="BX25" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CB25" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CD25" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="CA25" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="CB25" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="26" ht="71.25" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="BV26" s="15" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="CB26" s="15" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" ht="57" spans="79:82">
       <c r="CA27" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" ht="85.5" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="CB28" s="15" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5359,6 +5377,7 @@
     <hyperlink ref="CC22" r:id="rId214" display="https://3o.hk/images/2023/04/17/o69.png"/>
     <hyperlink ref="CC19" r:id="rId215" display="https://3o.hk/images/2023/04/17/o78.png"/>
     <hyperlink ref="BW15" r:id="rId216" display="https://3o.hk/images/2023/04/17/28.png"/>
+    <hyperlink ref="AF13" r:id="rId217" display="https://gan.cool" tooltip="https://gan.cool"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -955,7 +955,7 @@
     <t>http://www.aconvert.com/cn/</t>
   </si>
   <si>
-    <t>👍 在线转换PDF，在线转换文档，在线转换电子书，在线转换图像，在线转换视频，在线转换音频</t>
+    <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像。</t>
   </si>
   <si>
     <t>✨freepik✨</t>
@@ -1741,9 +1741,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1801,15 +1801,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1824,9 +1818,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1844,9 +1846,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1862,14 +1908,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1877,39 +1915,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1917,13 +1924,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1944,19 +1944,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,37 +1986,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,19 +2016,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,37 +2088,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,49 +2118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,11 +2138,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,65 +2235,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2243,10 +2243,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2255,16 +2255,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2276,112 +2276,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2776,8 +2776,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V11" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView tabSelected="1" topLeftCell="BI7" workbookViewId="0">
+      <selection activeCell="BX8" sqref="BX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4098,7 +4098,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" ht="156.75" spans="1:89">
+    <row r="8" ht="142.5" spans="1:89">
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="577">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -949,6 +949,102 @@
     <t>孙慢慢字体设计</t>
   </si>
   <si>
+    <t>免费视频压缩</t>
+  </si>
+  <si>
+    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
+  </si>
+  <si>
+    <t>兵哥推荐，免费的视频压缩工具</t>
+  </si>
+  <si>
+    <t>✨freepik✨</t>
+  </si>
+  <si>
+    <t>https://www.freepik.com</t>
+  </si>
+  <si>
+    <t>矢量图，照片，psd样机等免费下载</t>
+  </si>
+  <si>
+    <t>小陈GPT💕(可降重)</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml/favicon.ico</t>
+  </si>
+  <si>
+    <t>向她提问，几乎无所不能</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
+    <t>小陈GPT💕</t>
+  </si>
+  <si>
+    <t>lottie</t>
+  </si>
+  <si>
+    <t>https://lottiefiles.com</t>
+  </si>
+  <si>
+    <t>https://lottiefiles.com/favicons-new/apple-icon-144x144.png</t>
+  </si>
+  <si>
+    <t>世界上最大的洛蒂动画平台。随时随地添加免费动画（即使您不了解运动设计），或使用LottieFiles的设计和开发工具轻松创建、协作和发布运动</t>
+  </si>
+  <si>
+    <t>国外设计欣赏网站</t>
+  </si>
+  <si>
+    <t>http://www.doooor.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png</t>
+  </si>
+  <si>
+    <t>DOOOOR是一个品鉴国外优秀设计作品创意欣赏类平台。</t>
+  </si>
+  <si>
+    <t>C4DNB</t>
+  </si>
+  <si>
+    <t>http://c4dnb.com</t>
+  </si>
+  <si>
+    <t>C4D软件下载-荔枝资源站-更加注重用户体验</t>
+  </si>
+  <si>
+    <t>Snipaste</t>
+  </si>
+  <si>
+    <t>http://zh.snipaste.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o73.png</t>
+  </si>
+  <si>
+    <t>👍Snipaste 是一个简单但强大的截图工具，也可以让你将截图贴回到屏幕上！</t>
+  </si>
+  <si>
+    <t>PS,AI,PR,AE,C4D教程</t>
+  </si>
+  <si>
+    <t>http://space.bilibili.com/25433581</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o96.png</t>
+  </si>
+  <si>
+    <t>up主京译达雅（PS,AI,PR,AE,C4D等教程）</t>
+  </si>
+  <si>
     <t>在线转换</t>
   </si>
   <si>
@@ -958,88 +1054,91 @@
     <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像。</t>
   </si>
   <si>
-    <t>✨freepik✨</t>
-  </si>
-  <si>
-    <t>https://www.freepik.com</t>
-  </si>
-  <si>
-    <t>矢量图，照片，psd样机等免费下载</t>
-  </si>
-  <si>
-    <t>小陈GPT💕(可降重)</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml/favicon.ico</t>
-  </si>
-  <si>
-    <t>向她提问，几乎无所不能</t>
-  </si>
-  <si>
-    <t>gpt</t>
-  </si>
-  <si>
-    <t>小陈GPT💕</t>
-  </si>
-  <si>
-    <t>lottie</t>
-  </si>
-  <si>
-    <t>https://lottiefiles.com</t>
-  </si>
-  <si>
-    <t>https://lottiefiles.com/favicons-new/apple-icon-144x144.png</t>
-  </si>
-  <si>
-    <t>世界上最大的洛蒂动画平台。随时随地添加免费动画（即使您不了解运动设计），或使用LottieFiles的设计和开发工具轻松创建、协作和发布运动</t>
-  </si>
-  <si>
-    <t>国外设计欣赏网站</t>
-  </si>
-  <si>
-    <t>http://www.doooor.com</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png</t>
-  </si>
-  <si>
-    <t>DOOOOR是一个品鉴国外优秀设计作品创意欣赏类平台。</t>
-  </si>
-  <si>
-    <t>C4DNB</t>
-  </si>
-  <si>
-    <t>http://c4dnb.com</t>
-  </si>
-  <si>
-    <t>C4D软件下载-荔枝资源站-更加注重用户体验</t>
-  </si>
-  <si>
-    <t>Snipaste</t>
-  </si>
-  <si>
-    <t>http://zh.snipaste.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o73.png</t>
-  </si>
-  <si>
-    <t>👍Snipaste 是一个简单但强大的截图工具，也可以让你将截图贴回到屏幕上！</t>
-  </si>
-  <si>
-    <t>PS,AI,PR,AE,C4D教程</t>
-  </si>
-  <si>
-    <t>http://space.bilibili.com/25433581</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o96.png</t>
-  </si>
-  <si>
-    <t>up主京译达雅（PS,AI,PR,AE,C4D等教程）</t>
+    <t>云米素材（部分免费）</t>
+  </si>
+  <si>
+    <t>http://www.yunmiss.com/list/1.html</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o66.png</t>
+  </si>
+  <si>
+    <t>云米创意,素材,原创设计,创意平台,psd素材,贴图素材,高清素材</t>
+  </si>
+  <si>
+    <t>免费论文查重-2</t>
+  </si>
+  <si>
+    <t>http://www.paperray.com</t>
+  </si>
+  <si>
+    <t>#docs</t>
+  </si>
+  <si>
+    <t>🍀精选设计资源导航网站</t>
+  </si>
+  <si>
+    <t>后期屋（国内）</t>
+  </si>
+  <si>
+    <t>https://lanfucai.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o42x.png</t>
+  </si>
+  <si>
+    <t>后期屋-ae模板网ae插件网视频素材下载站</t>
+  </si>
+  <si>
+    <t>灰大设计导航</t>
+  </si>
+  <si>
+    <t>http://www.pslkzs.com/nav.php</t>
+  </si>
+  <si>
+    <t>灰大设计导航是灰色执照创建的设计师导航网站</t>
+  </si>
+  <si>
+    <t>UI中国</t>
+  </si>
+  <si>
+    <t>http://ui.cn</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/20.png</t>
+  </si>
+  <si>
+    <t>UICN用户体验设计平台</t>
+  </si>
+  <si>
+    <t>ps插件网</t>
+  </si>
+  <si>
+    <t>http://chajianps.cn</t>
+  </si>
+  <si>
+    <t>ps插件网-立志帮助更多的中国PS插件用户</t>
+  </si>
+  <si>
+    <t>各种电脑软件</t>
+  </si>
+  <si>
+    <t>http://www.lanzoux.com/s/wp</t>
+  </si>
+  <si>
+    <t>打开是蓝奏云各种电脑软件的下载链接</t>
+  </si>
+  <si>
+    <t>敬伟PS教程(有趣，好评)</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1YW411e7n5/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/24.png</t>
+  </si>
+  <si>
+    <t>👍敬伟PS教程全集，建议初学者看这个，特别详细！！！</t>
   </si>
   <si>
     <t>在线格式转换</t>
@@ -1051,91 +1150,79 @@
     <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
   </si>
   <si>
-    <t>云米素材（部分免费）</t>
-  </si>
-  <si>
-    <t>http://www.yunmiss.com/list/1.html</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o66.png</t>
-  </si>
-  <si>
-    <t>云米创意,素材,原创设计,创意平台,psd素材,贴图素材,高清素材</t>
-  </si>
-  <si>
-    <t>免费论文查重-2</t>
-  </si>
-  <si>
-    <t>http://www.paperray.com</t>
-  </si>
-  <si>
-    <t>#docs</t>
-  </si>
-  <si>
-    <t>🍀精选设计资源导航网站</t>
-  </si>
-  <si>
-    <t>后期屋（国内）</t>
-  </si>
-  <si>
-    <t>https://lanfucai.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o42x.png</t>
-  </si>
-  <si>
-    <t>后期屋-ae模板网ae插件网视频素材下载站</t>
-  </si>
-  <si>
-    <t>灰大设计导航</t>
-  </si>
-  <si>
-    <t>http://www.pslkzs.com/nav.php</t>
-  </si>
-  <si>
-    <t>灰大设计导航是灰色执照创建的设计师导航网站</t>
-  </si>
-  <si>
-    <t>UI中国</t>
-  </si>
-  <si>
-    <t>http://ui.cn</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/20.png</t>
-  </si>
-  <si>
-    <t>UICN用户体验设计平台</t>
-  </si>
-  <si>
-    <t>ps插件网</t>
-  </si>
-  <si>
-    <t>http://chajianps.cn</t>
-  </si>
-  <si>
-    <t>ps插件网-立志帮助更多的中国PS插件用户</t>
-  </si>
-  <si>
-    <t>各种电脑软件</t>
-  </si>
-  <si>
-    <t>http://www.lanzoux.com/s/wp</t>
-  </si>
-  <si>
-    <t>打开是蓝奏云各种电脑软件的下载链接</t>
-  </si>
-  <si>
-    <t>敬伟PS教程(有趣，好评)</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1YW411e7n5/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/24.png</t>
-  </si>
-  <si>
-    <t>👍敬伟PS教程全集，建议初学者看这个，特别详细！！！</t>
+    <t>模库网</t>
+  </si>
+  <si>
+    <t>http://www.mcool.com/free.php</t>
+  </si>
+  <si>
+    <t>免费设计素材模板下载图库共享网站</t>
+  </si>
+  <si>
+    <t>免费论文查重-3</t>
+  </si>
+  <si>
+    <t>http://www.paperdatas.com</t>
+  </si>
+  <si>
+    <t>aescripts+aeplugins</t>
+  </si>
+  <si>
+    <t>https://aescripts.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png</t>
+  </si>
+  <si>
+    <t>主流插件网站（国外）</t>
+  </si>
+  <si>
+    <t>UI设计师导航网 - 优阁</t>
+  </si>
+  <si>
+    <t>http://so.uigreat.com</t>
+  </si>
+  <si>
+    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
+  </si>
+  <si>
+    <t>纹藏</t>
+  </si>
+  <si>
+    <t>http://wenzang.art</t>
+  </si>
+  <si>
+    <t>纹藏Wenzang.art中国纹样线上博物馆</t>
+  </si>
+  <si>
+    <t>iTab新标签页</t>
+  </si>
+  <si>
+    <t>https://itab.link</t>
+  </si>
+  <si>
+    <t>👍iTab新标签页（强烈推荐，已经安利了好几个人了）</t>
+  </si>
+  <si>
+    <t>手机软件</t>
+  </si>
+  <si>
+    <t>http://www.lanzoux.com/s/APP</t>
+  </si>
+  <si>
+    <t>只能手机端打开，影视、动漫、小说、工具类等~</t>
+  </si>
+  <si>
+    <t>系列AE教程（全41讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/25.png</t>
+  </si>
+  <si>
+    <t>AE软件课程入门【2018全套零基础AE教程】</t>
   </si>
   <si>
     <t>gif编辑器</t>
@@ -1147,79 +1234,82 @@
     <t>亲测可以制作动态qq头像</t>
   </si>
   <si>
-    <t>模库网</t>
-  </si>
-  <si>
-    <t>http://www.mcool.com/free.php</t>
-  </si>
-  <si>
-    <t>免费设计素材模板下载图库共享网站</t>
-  </si>
-  <si>
-    <t>免费论文查重-3</t>
-  </si>
-  <si>
-    <t>http://www.paperdatas.com</t>
-  </si>
-  <si>
-    <t>aescripts+aeplugins</t>
-  </si>
-  <si>
-    <t>https://aescripts.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png</t>
-  </si>
-  <si>
-    <t>主流插件网站（国外）</t>
-  </si>
-  <si>
-    <t>UI设计师导航网 - 优阁</t>
-  </si>
-  <si>
-    <t>http://so.uigreat.com</t>
-  </si>
-  <si>
-    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
-  </si>
-  <si>
-    <t>纹藏</t>
-  </si>
-  <si>
-    <t>http://wenzang.art</t>
-  </si>
-  <si>
-    <t>纹藏Wenzang.art中国纹样线上博物馆</t>
-  </si>
-  <si>
-    <t>iTab新标签页</t>
-  </si>
-  <si>
-    <t>https://itab.link</t>
-  </si>
-  <si>
-    <t>👍iTab新标签页（强烈推荐，已经安利了好几个人了）</t>
-  </si>
-  <si>
-    <t>手机软件</t>
-  </si>
-  <si>
-    <t>http://www.lanzoux.com/s/APP</t>
-  </si>
-  <si>
-    <t>只能手机端打开，影视、动漫、小说、工具类等~</t>
-  </si>
-  <si>
-    <t>系列AE教程（全41讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/25.png</t>
-  </si>
-  <si>
-    <t>AE软件课程入门【2018全套零基础AE教程】</t>
+    <t>魔酷网</t>
+  </si>
+  <si>
+    <t>https://blender.kim</t>
+  </si>
+  <si>
+    <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
+  </si>
+  <si>
+    <t>免费论文查重-4</t>
+  </si>
+  <si>
+    <t>http://www.paperfree.cn/freeActivity/index.html</t>
+  </si>
+  <si>
+    <t>配色集</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/485723138</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
+  </si>
+  <si>
+    <t>老师推荐的B站分享配色的up主</t>
+  </si>
+  <si>
+    <t>创造狮 创意工作者导航</t>
+  </si>
+  <si>
+    <t>http://www.chuangzaoshi.com</t>
+  </si>
+  <si>
+    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
+  </si>
+  <si>
+    <t>动效设计学习网-Motion Great</t>
+  </si>
+  <si>
+    <t>http://www.motiongreat.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/18/image.png</t>
+  </si>
+  <si>
+    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
+  </si>
+  <si>
+    <t>Infinity新标签页</t>
+  </si>
+  <si>
+    <t>http://cn.infinitynewtab.com</t>
+  </si>
+  <si>
+    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
+  </si>
+  <si>
+    <t>ZaproPAN</t>
+  </si>
+  <si>
+    <t>http://pan.zps.im</t>
+  </si>
+  <si>
+    <t>（含adobe全家桶）一个良心公众号搭建的的不限速云盘</t>
+  </si>
+  <si>
+    <t>AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/26.png</t>
+  </si>
+  <si>
+    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
   </si>
   <si>
     <t>Zamzar 在线格式转换</t>
@@ -1231,82 +1321,58 @@
     <t>打开是英文的，英语不是很好也能差不多能看懂</t>
   </si>
   <si>
-    <t>魔酷网</t>
-  </si>
-  <si>
-    <t>https://blender.kim</t>
-  </si>
-  <si>
-    <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
-  </si>
-  <si>
-    <t>免费论文查重-4</t>
-  </si>
-  <si>
-    <t>http://www.paperfree.cn/freeActivity/index.html</t>
-  </si>
-  <si>
-    <t>配色集</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/485723138</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
-  </si>
-  <si>
-    <t>老师推荐的B站分享配色的up主</t>
-  </si>
-  <si>
-    <t>创造狮 创意工作者导航</t>
-  </si>
-  <si>
-    <t>http://www.chuangzaoshi.com</t>
-  </si>
-  <si>
-    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
-  </si>
-  <si>
-    <t>动效设计学习网-Motion Great</t>
-  </si>
-  <si>
-    <t>http://www.motiongreat.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/18/image.png</t>
-  </si>
-  <si>
-    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
-  </si>
-  <si>
-    <t>Infinity新标签页</t>
-  </si>
-  <si>
-    <t>http://cn.infinitynewtab.com</t>
-  </si>
-  <si>
-    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
-  </si>
-  <si>
-    <t>ZaproPAN</t>
-  </si>
-  <si>
-    <t>http://pan.zps.im</t>
-  </si>
-  <si>
-    <t>（含adobe全家桶）一个良心公众号搭建的的不限速云盘</t>
-  </si>
-  <si>
-    <t>AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/26.png</t>
-  </si>
-  <si>
-    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
+    <t>魔顿网</t>
+  </si>
+  <si>
+    <t>http://www.modown.cn/?aff=70874</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.modown.cn.png</t>
+  </si>
+  <si>
+    <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
+  </si>
+  <si>
+    <t>设计师网站导航</t>
+  </si>
+  <si>
+    <t>http://hao.shijuechuanda.com</t>
+  </si>
+  <si>
+    <t>设计网址导航 | 视觉传达</t>
+  </si>
+  <si>
+    <t>http://dribbble.com</t>
+  </si>
+  <si>
+    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
+  </si>
+  <si>
+    <t>干的库Pr插件</t>
+  </si>
+  <si>
+    <t>https://gan.cool</t>
+  </si>
+  <si>
+    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
+  </si>
+  <si>
+    <t>adobe全家桶（不限速下载）</t>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
+  </si>
+  <si>
+    <t>转载阿虚大佬的</t>
+  </si>
+  <si>
+    <t>PS2019教程（全80讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
+  </si>
+  <si>
+    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
   </si>
   <si>
     <t>文档格式在线转换</t>
@@ -1315,58 +1381,52 @@
     <t>http://smallpdf.com</t>
   </si>
   <si>
-    <t>魔顿网</t>
-  </si>
-  <si>
-    <t>http://www.modown.cn/?aff=70874</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/www.modown.cn.png</t>
-  </si>
-  <si>
-    <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
-  </si>
-  <si>
-    <t>设计师网站导航</t>
-  </si>
-  <si>
-    <t>http://hao.shijuechuanda.com</t>
-  </si>
-  <si>
-    <t>设计网址导航 | 视觉传达</t>
-  </si>
-  <si>
-    <t>http://dribbble.com</t>
-  </si>
-  <si>
-    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
-  </si>
-  <si>
-    <t>干的库Pr插件</t>
-  </si>
-  <si>
-    <t>https://gan.cool</t>
-  </si>
-  <si>
-    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
-  </si>
-  <si>
-    <t>adobe全家桶（不限速下载）</t>
-  </si>
-  <si>
-    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
-  </si>
-  <si>
-    <t>转载阿虚大佬的</t>
-  </si>
-  <si>
-    <t>PS2019教程（全80讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
-  </si>
-  <si>
-    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
+    <t>3D溜溜网</t>
+  </si>
+  <si>
+    <t>https://www.3d66.com</t>
+  </si>
+  <si>
+    <t>【3D模型免费下载】打造一流的3DMax模型库_3D溜溜网 3d66.com</t>
+  </si>
+  <si>
+    <t>奶牛导航</t>
+  </si>
+  <si>
+    <t>http://ebook.name/nav.html</t>
+  </si>
+  <si>
+    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>http://www.behance.net</t>
+  </si>
+  <si>
+    <t>系列设计作品开放平台</t>
+  </si>
+  <si>
+    <t>亿破姐</t>
+  </si>
+  <si>
+    <t>http://www.ypojie.com</t>
+  </si>
+  <si>
+    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
+  </si>
+  <si>
+    <t>Pr教程(全57集)</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/27.png</t>
+  </si>
+  <si>
+    <t>Pr2015教程全57集</t>
   </si>
   <si>
     <t>png→svg</t>
@@ -1378,52 +1438,34 @@
     <t>https://3o.hk/images/2023/04/17/o80.png</t>
   </si>
   <si>
-    <t>3D溜溜网</t>
-  </si>
-  <si>
-    <t>https://www.3d66.com</t>
-  </si>
-  <si>
-    <t>【3D模型免费下载】打造一流的3DMax模型库_3D溜溜网 3d66.com</t>
-  </si>
-  <si>
-    <t>奶牛导航</t>
-  </si>
-  <si>
-    <t>http://ebook.name/nav.html</t>
-  </si>
-  <si>
-    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>http://www.behance.net</t>
-  </si>
-  <si>
-    <t>系列设计作品开放平台</t>
-  </si>
-  <si>
-    <t>亿破姐</t>
-  </si>
-  <si>
-    <t>http://www.ypojie.com</t>
-  </si>
-  <si>
-    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
-  </si>
-  <si>
-    <t>Pr教程(全57集)</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/27.png</t>
-  </si>
-  <si>
-    <t>Pr2015教程全57集</t>
+    <t>CG模型网</t>
+  </si>
+  <si>
+    <t>https://www.cgmodel.com</t>
+  </si>
+  <si>
+    <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
+  </si>
+  <si>
+    <t>Pinterest (花瓣它爹)</t>
+  </si>
+  <si>
+    <t>http://www.pinterest.com</t>
+  </si>
+  <si>
+    <t>设计灵感收集地，图片分享类的社交网站</t>
+  </si>
+  <si>
+    <t>滚动截屏</t>
+  </si>
+  <si>
+    <t>http://snip.qq.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/4.png</t>
+  </si>
+  <si>
+    <t>腾讯qq出品-滚动截屏</t>
   </si>
   <si>
     <t>在线抠图</t>
@@ -1435,34 +1477,31 @@
     <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
   </si>
   <si>
-    <t>CG模型网</t>
-  </si>
-  <si>
-    <t>https://www.cgmodel.com</t>
-  </si>
-  <si>
-    <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
-  </si>
-  <si>
-    <t>Pinterest (花瓣它爹)</t>
-  </si>
-  <si>
-    <t>http://www.pinterest.com</t>
-  </si>
-  <si>
-    <t>设计灵感收集地，图片分享类的社交网站</t>
-  </si>
-  <si>
-    <t>滚动截屏</t>
-  </si>
-  <si>
-    <t>http://snip.qq.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/4.png</t>
-  </si>
-  <si>
-    <t>腾讯qq出品-滚动截屏</t>
+    <t>51PPT</t>
+  </si>
+  <si>
+    <t>http://www.51pptmoban.com</t>
+  </si>
+  <si>
+    <t>51PPT模板网 - 幻灯片演示模板及素材下载</t>
+  </si>
+  <si>
+    <t>Boss设计</t>
+  </si>
+  <si>
+    <t>http://www.bossdesign.cn</t>
+  </si>
+  <si>
+    <t>收集国外设计素材网站的资源平台。</t>
+  </si>
+  <si>
+    <t>小熊软件助手</t>
+  </si>
+  <si>
+    <t>https://www.xxrjzs.com</t>
+  </si>
+  <si>
+    <t>自建网盘下载速度快</t>
   </si>
   <si>
     <t>UI尺寸规范</t>
@@ -1477,31 +1516,22 @@
     <t>iPhone/iPad/Android UI尺寸规范</t>
   </si>
   <si>
-    <t>51PPT</t>
-  </si>
-  <si>
-    <t>http://www.51pptmoban.com</t>
-  </si>
-  <si>
-    <t>51PPT模板网 - 幻灯片演示模板及素材下载</t>
-  </si>
-  <si>
-    <t>Boss设计</t>
-  </si>
-  <si>
-    <t>http://www.bossdesign.cn</t>
-  </si>
-  <si>
-    <t>收集国外设计素材网站的资源平台。</t>
-  </si>
-  <si>
-    <t>小熊软件助手</t>
-  </si>
-  <si>
-    <t>https://www.xxrjzs.com</t>
-  </si>
-  <si>
-    <t>自建网盘下载速度快</t>
+    <t>第一PPT</t>
+  </si>
+  <si>
+    <t>http://www.1ppt.com</t>
+  </si>
+  <si>
+    <t>像素画</t>
+  </si>
+  <si>
+    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
+  </si>
+  <si>
+    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
+  </si>
+  <si>
+    <t>一个分享好看的像素画的网站</t>
   </si>
   <si>
     <t>Screen Sizes</t>
@@ -1513,22 +1543,16 @@
     <t>在线查询不同设备的屏幕尺寸</t>
   </si>
   <si>
-    <t>第一PPT</t>
-  </si>
-  <si>
-    <t>http://www.1ppt.com</t>
-  </si>
-  <si>
-    <t>像素画</t>
-  </si>
-  <si>
-    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
-  </si>
-  <si>
-    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
-  </si>
-  <si>
-    <t>一个分享好看的像素画的网站</t>
+    <t>爱给网</t>
+  </si>
+  <si>
+    <t>http://aigei.com/design/?m=b_4425938</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o63.png</t>
+  </si>
+  <si>
+    <t>免费提供免费的音效配乐|3D模型|视频|游戏素材资源下载</t>
   </si>
   <si>
     <t>IPhone屏幕尺寸</t>
@@ -1540,16 +1564,13 @@
     <t>IPhone各设备屏幕尺寸信息参数</t>
   </si>
   <si>
-    <t>爱给网</t>
-  </si>
-  <si>
-    <t>http://aigei.com/design/?m=b_4425938</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o63.png</t>
-  </si>
-  <si>
-    <t>免费提供免费的音效配乐|3D模型|视频|游戏素材资源下载</t>
+    <t>5素材</t>
+  </si>
+  <si>
+    <t>http://www.5sucai.com</t>
+  </si>
+  <si>
+    <t>免费设计素材下载,免抠PNG图片素材,免抠PS素材模板,PSD免抠设计背景图片,平面广告海报图片模板素材，psd艺术字免抠图片等免费设计素材图片下载，电商淘宝素材模板，平面广告模板素材等在线素材下载，免费素材共享。</t>
   </si>
   <si>
     <t>安卓尺寸</t>
@@ -1561,13 +1582,16 @@
     <t>Google安卓主流设备尺寸</t>
   </si>
   <si>
-    <t>5素材</t>
-  </si>
-  <si>
-    <t>http://www.5sucai.com</t>
-  </si>
-  <si>
-    <t>免费设计素材下载,免抠PNG图片素材,免抠PS素材模板,PSD免抠设计背景图片,平面广告海报图片模板素材，psd艺术字免抠图片等免费设计素材图片下载，电商淘宝素材模板，平面广告模板素材等在线素材下载，免费素材共享。</t>
+    <t>设计部落</t>
+  </si>
+  <si>
+    <t>http://www.sheji567.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o78.png</t>
+  </si>
+  <si>
+    <t>素材,图库,图片,图片下载,设计素材,PSD,矢量,AI,CDR,EPS,设计,免费素材网,素材天下,PS素材</t>
   </si>
   <si>
     <t>草料二维码</t>
@@ -1579,16 +1603,13 @@
     <t>免费在线二维码解码器</t>
   </si>
   <si>
-    <t>设计部落</t>
-  </si>
-  <si>
-    <t>http://www.sheji567.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o78.png</t>
-  </si>
-  <si>
-    <t>素材,图库,图片,图片下载,设计素材,PSD,矢量,AI,CDR,EPS,设计,免费素材网,素材天下,PS素材</t>
+    <t>觅元素</t>
+  </si>
+  <si>
+    <t>http://www.51yuansu.com</t>
+  </si>
+  <si>
+    <t>免抠素材,位图,透明背景素材,透明背景图片,免抠png,高清png</t>
   </si>
   <si>
     <t>png压缩</t>
@@ -1600,13 +1621,13 @@
     <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
   </si>
   <si>
-    <t>觅元素</t>
-  </si>
-  <si>
-    <t>http://www.51yuansu.com</t>
-  </si>
-  <si>
-    <t>免抠素材,位图,透明背景素材,透明背景图片,免抠png,高清png</t>
+    <t>矢量插画下载</t>
+  </si>
+  <si>
+    <t>http://undraw.co/illustrations</t>
+  </si>
+  <si>
+    <t>免抠矢量插画下载</t>
   </si>
   <si>
     <t>图片压缩</t>
@@ -1618,13 +1639,16 @@
     <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
   </si>
   <si>
-    <t>矢量插画下载</t>
-  </si>
-  <si>
-    <t>http://undraw.co/illustrations</t>
-  </si>
-  <si>
-    <t>免抠矢量插画下载</t>
+    <t>绘艺素材-音效网</t>
+  </si>
+  <si>
+    <t>http://www.huiyi8.com/yinxiao</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o69.png</t>
+  </si>
+  <si>
+    <t>绘艺素材音效网提供各类音效下载</t>
   </si>
   <si>
     <t>ProcessOn -思维导图</t>
@@ -1636,16 +1660,13 @@
     <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
   </si>
   <si>
-    <t>绘艺素材-音效网</t>
-  </si>
-  <si>
-    <t>http://www.huiyi8.com/yinxiao</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o69.png</t>
-  </si>
-  <si>
-    <t>绘艺素材音效网提供各类音效下载</t>
+    <t>免费商用字体</t>
+  </si>
+  <si>
+    <t>http://www.zifh.com</t>
+  </si>
+  <si>
+    <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
   </si>
   <si>
     <t>千图抠图工具</t>
@@ -1657,13 +1678,16 @@
     <t>AI自动抠图-千图抠图工具</t>
   </si>
   <si>
-    <t>免费商用字体</t>
-  </si>
-  <si>
-    <t>http://www.zifh.com</t>
-  </si>
-  <si>
-    <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
+    <t>猫啃网(免费字体)</t>
+  </si>
+  <si>
+    <t>http://www.maoken.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o1.png</t>
+  </si>
+  <si>
+    <t>免费下载无版权可商用字体-英文中文字体</t>
   </si>
   <si>
     <t>去除gif背景</t>
@@ -1675,16 +1699,10 @@
     <t>AI自动抠图去除gif背景</t>
   </si>
   <si>
-    <t>猫啃网(免费字体)</t>
-  </si>
-  <si>
-    <t>http://www.maoken.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o1.png</t>
-  </si>
-  <si>
-    <t>免费下载无版权可商用字体-英文中文字体</t>
+    <t>字体仓库</t>
+  </si>
+  <si>
+    <t>http://www.ziticangku.com</t>
   </si>
   <si>
     <t>在线文件转换</t>
@@ -1696,10 +1714,10 @@
     <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
   </si>
   <si>
-    <t>字体仓库</t>
-  </si>
-  <si>
-    <t>http://www.ziticangku.com</t>
+    <t>100font</t>
+  </si>
+  <si>
+    <t>http://www.100font.com</t>
   </si>
   <si>
     <t>在线矢量设计</t>
@@ -1709,12 +1727,6 @@
   </si>
   <si>
     <t>图像艺术矢量化</t>
-  </si>
-  <si>
-    <t>100font</t>
-  </si>
-  <si>
-    <t>http://www.100font.com</t>
   </si>
   <si>
     <t>Fonts2u</t>
@@ -1741,8 +1753,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1801,22 +1813,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1847,12 +1865,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1861,10 +1880,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1884,15 +1903,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1914,16 +1927,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1944,85 +1956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,7 +1968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,7 +1986,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,67 +2130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,17 +2150,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2158,6 +2166,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,26 +2203,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2207,16 +2210,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2235,6 +2238,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2243,10 +2255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2255,16 +2267,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2276,112 +2288,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2777,7 +2789,7 @@
   <dimension ref="A1:CQ28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BI7" workbookViewId="0">
-      <selection activeCell="BX8" sqref="BX8"/>
+      <selection activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4188,64 +4200,67 @@
       <c r="BU8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BV8" s="15" t="s">
+      <c r="BV8" s="16" t="s">
         <v>312</v>
       </c>
+      <c r="BW8" s="15" t="s">
+        <v>313</v>
+      </c>
       <c r="BX8" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CB8" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CH8" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="CI8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" ht="242.25" spans="1:88">
+      <c r="A9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="CJ8" s="1" t="s">
+      <c r="C9" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="CK8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="9" ht="256.5" spans="1:88">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>87</v>
@@ -4261,188 +4276,188 @@
       </c>
       <c r="Q9" s="10"/>
       <c r="S9" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF9" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AX9" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AY9" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BD9" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BE9" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BV9" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="CB9" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="CC9" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="CH9" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" ht="99.75" spans="1:88">
+    <row r="10" ht="256.5" spans="1:88">
       <c r="A10" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AX10" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="BD10" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BE10" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BV10" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CB10" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CH10" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>283</v>
@@ -4450,43 +4465,43 @@
     </row>
     <row r="11" ht="228" spans="7:88">
       <c r="G11" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>70</v>
@@ -4495,50 +4510,50 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AX11" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BD11" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BE11" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BV11" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="CB11" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="CH11" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>283</v>
@@ -4546,265 +4561,262 @@
     </row>
     <row r="12" ht="142.5" spans="7:82">
       <c r="G12" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF12" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AX12" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BD12" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BE12" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BV12" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="CB12" s="15" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="CC12" s="15" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" ht="128.25" spans="13:82">
       <c r="M13" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF13" s="15" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AX13" s="15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="BD13" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="BE13" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="BV13" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="BW13" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="BX13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="CA13" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="CB13" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" ht="114" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BD14" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BE14" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BV14" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="BW14" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="BX14" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="CA14" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="CB14" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="15" ht="71.25" spans="19:82">
+    <row r="15" ht="85.5" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AX15" s="15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AY15" s="15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BV15" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="BW15" s="15" t="s">
         <v>485</v>
       </c>
       <c r="BX15" s="1" t="s">
@@ -4820,7 +4832,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" ht="57" spans="19:82">
+    <row r="16" ht="71.25" spans="19:82">
       <c r="S16" s="1" t="s">
         <v>490</v>
       </c>
@@ -4849,56 +4861,59 @@
       <c r="BV16" s="15" t="s">
         <v>497</v>
       </c>
+      <c r="BW16" s="15" t="s">
+        <v>498</v>
+      </c>
       <c r="BX16" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="CB16" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="CD16" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="17" ht="185.25" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BV17" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CB17" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CC17" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" ht="370.5" spans="36:82">
@@ -4906,23 +4921,23 @@
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
-      <c r="BU18" s="22" t="s">
-        <v>512</v>
+      <c r="BU18" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="BV18" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CB18" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" ht="156.75" spans="36:82">
@@ -4930,101 +4945,101 @@
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BU19" s="1" t="s">
-        <v>518</v>
+      <c r="BU19" s="22" t="s">
+        <v>519</v>
       </c>
       <c r="BV19" s="15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CB19" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CC19" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="20" ht="128.25" spans="36:82">
+    <row r="20" ht="99.75" spans="36:82">
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BV20" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="CB20" s="15" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="21" ht="99.75" spans="36:82">
+    <row r="21" ht="128.25" spans="36:82">
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BV21" s="15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="CB21" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="22" ht="85.5" spans="36:82">
+    <row r="22" ht="99.75" spans="36:82">
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BV22" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CB22" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CC22" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" ht="85.5" spans="36:82">
@@ -5033,22 +5048,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="BV23" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CB23" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" ht="71.25" spans="36:83">
@@ -5057,94 +5072,103 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="BV24" s="14" t="s">
         <v>551</v>
       </c>
+      <c r="BV24" s="15" t="s">
+        <v>552</v>
+      </c>
       <c r="BX24" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CB24" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CC24" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CE24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" ht="114" spans="36:82">
+    <row r="25" ht="71.25" spans="36:82">
       <c r="AJ25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="BV25" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="BX25" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CB25" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="CD25" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="BV25" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="BX25" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="CA25" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="CB25" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>556</v>
-      </c>
     </row>
-    <row r="26" ht="71.25" spans="73:82">
+    <row r="26" ht="114" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="BV26" s="15" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CB26" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="27" ht="57" spans="79:82">
+    <row r="27" ht="57" spans="73:82">
+      <c r="BU27" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="BV27" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="BX27" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="CA27" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" ht="85.5" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="CB28" s="15" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5278,25 +5302,25 @@
     <hyperlink ref="BV5" r:id="rId123" display="http://www.bossdesign.cn/pdftools"/>
     <hyperlink ref="BV6" r:id="rId124" display="https://www.pdf2go.com/zh"/>
     <hyperlink ref="BV7" r:id="rId125" display="http://app.xunjiepdf.com"/>
-    <hyperlink ref="BV8" r:id="rId126" display="http://www.aconvert.com/cn/"/>
-    <hyperlink ref="BV9" r:id="rId127" display="http://zhuanhuan.supfree.net"/>
-    <hyperlink ref="BV10" r:id="rId128" display="https://ezgif.com"/>
-    <hyperlink ref="BV11" r:id="rId129" display="http://www.zamzar.com"/>
-    <hyperlink ref="BV12" r:id="rId130" display="http://smallpdf.com"/>
-    <hyperlink ref="BV13" r:id="rId131" display="http://www.pngtosvg.com"/>
-    <hyperlink ref="BV14" r:id="rId132" display="http://www.remove.bg/zh"/>
-    <hyperlink ref="BV15" r:id="rId133" display="http://tool.lanrentuku.com/guifan/ui.html"/>
-    <hyperlink ref="BV16" r:id="rId134" display="http://screensiz.es/"/>
-    <hyperlink ref="BV17" r:id="rId135" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
-    <hyperlink ref="BV18" r:id="rId136" display="http://material.io/blog/device-metrics"/>
-    <hyperlink ref="BV19" r:id="rId137" display="http://cli.im/deqr"/>
-    <hyperlink ref="BV20" r:id="rId138" display="http://tinify.cn"/>
-    <hyperlink ref="BV21" r:id="rId139" display="http://www.yasuotu.com"/>
-    <hyperlink ref="BV22" r:id="rId140" display="http://www.processon.com"/>
-    <hyperlink ref="BV23" r:id="rId141" display="http://koutu.58pic.com"/>
-    <hyperlink ref="BV24" r:id="rId142" display="http://www.unscreen.com/upload"/>
-    <hyperlink ref="BV25" r:id="rId143" display="https://products.groupdocs.app/zh/conversion/total"/>
-    <hyperlink ref="BV26" r:id="rId144" display="https://vectordad.com"/>
+    <hyperlink ref="BV9" r:id="rId126" display="http://www.aconvert.com/cn/"/>
+    <hyperlink ref="BV10" r:id="rId127" display="http://zhuanhuan.supfree.net"/>
+    <hyperlink ref="BV11" r:id="rId128" display="https://ezgif.com"/>
+    <hyperlink ref="BV12" r:id="rId129" display="http://www.zamzar.com"/>
+    <hyperlink ref="BV13" r:id="rId130" display="http://smallpdf.com"/>
+    <hyperlink ref="BV14" r:id="rId131" display="http://www.pngtosvg.com"/>
+    <hyperlink ref="BV15" r:id="rId132" display="http://www.remove.bg/zh"/>
+    <hyperlink ref="BV16" r:id="rId133" display="http://tool.lanrentuku.com/guifan/ui.html"/>
+    <hyperlink ref="BV17" r:id="rId134" display="http://screensiz.es/"/>
+    <hyperlink ref="BV18" r:id="rId135" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
+    <hyperlink ref="BV19" r:id="rId136" display="http://material.io/blog/device-metrics"/>
+    <hyperlink ref="BV20" r:id="rId137" display="http://cli.im/deqr"/>
+    <hyperlink ref="BV21" r:id="rId138" display="http://tinify.cn"/>
+    <hyperlink ref="BV22" r:id="rId139" display="http://www.yasuotu.com"/>
+    <hyperlink ref="BV23" r:id="rId140" display="http://www.processon.com"/>
+    <hyperlink ref="BV24" r:id="rId141" display="http://koutu.58pic.com"/>
+    <hyperlink ref="BV25" r:id="rId142" display="http://www.unscreen.com/upload"/>
+    <hyperlink ref="BV26" r:id="rId143" display="https://products.groupdocs.app/zh/conversion/total"/>
+    <hyperlink ref="BV27" r:id="rId144" display="https://vectordad.com"/>
     <hyperlink ref="CN3" r:id="rId145" display="http://www.freehost.cc"/>
     <hyperlink ref="CN4" r:id="rId146" display="http://www.xiadj.cf"/>
     <hyperlink ref="CN5" r:id="rId147" display="https://dh.4everland.app"/>
@@ -5365,7 +5389,7 @@
     <hyperlink ref="BK6" r:id="rId206" display="https://3o.hk/images/2023/04/17/o68.png"/>
     <hyperlink ref="BK7" r:id="rId207" display="https://3o.hk/images/2023/04/17/o41.png"/>
     <hyperlink ref="BQ3" r:id="rId208" display="https://www.baidu.com/img/baidu_85beaf5496f291521eb75ba38eacbd87.svg"/>
-    <hyperlink ref="BW13" r:id="rId209" display="https://3o.hk/images/2023/04/17/o80.png"/>
+    <hyperlink ref="BW14" r:id="rId209" display="https://3o.hk/images/2023/04/17/o80.png"/>
     <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
@@ -5376,8 +5400,10 @@
     <hyperlink ref="CC17" r:id="rId213" display="https://3o.hk/images/2023/04/17/o63.png"/>
     <hyperlink ref="CC22" r:id="rId214" display="https://3o.hk/images/2023/04/17/o69.png"/>
     <hyperlink ref="CC19" r:id="rId215" display="https://3o.hk/images/2023/04/17/o78.png"/>
-    <hyperlink ref="BW15" r:id="rId216" display="https://3o.hk/images/2023/04/17/28.png"/>
+    <hyperlink ref="BW16" r:id="rId216" display="https://3o.hk/images/2023/04/17/28.png"/>
     <hyperlink ref="AF13" r:id="rId217" display="https://gan.cool" tooltip="https://gan.cool"/>
+    <hyperlink ref="BV8" r:id="rId218" display="https://www.flexclip.com/cn/tools/compress-video/"/>
+    <hyperlink ref="BW8" r:id="rId219" display="https://api.iowen.cn/favicon/www.flexclip.com.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -499,7 +499,7 @@
     <t>https://collectui.com</t>
   </si>
   <si>
-    <t>每日灵感来源于每日用户界面档案及其他, 基于可运球，手工挑选，每日更新。</t>
+    <t>每日更新， UI设计师社区网站，展示和分享用户界面设计的灵感和创意</t>
   </si>
   <si>
     <t>https://3o.hk/images/2023/04/17/o472x.png</t>
@@ -1752,10 +1752,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1820,8 +1820,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1836,7 +1851,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1857,49 +1895,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1919,14 +1919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1938,6 +1930,14 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1956,25 +1956,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,7 +1998,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,85 +2118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,49 +2130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,22 +2150,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2185,17 +2180,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2204,7 +2193,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2224,21 +2224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2247,6 +2232,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2255,10 +2255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2267,16 +2267,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2288,112 +2288,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2441,9 +2441,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2456,6 +2453,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2788,8 +2788,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI7" workbookViewId="0">
-      <selection activeCell="BT8" sqref="BT8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2840,7 +2840,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -3286,7 +3286,7 @@
       <c r="S3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="14" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -3377,10 +3377,10 @@
       <c r="BI3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BJ3" s="15" t="s">
+      <c r="BJ3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="BK3" s="15" t="s">
+      <c r="BK3" s="14" t="s">
         <v>78</v>
       </c>
       <c r="BL3" s="1" t="s">
@@ -3390,10 +3390,10 @@
       <c r="BO3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BP3" s="15" t="s">
+      <c r="BP3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BQ3" s="15" t="s">
+      <c r="BQ3" s="14" t="s">
         <v>82</v>
       </c>
       <c r="BR3" s="1" t="s">
@@ -3402,7 +3402,7 @@
       <c r="BU3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BV3" s="15" t="s">
+      <c r="BV3" s="14" t="s">
         <v>85</v>
       </c>
       <c r="BX3" s="1" t="s">
@@ -3411,10 +3411,10 @@
       <c r="CA3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CB3" s="15" t="s">
+      <c r="CB3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CC3" s="14" t="s">
         <v>89</v>
       </c>
       <c r="CD3" s="1" t="s">
@@ -3423,7 +3423,7 @@
       <c r="CG3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CH3" s="15" t="s">
+      <c r="CH3" s="14" t="s">
         <v>92</v>
       </c>
       <c r="CJ3" s="1" t="s">
@@ -3432,7 +3432,7 @@
       <c r="CM3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CN3" s="15" t="s">
+      <c r="CN3" s="14" t="s">
         <v>95</v>
       </c>
       <c r="CP3" s="1" t="s">
@@ -3487,7 +3487,7 @@
       <c r="S4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="14" t="s">
         <v>111</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -3574,10 +3574,10 @@
       <c r="BI4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BJ4" s="15" t="s">
+      <c r="BJ4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="BK4" s="15" t="s">
+      <c r="BK4" s="14" t="s">
         <v>137</v>
       </c>
       <c r="BL4" s="1" t="s">
@@ -3586,7 +3586,7 @@
       <c r="BO4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BP4" s="15" t="s">
+      <c r="BP4" s="14" t="s">
         <v>140</v>
       </c>
       <c r="BR4" s="1" t="s">
@@ -3595,7 +3595,7 @@
       <c r="BU4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="15" t="s">
+      <c r="BV4" s="14" t="s">
         <v>143</v>
       </c>
       <c r="BX4" s="1" t="s">
@@ -3607,7 +3607,7 @@
       <c r="CA4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="CB4" s="15" t="s">
+      <c r="CB4" s="14" t="s">
         <v>147</v>
       </c>
       <c r="CD4" s="1" t="s">
@@ -3616,7 +3616,7 @@
       <c r="CG4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="CH4" s="15" t="s">
+      <c r="CH4" s="14" t="s">
         <v>150</v>
       </c>
       <c r="CJ4" s="1" t="s">
@@ -3625,7 +3625,7 @@
       <c r="CM4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CN4" s="15" t="s">
+      <c r="CN4" s="14" t="s">
         <v>153</v>
       </c>
       <c r="CP4" s="1" t="s">
@@ -3651,17 +3651,18 @@
       <c r="G5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="K5" s="10"/>
       <c r="M5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="19" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -3674,7 +3675,7 @@
       <c r="S5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="14" t="s">
         <v>164</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -3683,7 +3684,7 @@
       <c r="Y5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="14" t="s">
         <v>167</v>
       </c>
       <c r="AB5" s="1" t="s">
@@ -3692,7 +3693,7 @@
       <c r="AE5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AF5" s="14" t="s">
         <v>170</v>
       </c>
       <c r="AH5" s="1" t="s">
@@ -3702,7 +3703,7 @@
       <c r="AK5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AL5" s="15" t="s">
+      <c r="AL5" s="14" t="s">
         <v>173</v>
       </c>
       <c r="AN5" s="1" t="s">
@@ -3713,7 +3714,7 @@
       <c r="AW5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AX5" s="15" t="s">
+      <c r="AX5" s="14" t="s">
         <v>176</v>
       </c>
       <c r="AZ5" s="1" t="s">
@@ -3723,10 +3724,10 @@
       <c r="BC5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BD5" s="15" t="s">
+      <c r="BD5" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="BE5" s="15" t="s">
+      <c r="BE5" s="14" t="s">
         <v>180</v>
       </c>
       <c r="BF5" s="1" t="s">
@@ -3738,17 +3739,17 @@
       <c r="BI5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BJ5" s="15" t="s">
+      <c r="BJ5" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="BK5" s="15"/>
+      <c r="BK5" s="14"/>
       <c r="BL5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BP5" s="15" t="s">
+      <c r="BP5" s="14" t="s">
         <v>186</v>
       </c>
       <c r="BR5" s="1" t="s">
@@ -3757,7 +3758,7 @@
       <c r="BU5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BV5" s="15" t="s">
+      <c r="BV5" s="14" t="s">
         <v>189</v>
       </c>
       <c r="BX5" s="1" t="s">
@@ -3766,10 +3767,10 @@
       <c r="CA5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CB5" s="15" t="s">
+      <c r="CB5" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="CC5" s="15" t="s">
+      <c r="CC5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="CD5" s="1" t="s">
@@ -3778,7 +3779,7 @@
       <c r="CG5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CH5" s="15" t="s">
+      <c r="CH5" s="14" t="s">
         <v>195</v>
       </c>
       <c r="CJ5" s="1" t="s">
@@ -3787,7 +3788,7 @@
       <c r="CM5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CN5" s="15" t="s">
+      <c r="CN5" s="14" t="s">
         <v>197</v>
       </c>
       <c r="CP5" s="1" t="s">
@@ -3852,7 +3853,7 @@
       <c r="Y6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="14" t="s">
         <v>211</v>
       </c>
       <c r="AB6" s="1" t="s">
@@ -3861,10 +3862,10 @@
       <c r="AE6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="14" t="s">
         <v>215</v>
       </c>
       <c r="AH6" s="1" t="s">
@@ -3874,7 +3875,7 @@
       <c r="AK6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AL6" s="15" t="s">
+      <c r="AL6" s="14" t="s">
         <v>218</v>
       </c>
       <c r="AN6" s="1" t="s">
@@ -3885,10 +3886,10 @@
       <c r="AW6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX6" s="15" t="s">
+      <c r="AX6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AY6" s="15" t="s">
+      <c r="AY6" s="14" t="s">
         <v>89</v>
       </c>
       <c r="AZ6" s="1" t="s">
@@ -3898,10 +3899,10 @@
       <c r="BC6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BD6" s="15" t="s">
+      <c r="BD6" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BE6" s="15" t="s">
+      <c r="BE6" s="14" t="s">
         <v>222</v>
       </c>
       <c r="BF6" s="1" t="s">
@@ -3910,10 +3911,10 @@
       <c r="BI6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BJ6" s="15" t="s">
+      <c r="BJ6" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="BK6" s="15" t="s">
+      <c r="BK6" s="14" t="s">
         <v>226</v>
       </c>
       <c r="BL6" s="1" t="s">
@@ -3922,7 +3923,7 @@
       <c r="BO6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BP6" s="16" t="s">
+      <c r="BP6" s="15" t="s">
         <v>228</v>
       </c>
       <c r="BR6" s="1" t="s">
@@ -3931,7 +3932,7 @@
       <c r="BU6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BV6" s="15" t="s">
+      <c r="BV6" s="14" t="s">
         <v>231</v>
       </c>
       <c r="BX6" s="1" t="s">
@@ -3940,10 +3941,10 @@
       <c r="CA6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CB6" s="15" t="s">
+      <c r="CB6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="CC6" s="15" t="s">
+      <c r="CC6" s="14" t="s">
         <v>235</v>
       </c>
       <c r="CD6" s="1" t="s">
@@ -3952,7 +3953,7 @@
       <c r="CG6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CH6" s="15" t="s">
+      <c r="CH6" s="14" t="s">
         <v>238</v>
       </c>
       <c r="CJ6" s="1" t="s">
@@ -3978,7 +3979,7 @@
       <c r="G7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>244</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -3991,7 +3992,7 @@
       <c r="M7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>248</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -4015,7 +4016,7 @@
       <c r="AE7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AF7" s="14" t="s">
         <v>255</v>
       </c>
       <c r="AH7" s="1" t="s">
@@ -4025,7 +4026,7 @@
       <c r="AK7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AL7" s="15" t="s">
+      <c r="AL7" s="14" t="s">
         <v>258</v>
       </c>
       <c r="AN7" s="1" t="s">
@@ -4036,10 +4037,10 @@
       <c r="AW7" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AX7" s="15" t="s">
+      <c r="AX7" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="AY7" s="15" t="s">
+      <c r="AY7" s="14" t="s">
         <v>262</v>
       </c>
       <c r="AZ7" s="1" t="s">
@@ -4049,10 +4050,10 @@
       <c r="BC7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BD7" s="15" t="s">
+      <c r="BD7" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="BE7" s="15" t="s">
+      <c r="BE7" s="14" t="s">
         <v>266</v>
       </c>
       <c r="BF7" s="1" t="s">
@@ -4064,10 +4065,10 @@
       <c r="BI7" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BJ7" s="15" t="s">
+      <c r="BJ7" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="BK7" s="15" t="s">
+      <c r="BK7" s="14" t="s">
         <v>271</v>
       </c>
       <c r="BL7" s="1" t="s">
@@ -4076,7 +4077,7 @@
       <c r="BO7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BP7" s="15" t="s">
+      <c r="BP7" s="14" t="s">
         <v>273</v>
       </c>
       <c r="BR7" s="1" t="s">
@@ -4085,7 +4086,7 @@
       <c r="BU7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BV7" s="15" t="s">
+      <c r="BV7" s="14" t="s">
         <v>276</v>
       </c>
       <c r="BX7" s="1" t="s">
@@ -4094,7 +4095,7 @@
       <c r="CA7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CB7" s="15" t="s">
+      <c r="CB7" s="14" t="s">
         <v>279</v>
       </c>
       <c r="CD7" s="1" t="s">
@@ -4103,7 +4104,7 @@
       <c r="CG7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CH7" s="15" t="s">
+      <c r="CH7" s="14" t="s">
         <v>282</v>
       </c>
       <c r="CJ7" s="1" t="s">
@@ -4114,13 +4115,13 @@
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>287</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -4129,10 +4130,10 @@
       <c r="G8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>291</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -4154,7 +4155,7 @@
       <c r="S8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>298</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -4163,7 +4164,7 @@
       <c r="AE8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="14" t="s">
         <v>301</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -4175,10 +4176,10 @@
       <c r="AW8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AX8" s="15" t="s">
+      <c r="AX8" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="AY8" s="15" t="s">
+      <c r="AY8" s="14" t="s">
         <v>305</v>
       </c>
       <c r="AZ8" s="1" t="s">
@@ -4188,10 +4189,10 @@
       <c r="BC8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BD8" s="15" t="s">
+      <c r="BD8" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="BE8" s="15" t="s">
+      <c r="BE8" s="14" t="s">
         <v>309</v>
       </c>
       <c r="BF8" s="1" t="s">
@@ -4200,10 +4201,10 @@
       <c r="BU8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BV8" s="16" t="s">
+      <c r="BV8" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="BW8" s="15" t="s">
+      <c r="BW8" s="14" t="s">
         <v>313</v>
       </c>
       <c r="BX8" s="1" t="s">
@@ -4212,7 +4213,7 @@
       <c r="CA8" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CB8" s="15" t="s">
+      <c r="CB8" s="14" t="s">
         <v>316</v>
       </c>
       <c r="CD8" s="1" t="s">
@@ -4221,10 +4222,10 @@
       <c r="CG8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="CH8" s="15" t="s">
+      <c r="CH8" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="CI8" s="15" t="s">
+      <c r="CI8" s="14" t="s">
         <v>320</v>
       </c>
       <c r="CJ8" s="1" t="s">
@@ -4238,10 +4239,10 @@
       <c r="A9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4253,10 +4254,10 @@
       <c r="G9" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>326</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -4265,10 +4266,10 @@
       <c r="M9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>89</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -4278,10 +4279,10 @@
       <c r="S9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="15" t="s">
         <v>330</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -4290,7 +4291,7 @@
       <c r="AE9" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AF9" s="14" t="s">
         <v>333</v>
       </c>
       <c r="AH9" s="1" t="s">
@@ -4302,10 +4303,10 @@
       <c r="AW9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AX9" s="15" t="s">
+      <c r="AX9" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="AY9" s="15" t="s">
+      <c r="AY9" s="14" t="s">
         <v>337</v>
       </c>
       <c r="AZ9" s="1" t="s">
@@ -4315,10 +4316,10 @@
       <c r="BC9" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BD9" s="15" t="s">
+      <c r="BD9" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="BE9" s="15" t="s">
+      <c r="BE9" s="14" t="s">
         <v>341</v>
       </c>
       <c r="BF9" s="1" t="s">
@@ -4327,7 +4328,7 @@
       <c r="BU9" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BV9" s="15" t="s">
+      <c r="BV9" s="14" t="s">
         <v>344</v>
       </c>
       <c r="BX9" s="1" t="s">
@@ -4336,10 +4337,10 @@
       <c r="CA9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="CB9" s="15" t="s">
+      <c r="CB9" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="CC9" s="15" t="s">
+      <c r="CC9" s="14" t="s">
         <v>348</v>
       </c>
       <c r="CD9" s="1" t="s">
@@ -4348,7 +4349,7 @@
       <c r="CG9" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="CH9" s="15" t="s">
+      <c r="CH9" s="14" t="s">
         <v>351</v>
       </c>
       <c r="CJ9" s="1" t="s">
@@ -4368,10 +4369,10 @@
       <c r="G10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>356</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -4380,7 +4381,7 @@
       <c r="M10" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="14" t="s">
         <v>359</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -4389,10 +4390,10 @@
       <c r="S10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="14" t="s">
         <v>363</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -4401,7 +4402,7 @@
       <c r="AE10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="14" t="s">
         <v>366</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -4413,7 +4414,7 @@
       <c r="AW10" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AX10" s="15" t="s">
+      <c r="AX10" s="14" t="s">
         <v>369</v>
       </c>
       <c r="AZ10" s="1" t="s">
@@ -4423,10 +4424,10 @@
       <c r="BC10" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BD10" s="15" t="s">
+      <c r="BD10" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="BE10" s="15" t="s">
+      <c r="BE10" s="14" t="s">
         <v>373</v>
       </c>
       <c r="BF10" s="1" t="s">
@@ -4438,7 +4439,7 @@
       <c r="BU10" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BV10" s="15" t="s">
+      <c r="BV10" s="14" t="s">
         <v>376</v>
       </c>
       <c r="BX10" s="1" t="s">
@@ -4447,7 +4448,7 @@
       <c r="CA10" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="CB10" s="15" t="s">
+      <c r="CB10" s="14" t="s">
         <v>379</v>
       </c>
       <c r="CD10" s="1" t="s">
@@ -4456,7 +4457,7 @@
       <c r="CG10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CH10" s="15" t="s">
+      <c r="CH10" s="14" t="s">
         <v>382</v>
       </c>
       <c r="CJ10" s="1" t="s">
@@ -4467,10 +4468,10 @@
       <c r="G11" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>385</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -4479,7 +4480,7 @@
       <c r="M11" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="14" t="s">
         <v>388</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -4488,7 +4489,7 @@
       <c r="S11" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="14" t="s">
         <v>391</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -4497,7 +4498,7 @@
       <c r="AE11" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="14" t="s">
         <v>394</v>
       </c>
       <c r="AH11" s="1" t="s">
@@ -4512,7 +4513,7 @@
       <c r="AW11" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AX11" s="15" t="s">
+      <c r="AX11" s="14" t="s">
         <v>397</v>
       </c>
       <c r="AZ11" s="1" t="s">
@@ -4522,10 +4523,10 @@
       <c r="BC11" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BD11" s="15" t="s">
+      <c r="BD11" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="BE11" s="15" t="s">
+      <c r="BE11" s="14" t="s">
         <v>401</v>
       </c>
       <c r="BF11" s="1" t="s">
@@ -4534,7 +4535,7 @@
       <c r="BU11" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BV11" s="15" t="s">
+      <c r="BV11" s="14" t="s">
         <v>404</v>
       </c>
       <c r="BX11" s="1" t="s">
@@ -4543,7 +4544,7 @@
       <c r="CA11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="CB11" s="15" t="s">
+      <c r="CB11" s="14" t="s">
         <v>407</v>
       </c>
       <c r="CD11" s="1" t="s">
@@ -4552,7 +4553,7 @@
       <c r="CG11" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="CH11" s="15" t="s">
+      <c r="CH11" s="14" t="s">
         <v>410</v>
       </c>
       <c r="CJ11" s="1" t="s">
@@ -4563,10 +4564,10 @@
       <c r="G12" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>413</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -4575,7 +4576,7 @@
       <c r="M12" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="14" t="s">
         <v>416</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -4584,10 +4585,10 @@
       <c r="S12" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="15" t="s">
         <v>420</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -4596,7 +4597,7 @@
       <c r="AE12" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AF12" s="15" t="s">
+      <c r="AF12" s="14" t="s">
         <v>423</v>
       </c>
       <c r="AH12" s="1" t="s">
@@ -4608,7 +4609,7 @@
       <c r="AW12" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AX12" s="15" t="s">
+      <c r="AX12" s="14" t="s">
         <v>426</v>
       </c>
       <c r="AZ12" s="1" t="s">
@@ -4618,10 +4619,10 @@
       <c r="BC12" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="BD12" s="15" t="s">
+      <c r="BD12" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="BE12" s="15" t="s">
+      <c r="BE12" s="14" t="s">
         <v>430</v>
       </c>
       <c r="BF12" s="1" t="s">
@@ -4630,7 +4631,7 @@
       <c r="BU12" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="BV12" s="15" t="s">
+      <c r="BV12" s="14" t="s">
         <v>433</v>
       </c>
       <c r="BX12" s="1" t="s">
@@ -4639,10 +4640,10 @@
       <c r="CA12" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="CB12" s="15" t="s">
+      <c r="CB12" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="CC12" s="15" t="s">
+      <c r="CC12" s="14" t="s">
         <v>437</v>
       </c>
       <c r="CD12" s="1" t="s">
@@ -4653,7 +4654,7 @@
       <c r="M13" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="14" t="s">
         <v>440</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -4662,7 +4663,7 @@
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="14" t="s">
         <v>442</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -4671,7 +4672,7 @@
       <c r="AE13" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="14" t="s">
         <v>445</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -4683,7 +4684,7 @@
       <c r="AW13" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AX13" s="14" t="s">
         <v>448</v>
       </c>
       <c r="AZ13" s="1" t="s">
@@ -4693,10 +4694,10 @@
       <c r="BC13" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BD13" s="15" t="s">
+      <c r="BD13" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="BE13" s="15" t="s">
+      <c r="BE13" s="14" t="s">
         <v>373</v>
       </c>
       <c r="BF13" s="1" t="s">
@@ -4705,7 +4706,7 @@
       <c r="BU13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BV13" s="15" t="s">
+      <c r="BV13" s="14" t="s">
         <v>454</v>
       </c>
       <c r="BX13" s="1" t="s">
@@ -4714,7 +4715,7 @@
       <c r="CA13" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="CB13" s="15" t="s">
+      <c r="CB13" s="14" t="s">
         <v>456</v>
       </c>
       <c r="CD13" s="1" t="s">
@@ -4725,7 +4726,7 @@
       <c r="M14" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>459</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -4734,7 +4735,7 @@
       <c r="S14" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="14" t="s">
         <v>462</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -4746,7 +4747,7 @@
       <c r="AW14" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AX14" s="14" t="s">
+      <c r="AX14" s="19" t="s">
         <v>465</v>
       </c>
       <c r="AZ14" s="1" t="s">
@@ -4756,10 +4757,10 @@
       <c r="BC14" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BD14" s="15" t="s">
+      <c r="BD14" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="BE14" s="15" t="s">
+      <c r="BE14" s="14" t="s">
         <v>469</v>
       </c>
       <c r="BF14" s="1" t="s">
@@ -4768,10 +4769,10 @@
       <c r="BU14" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BV14" s="15" t="s">
+      <c r="BV14" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="BW14" s="15" t="s">
+      <c r="BW14" s="14" t="s">
         <v>473</v>
       </c>
       <c r="BX14" s="1" t="s">
@@ -4780,7 +4781,7 @@
       <c r="CA14" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CB14" s="15" t="s">
+      <c r="CB14" s="14" t="s">
         <v>475</v>
       </c>
       <c r="CD14" s="1" t="s">
@@ -4791,7 +4792,7 @@
       <c r="S15" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="15" t="s">
         <v>478</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -4803,10 +4804,10 @@
       <c r="AW15" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AX15" s="15" t="s">
+      <c r="AX15" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="AY15" s="15" t="s">
+      <c r="AY15" s="14" t="s">
         <v>482</v>
       </c>
       <c r="AZ15" s="1" t="s">
@@ -4816,7 +4817,7 @@
       <c r="BU15" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="BV15" s="15" t="s">
+      <c r="BV15" s="14" t="s">
         <v>485</v>
       </c>
       <c r="BX15" s="1" t="s">
@@ -4825,7 +4826,7 @@
       <c r="CA15" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="CB15" s="15" t="s">
+      <c r="CB15" s="14" t="s">
         <v>488</v>
       </c>
       <c r="CD15" s="1" t="s">
@@ -4836,7 +4837,7 @@
       <c r="S16" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="14" t="s">
         <v>491</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -4848,7 +4849,7 @@
       <c r="AW16" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="AX16" s="15" t="s">
+      <c r="AX16" s="14" t="s">
         <v>494</v>
       </c>
       <c r="AZ16" s="1" t="s">
@@ -4858,10 +4859,10 @@
       <c r="BU16" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="BV16" s="15" t="s">
+      <c r="BV16" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="BW16" s="15" t="s">
+      <c r="BW16" s="14" t="s">
         <v>498</v>
       </c>
       <c r="BX16" s="1" t="s">
@@ -4870,7 +4871,7 @@
       <c r="CA16" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="CB16" s="15" t="s">
+      <c r="CB16" s="14" t="s">
         <v>501</v>
       </c>
       <c r="CD16" s="1" t="s">
@@ -4881,10 +4882,10 @@
       <c r="S17" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="14" t="s">
         <v>504</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -4897,7 +4898,7 @@
       <c r="BU17" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="BV17" s="15" t="s">
+      <c r="BV17" s="14" t="s">
         <v>507</v>
       </c>
       <c r="BX17" s="1" t="s">
@@ -4906,10 +4907,10 @@
       <c r="CA17" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="CB17" s="15" t="s">
+      <c r="CB17" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="CC17" s="15" t="s">
+      <c r="CC17" s="14" t="s">
         <v>511</v>
       </c>
       <c r="CD17" s="1" t="s">
@@ -4924,7 +4925,7 @@
       <c r="BU18" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="BV18" s="15" t="s">
+      <c r="BV18" s="14" t="s">
         <v>514</v>
       </c>
       <c r="BX18" s="1" t="s">
@@ -4933,7 +4934,7 @@
       <c r="CA18" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="CB18" s="15" t="s">
+      <c r="CB18" s="14" t="s">
         <v>517</v>
       </c>
       <c r="CD18" s="1" t="s">
@@ -4948,7 +4949,7 @@
       <c r="BU19" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="BV19" s="15" t="s">
+      <c r="BV19" s="14" t="s">
         <v>520</v>
       </c>
       <c r="BX19" s="1" t="s">
@@ -4957,10 +4958,10 @@
       <c r="CA19" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="CB19" s="15" t="s">
+      <c r="CB19" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="CC19" s="15" t="s">
+      <c r="CC19" s="14" t="s">
         <v>524</v>
       </c>
       <c r="CD19" s="1" t="s">
@@ -4975,7 +4976,7 @@
       <c r="BU20" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="BV20" s="15" t="s">
+      <c r="BV20" s="14" t="s">
         <v>527</v>
       </c>
       <c r="BX20" s="1" t="s">
@@ -4984,7 +4985,7 @@
       <c r="CA20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="CB20" s="15" t="s">
+      <c r="CB20" s="14" t="s">
         <v>530</v>
       </c>
       <c r="CD20" s="1" t="s">
@@ -4999,7 +5000,7 @@
       <c r="BU21" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="BV21" s="15" t="s">
+      <c r="BV21" s="14" t="s">
         <v>533</v>
       </c>
       <c r="BX21" s="1" t="s">
@@ -5008,7 +5009,7 @@
       <c r="CA21" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="CB21" s="15" t="s">
+      <c r="CB21" s="14" t="s">
         <v>536</v>
       </c>
       <c r="CD21" s="1" t="s">
@@ -5023,7 +5024,7 @@
       <c r="BU22" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="BV22" s="15" t="s">
+      <c r="BV22" s="14" t="s">
         <v>539</v>
       </c>
       <c r="BX22" s="1" t="s">
@@ -5032,10 +5033,10 @@
       <c r="CA22" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="CB22" s="15" t="s">
+      <c r="CB22" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="CC22" s="15" t="s">
+      <c r="CC22" s="14" t="s">
         <v>543</v>
       </c>
       <c r="CD22" s="1" t="s">
@@ -5050,7 +5051,7 @@
       <c r="BU23" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="BV23" s="15" t="s">
+      <c r="BV23" s="14" t="s">
         <v>546</v>
       </c>
       <c r="BX23" s="1" t="s">
@@ -5059,7 +5060,7 @@
       <c r="CA23" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="CB23" s="15" t="s">
+      <c r="CB23" s="14" t="s">
         <v>549</v>
       </c>
       <c r="CD23" s="1" t="s">
@@ -5074,7 +5075,7 @@
       <c r="BU24" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="BV24" s="15" t="s">
+      <c r="BV24" s="14" t="s">
         <v>552</v>
       </c>
       <c r="BX24" s="1" t="s">
@@ -5083,10 +5084,10 @@
       <c r="CA24" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CB24" s="15" t="s">
+      <c r="CB24" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="CC24" s="15" t="s">
+      <c r="CC24" s="14" t="s">
         <v>556</v>
       </c>
       <c r="CD24" s="1" t="s">
@@ -5104,7 +5105,7 @@
       <c r="BU25" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="BV25" s="14" t="s">
+      <c r="BV25" s="19" t="s">
         <v>559</v>
       </c>
       <c r="BX25" s="1" t="s">
@@ -5113,7 +5114,7 @@
       <c r="CA25" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="CB25" s="15" t="s">
+      <c r="CB25" s="14" t="s">
         <v>562</v>
       </c>
       <c r="CD25" s="1" t="s">
@@ -5124,7 +5125,7 @@
       <c r="BU26" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="BV26" s="15" t="s">
+      <c r="BV26" s="14" t="s">
         <v>564</v>
       </c>
       <c r="BX26" s="1" t="s">
@@ -5133,7 +5134,7 @@
       <c r="CA26" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="CB26" s="15" t="s">
+      <c r="CB26" s="14" t="s">
         <v>567</v>
       </c>
       <c r="CD26" s="1" t="s">
@@ -5144,7 +5145,7 @@
       <c r="BU27" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="BV27" s="15" t="s">
+      <c r="BV27" s="14" t="s">
         <v>569</v>
       </c>
       <c r="BX27" s="1" t="s">
@@ -5164,7 +5165,7 @@
       <c r="CA28" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="CB28" s="15" t="s">
+      <c r="CB28" s="14" t="s">
         <v>575</v>
       </c>
       <c r="CD28" s="1" t="s">

--- a/2.xlsx
+++ b/2.xlsx
@@ -1291,13 +1291,13 @@
     <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
   </si>
   <si>
-    <t>ZaproPAN</t>
-  </si>
-  <si>
-    <t>http://pan.zps.im</t>
-  </si>
-  <si>
-    <t>（含adobe全家桶）一个良心公众号搭建的的不限速云盘</t>
+    <t>adobe全家桶（不限速下载）</t>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
+  </si>
+  <si>
+    <t>转载阿虚大佬的</t>
   </si>
   <si>
     <t>AE光效制作（全81讲）</t>
@@ -1357,13 +1357,13 @@
     <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
   </si>
   <si>
-    <t>adobe全家桶（不限速下载）</t>
-  </si>
-  <si>
-    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
-  </si>
-  <si>
-    <t>转载阿虚大佬的</t>
+    <t>亿破姐</t>
+  </si>
+  <si>
+    <t>http://www.ypojie.com</t>
+  </si>
+  <si>
+    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
   </si>
   <si>
     <t>PS2019教程（全80讲）</t>
@@ -1408,13 +1408,16 @@
     <t>系列设计作品开放平台</t>
   </si>
   <si>
-    <t>亿破姐</t>
-  </si>
-  <si>
-    <t>http://www.ypojie.com</t>
-  </si>
-  <si>
-    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
+    <t>滚动截屏</t>
+  </si>
+  <si>
+    <t>http://snip.qq.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/4.png</t>
+  </si>
+  <si>
+    <t>腾讯qq出品-滚动截屏</t>
   </si>
   <si>
     <t>Pr教程(全57集)</t>
@@ -1456,16 +1459,13 @@
     <t>设计灵感收集地，图片分享类的社交网站</t>
   </si>
   <si>
-    <t>滚动截屏</t>
-  </si>
-  <si>
-    <t>http://snip.qq.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/4.png</t>
-  </si>
-  <si>
-    <t>腾讯qq出品-滚动截屏</t>
+    <t>小熊软件助手</t>
+  </si>
+  <si>
+    <t>https://www.xxrjzs.com</t>
+  </si>
+  <si>
+    <t>自建网盘下载速度快</t>
   </si>
   <si>
     <t>在线抠图</t>
@@ -1495,15 +1495,6 @@
     <t>收集国外设计素材网站的资源平台。</t>
   </si>
   <si>
-    <t>小熊软件助手</t>
-  </si>
-  <si>
-    <t>https://www.xxrjzs.com</t>
-  </si>
-  <si>
-    <t>自建网盘下载速度快</t>
-  </si>
-  <si>
     <t>UI尺寸规范</t>
   </si>
   <si>
@@ -1532,6 +1523,15 @@
   </si>
   <si>
     <t>一个分享好看的像素画的网站</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>https://1nav.ml</t>
+  </si>
+  <si>
+    <t>测试前面有空的站点，之后的会不会渲染</t>
   </si>
   <si>
     <t>Screen Sizes</t>
@@ -1752,10 +1752,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1820,9 +1820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,7 +1842,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,7 +1850,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1873,8 +1872,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,7 +1912,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1920,24 +1935,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1956,6 +1956,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1968,13 +2016,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +2058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,7 +2082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,67 +2106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,61 +2124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,21 +2147,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2183,6 +2168,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2194,6 +2203,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2223,30 +2247,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2255,10 +2255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2267,137 +2267,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2460,6 +2460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2788,8 +2791,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AQ12" workbookViewId="0">
+      <selection activeCell="BB17" sqref="BB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3142,7 +3145,7 @@
       <c r="BG2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="21"/>
+      <c r="BH2" s="22"/>
       <c r="BI2" s="7" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3161,7 @@
       <c r="BM2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BN2" s="21"/>
+      <c r="BN2" s="22"/>
       <c r="BO2" s="7" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" ht="128.25" spans="13:82">
+    <row r="13" ht="114" spans="13:82">
       <c r="M13" s="1" t="s">
         <v>439</v>
       </c>
@@ -4684,7 +4687,7 @@
       <c r="AW13" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AX13" s="14" t="s">
+      <c r="AX13" s="19" t="s">
         <v>448</v>
       </c>
       <c r="AZ13" s="1" t="s">
@@ -4747,69 +4750,70 @@
       <c r="AW14" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AX14" s="19" t="s">
+      <c r="AX14" s="14" t="s">
         <v>465</v>
       </c>
+      <c r="AY14" s="14" t="s">
+        <v>466</v>
+      </c>
       <c r="AZ14" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BV14" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="BW14" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX14" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BW14" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="BX14" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="CA14" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" ht="85.5" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY15" s="14" t="s">
         <v>482</v>
       </c>
+      <c r="AY15" s="1"/>
       <c r="AZ15" s="1" t="s">
         <v>483</v>
       </c>
@@ -4846,54 +4850,54 @@
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
-      <c r="AW16" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AX16" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BV16" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="BW16" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="BX16" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="BV16" s="14" t="s">
+      <c r="CA16" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="BW16" s="14" t="s">
+      <c r="CB16" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="BX16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="CA16" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="CB16" s="14" t="s">
-        <v>501</v>
-      </c>
       <c r="CD16" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" ht="185.25" spans="19:82">
       <c r="S17" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
+      <c r="AW17" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AX17" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
         <v>506</v>
@@ -4946,7 +4950,7 @@
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BU19" s="22" t="s">
+      <c r="BU19" s="23" t="s">
         <v>519</v>
       </c>
       <c r="BV19" s="14" t="s">
@@ -5271,140 +5275,140 @@
     <hyperlink ref="AX9" r:id="rId91" display="http://zh.snipaste.com"/>
     <hyperlink ref="AX10" r:id="rId92" display="http://www.lanzoux.com/s/wp"/>
     <hyperlink ref="AX11" r:id="rId93" display="http://www.lanzoux.com/s/APP" tooltip="http://www.lanzoux.com/s/APP"/>
-    <hyperlink ref="AX12" r:id="rId94" display="http://pan.zps.im"/>
-    <hyperlink ref="AX13" r:id="rId95" display="https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d"/>
-    <hyperlink ref="AX14" r:id="rId96" display="http://www.ypojie.com"/>
-    <hyperlink ref="AX15" r:id="rId97" display="http://snip.qq.com"/>
-    <hyperlink ref="AX16" r:id="rId98" display="https://www.xxrjzs.com"/>
-    <hyperlink ref="BD3" r:id="rId99" display="http://space.bilibili.com/38053181?👋我和小白很早之前就关注的up主，上课老师还放了他的视频"/>
-    <hyperlink ref="BD4" r:id="rId100" display="https://space.bilibili.com/449144107"/>
-    <hyperlink ref="BD5" r:id="rId101" display="http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程"/>
-    <hyperlink ref="BD6" r:id="rId102" display="http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏"/>
-    <hyperlink ref="BD7" r:id="rId103" display="http://www.hellocjc.com"/>
-    <hyperlink ref="BD8" r:id="rId104" display="http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐"/>
-    <hyperlink ref="BD9" r:id="rId105" display="http://space.bilibili.com/25433581"/>
-    <hyperlink ref="BD10" r:id="rId106" display="http://www.bilibili.com/video/BV1YW411e7n5/"/>
-    <hyperlink ref="BD11" r:id="rId107" display="http://www.bilibili.com/video/BV1EW411171A/"/>
-    <hyperlink ref="BD12" r:id="rId108" display="http://www.bilibili.com/video/BV1J4411C7am?p=5/"/>
-    <hyperlink ref="BD13" r:id="rId109" display="http://www.bilibili.com/video/BV12x411f7Gp?p=9"/>
-    <hyperlink ref="BD14" r:id="rId110" display="http://www.bilibili.com/video/BV1bb411F7Sh/"/>
-    <hyperlink ref="BJ3" r:id="rId111" display="http://m.52jingsai.com"/>
-    <hyperlink ref="BJ4" r:id="rId112" display="http://bbs.1zj.com/forum-41-1.html"/>
-    <hyperlink ref="BJ5" r:id="rId113" display="https://task.huitu.com"/>
-    <hyperlink ref="BJ6" r:id="rId114" display="http://www.5iidea.com/xyj"/>
-    <hyperlink ref="BJ7" r:id="rId115" display="http://designmag.cn"/>
-    <hyperlink ref="BP3" r:id="rId116" display="http://image.baidu.com/?fr=shitu/"/>
-    <hyperlink ref="BP4" r:id="rId117" display="http://trace.moe"/>
-    <hyperlink ref="BP5" r:id="rId118" display="http://saucenao.com"/>
-    <hyperlink ref="BP6" r:id="rId119" display="http://pic.sogou.com/pic/index.jsp" tooltip="http://pic.sogou.com/pic/index.jsp"/>
-    <hyperlink ref="BP7" r:id="rId120" display="http://m.image.so.com"/>
-    <hyperlink ref="BV3" r:id="rId121" display="https://www.gaituya.com"/>
-    <hyperlink ref="BV4" r:id="rId122" display="https://img.logosc.cn"/>
-    <hyperlink ref="BV5" r:id="rId123" display="http://www.bossdesign.cn/pdftools"/>
-    <hyperlink ref="BV6" r:id="rId124" display="https://www.pdf2go.com/zh"/>
-    <hyperlink ref="BV7" r:id="rId125" display="http://app.xunjiepdf.com"/>
-    <hyperlink ref="BV9" r:id="rId126" display="http://www.aconvert.com/cn/"/>
-    <hyperlink ref="BV10" r:id="rId127" display="http://zhuanhuan.supfree.net"/>
-    <hyperlink ref="BV11" r:id="rId128" display="https://ezgif.com"/>
-    <hyperlink ref="BV12" r:id="rId129" display="http://www.zamzar.com"/>
-    <hyperlink ref="BV13" r:id="rId130" display="http://smallpdf.com"/>
-    <hyperlink ref="BV14" r:id="rId131" display="http://www.pngtosvg.com"/>
-    <hyperlink ref="BV15" r:id="rId132" display="http://www.remove.bg/zh"/>
-    <hyperlink ref="BV16" r:id="rId133" display="http://tool.lanrentuku.com/guifan/ui.html"/>
-    <hyperlink ref="BV17" r:id="rId134" display="http://screensiz.es/"/>
-    <hyperlink ref="BV18" r:id="rId135" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
-    <hyperlink ref="BV19" r:id="rId136" display="http://material.io/blog/device-metrics"/>
-    <hyperlink ref="BV20" r:id="rId137" display="http://cli.im/deqr"/>
-    <hyperlink ref="BV21" r:id="rId138" display="http://tinify.cn"/>
-    <hyperlink ref="BV22" r:id="rId139" display="http://www.yasuotu.com"/>
-    <hyperlink ref="BV23" r:id="rId140" display="http://www.processon.com"/>
-    <hyperlink ref="BV24" r:id="rId141" display="http://koutu.58pic.com"/>
-    <hyperlink ref="BV25" r:id="rId142" display="http://www.unscreen.com/upload"/>
-    <hyperlink ref="BV26" r:id="rId143" display="https://products.groupdocs.app/zh/conversion/total"/>
-    <hyperlink ref="BV27" r:id="rId144" display="https://vectordad.com"/>
-    <hyperlink ref="CN3" r:id="rId145" display="http://www.freehost.cc"/>
-    <hyperlink ref="CN4" r:id="rId146" display="http://www.xiadj.cf"/>
-    <hyperlink ref="CN5" r:id="rId147" display="https://dh.4everland.app"/>
+    <hyperlink ref="AX17" r:id="rId94" display="https://1nav.ml" tooltip="https://1nav.ml"/>
+    <hyperlink ref="BD3" r:id="rId95" display="http://space.bilibili.com/38053181?👋我和小白很早之前就关注的up主，上课老师还放了他的视频"/>
+    <hyperlink ref="BD4" r:id="rId96" display="https://space.bilibili.com/449144107"/>
+    <hyperlink ref="BD5" r:id="rId97" display="http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程"/>
+    <hyperlink ref="BD6" r:id="rId98" display="http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏"/>
+    <hyperlink ref="BD7" r:id="rId99" display="http://www.hellocjc.com"/>
+    <hyperlink ref="BD8" r:id="rId100" display="http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐"/>
+    <hyperlink ref="BD9" r:id="rId101" display="http://space.bilibili.com/25433581"/>
+    <hyperlink ref="BD10" r:id="rId102" display="http://www.bilibili.com/video/BV1YW411e7n5/"/>
+    <hyperlink ref="BD11" r:id="rId103" display="http://www.bilibili.com/video/BV1EW411171A/"/>
+    <hyperlink ref="BD12" r:id="rId104" display="http://www.bilibili.com/video/BV1J4411C7am?p=5/"/>
+    <hyperlink ref="BD13" r:id="rId105" display="http://www.bilibili.com/video/BV12x411f7Gp?p=9"/>
+    <hyperlink ref="BD14" r:id="rId106" display="http://www.bilibili.com/video/BV1bb411F7Sh/"/>
+    <hyperlink ref="BJ3" r:id="rId107" display="http://m.52jingsai.com"/>
+    <hyperlink ref="BJ4" r:id="rId108" display="http://bbs.1zj.com/forum-41-1.html"/>
+    <hyperlink ref="BJ5" r:id="rId109" display="https://task.huitu.com"/>
+    <hyperlink ref="BJ6" r:id="rId110" display="http://www.5iidea.com/xyj"/>
+    <hyperlink ref="BJ7" r:id="rId111" display="http://designmag.cn"/>
+    <hyperlink ref="BP3" r:id="rId112" display="http://image.baidu.com/?fr=shitu/"/>
+    <hyperlink ref="BP4" r:id="rId113" display="http://trace.moe"/>
+    <hyperlink ref="BP5" r:id="rId114" display="http://saucenao.com"/>
+    <hyperlink ref="BP6" r:id="rId115" display="http://pic.sogou.com/pic/index.jsp" tooltip="http://pic.sogou.com/pic/index.jsp"/>
+    <hyperlink ref="BP7" r:id="rId116" display="http://m.image.so.com"/>
+    <hyperlink ref="BV3" r:id="rId117" display="https://www.gaituya.com"/>
+    <hyperlink ref="BV4" r:id="rId118" display="https://img.logosc.cn"/>
+    <hyperlink ref="BV5" r:id="rId119" display="http://www.bossdesign.cn/pdftools"/>
+    <hyperlink ref="BV6" r:id="rId120" display="https://www.pdf2go.com/zh"/>
+    <hyperlink ref="BV7" r:id="rId121" display="http://app.xunjiepdf.com"/>
+    <hyperlink ref="BV9" r:id="rId122" display="http://www.aconvert.com/cn/"/>
+    <hyperlink ref="BV10" r:id="rId123" display="http://zhuanhuan.supfree.net"/>
+    <hyperlink ref="BV11" r:id="rId124" display="https://ezgif.com"/>
+    <hyperlink ref="BV12" r:id="rId125" display="http://www.zamzar.com"/>
+    <hyperlink ref="BV13" r:id="rId126" display="http://smallpdf.com"/>
+    <hyperlink ref="BV14" r:id="rId127" display="http://www.pngtosvg.com"/>
+    <hyperlink ref="BV15" r:id="rId128" display="http://www.remove.bg/zh"/>
+    <hyperlink ref="BV16" r:id="rId129" display="http://tool.lanrentuku.com/guifan/ui.html"/>
+    <hyperlink ref="BV17" r:id="rId130" display="http://screensiz.es/"/>
+    <hyperlink ref="BV18" r:id="rId131" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
+    <hyperlink ref="BV19" r:id="rId132" display="http://material.io/blog/device-metrics"/>
+    <hyperlink ref="BV20" r:id="rId133" display="http://cli.im/deqr"/>
+    <hyperlink ref="BV21" r:id="rId134" display="http://tinify.cn"/>
+    <hyperlink ref="BV22" r:id="rId135" display="http://www.yasuotu.com"/>
+    <hyperlink ref="BV23" r:id="rId136" display="http://www.processon.com"/>
+    <hyperlink ref="BV24" r:id="rId137" display="http://koutu.58pic.com"/>
+    <hyperlink ref="BV25" r:id="rId138" display="http://www.unscreen.com/upload"/>
+    <hyperlink ref="BV26" r:id="rId139" display="https://products.groupdocs.app/zh/conversion/total"/>
+    <hyperlink ref="BV27" r:id="rId140" display="https://vectordad.com"/>
+    <hyperlink ref="CN3" r:id="rId141" display="http://www.freehost.cc"/>
+    <hyperlink ref="CN4" r:id="rId142" display="http://www.xiadj.cf"/>
+    <hyperlink ref="CN5" r:id="rId143" display="https://dh.4everland.app"/>
     <hyperlink ref="CB3" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="CB4" r:id="rId148" display="https://brandingstyleguides.com/guide"/>
-    <hyperlink ref="CB5" r:id="rId149" display="http://zymf.ys168.com"/>
-    <hyperlink ref="CB6" r:id="rId150" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
-    <hyperlink ref="CB7" r:id="rId151" display="http://www.ls.graphics"/>
-    <hyperlink ref="CB8" r:id="rId152" display="https://www.freepik.com"/>
-    <hyperlink ref="CB9" r:id="rId153" display="http://www.yunmiss.com/list/1.html"/>
-    <hyperlink ref="CB10" r:id="rId154" display="http://www.mcool.com/free.php"/>
-    <hyperlink ref="CB11" r:id="rId155" display="https://blender.kim"/>
-    <hyperlink ref="CB12" r:id="rId156" display="http://www.modown.cn/?aff=70874"/>
-    <hyperlink ref="CB13" r:id="rId157" display="https://www.3d66.com"/>
-    <hyperlink ref="CB14" r:id="rId158" display="https://www.cgmodel.com"/>
-    <hyperlink ref="CB15" r:id="rId159" display="http://www.51pptmoban.com"/>
-    <hyperlink ref="CB17" r:id="rId160" display="http://aigei.com/design/?m=b_4425938"/>
-    <hyperlink ref="CB16" r:id="rId161" display="http://www.1ppt.com"/>
-    <hyperlink ref="CB18" r:id="rId162" display="http://www.5sucai.com"/>
-    <hyperlink ref="CB19" r:id="rId163" display="http://www.sheji567.com"/>
-    <hyperlink ref="CB20" r:id="rId164" display="http://www.51yuansu.com"/>
-    <hyperlink ref="CB21" r:id="rId165" display="http://undraw.co/illustrations"/>
-    <hyperlink ref="CB22" r:id="rId166" display="http://www.huiyi8.com/yinxiao"/>
-    <hyperlink ref="CB23" r:id="rId167" display="http://www.zifh.com"/>
-    <hyperlink ref="CB24" r:id="rId168" display="http://www.maoken.com"/>
-    <hyperlink ref="CB25" r:id="rId169" display="http://www.ziticangku.com"/>
-    <hyperlink ref="CB26" r:id="rId170" display="http://www.100font.com"/>
-    <hyperlink ref="CB27" r:id="rId171" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
-    <hyperlink ref="CB28" r:id="rId172" display="http://www.pptfans.cn/pptcourse"/>
-    <hyperlink ref="CH3" r:id="rId173" display="http://by.360xueke.com"/>
-    <hyperlink ref="CH4" r:id="rId174" display="http://www.cnki.net"/>
-    <hyperlink ref="CH5" r:id="rId175" display="http://www.wanfangdata.com.cn"/>
-    <hyperlink ref="CH6" r:id="rId176" display="http://www.cqvip.com"/>
-    <hyperlink ref="CH7" r:id="rId177" display="http://www.paperask.com"/>
+    <hyperlink ref="CB4" r:id="rId144" display="https://brandingstyleguides.com/guide"/>
+    <hyperlink ref="CB5" r:id="rId145" display="http://zymf.ys168.com"/>
+    <hyperlink ref="CB6" r:id="rId146" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
+    <hyperlink ref="CB7" r:id="rId147" display="http://www.ls.graphics"/>
+    <hyperlink ref="CB8" r:id="rId148" display="https://www.freepik.com"/>
+    <hyperlink ref="CB9" r:id="rId149" display="http://www.yunmiss.com/list/1.html"/>
+    <hyperlink ref="CB10" r:id="rId150" display="http://www.mcool.com/free.php"/>
+    <hyperlink ref="CB11" r:id="rId151" display="https://blender.kim"/>
+    <hyperlink ref="CB12" r:id="rId152" display="http://www.modown.cn/?aff=70874"/>
+    <hyperlink ref="CB13" r:id="rId153" display="https://www.3d66.com"/>
+    <hyperlink ref="CB14" r:id="rId154" display="https://www.cgmodel.com"/>
+    <hyperlink ref="CB15" r:id="rId155" display="http://www.51pptmoban.com"/>
+    <hyperlink ref="CB17" r:id="rId156" display="http://aigei.com/design/?m=b_4425938"/>
+    <hyperlink ref="CB16" r:id="rId157" display="http://www.1ppt.com"/>
+    <hyperlink ref="CB18" r:id="rId158" display="http://www.5sucai.com"/>
+    <hyperlink ref="CB19" r:id="rId159" display="http://www.sheji567.com"/>
+    <hyperlink ref="CB20" r:id="rId160" display="http://www.51yuansu.com"/>
+    <hyperlink ref="CB21" r:id="rId161" display="http://undraw.co/illustrations"/>
+    <hyperlink ref="CB22" r:id="rId162" display="http://www.huiyi8.com/yinxiao"/>
+    <hyperlink ref="CB23" r:id="rId163" display="http://www.zifh.com"/>
+    <hyperlink ref="CB24" r:id="rId164" display="http://www.maoken.com"/>
+    <hyperlink ref="CB25" r:id="rId165" display="http://www.ziticangku.com"/>
+    <hyperlink ref="CB26" r:id="rId166" display="http://www.100font.com"/>
+    <hyperlink ref="CB27" r:id="rId167" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
+    <hyperlink ref="CB28" r:id="rId168" display="http://www.pptfans.cn/pptcourse"/>
+    <hyperlink ref="CH3" r:id="rId169" display="http://by.360xueke.com"/>
+    <hyperlink ref="CH4" r:id="rId170" display="http://www.cnki.net"/>
+    <hyperlink ref="CH5" r:id="rId171" display="http://www.wanfangdata.com.cn"/>
+    <hyperlink ref="CH6" r:id="rId172" display="http://www.cqvip.com"/>
+    <hyperlink ref="CH7" r:id="rId173" display="http://www.paperask.com"/>
     <hyperlink ref="CH8" r:id="rId21" display="https://gpt.1nav.ml"/>
-    <hyperlink ref="CH9" r:id="rId178" display="http://www.paperray.com"/>
-    <hyperlink ref="CH10" r:id="rId179" display="http://www.paperdatas.com"/>
-    <hyperlink ref="CH11" r:id="rId180" display="http://www.paperfree.cn/freeActivity/index.html"/>
-    <hyperlink ref="AM3" r:id="rId181" display="https://3o.hk/images/2023/04/17/1.png"/>
-    <hyperlink ref="AM4" r:id="rId182" display="https://3o.hk/images/2023/04/17/19.png"/>
-    <hyperlink ref="AS3" r:id="rId183" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
-    <hyperlink ref="AY4" r:id="rId184" display="https://lf-cdn-tos.bytescm.com/obj/static/ies/ulike/web/resource/fe_official/assets/imgs/lv/favicon.ico"/>
-    <hyperlink ref="U10" r:id="rId185" display="https://3o.hk/images/2023/04/17/20.png"/>
-    <hyperlink ref="U12" r:id="rId186" display="https://3o.hk/images/2023/04/18/image.png" tooltip="https://3o.hk/images/2023/04/18/image.png"/>
-    <hyperlink ref="U17" r:id="rId187" display="https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png"/>
-    <hyperlink ref="AG6" r:id="rId188" display="https://3o.hk/images/2023/04/17/21.png"/>
+    <hyperlink ref="CH9" r:id="rId174" display="http://www.paperray.com"/>
+    <hyperlink ref="CH10" r:id="rId175" display="http://www.paperdatas.com"/>
+    <hyperlink ref="CH11" r:id="rId176" display="http://www.paperfree.cn/freeActivity/index.html"/>
+    <hyperlink ref="AM3" r:id="rId177" display="https://3o.hk/images/2023/04/17/1.png"/>
+    <hyperlink ref="AM4" r:id="rId178" display="https://3o.hk/images/2023/04/17/19.png"/>
+    <hyperlink ref="AS3" r:id="rId179" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
+    <hyperlink ref="AY4" r:id="rId180" display="https://lf-cdn-tos.bytescm.com/obj/static/ies/ulike/web/resource/fe_official/assets/imgs/lv/favicon.ico"/>
+    <hyperlink ref="U10" r:id="rId181" display="https://3o.hk/images/2023/04/17/20.png"/>
+    <hyperlink ref="U12" r:id="rId182" display="https://3o.hk/images/2023/04/18/image.png" tooltip="https://3o.hk/images/2023/04/18/image.png"/>
+    <hyperlink ref="U17" r:id="rId183" display="https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png"/>
+    <hyperlink ref="AG6" r:id="rId184" display="https://3o.hk/images/2023/04/17/21.png"/>
     <hyperlink ref="AY6" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="AY7" r:id="rId189" display="https://pic.zhaotu.me/2023/04/17/221f88baea1af3207d.png"/>
-    <hyperlink ref="AY8" r:id="rId190" display="https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png"/>
-    <hyperlink ref="AY9" r:id="rId191" display="https://3o.hk/images/2023/04/17/o73.png"/>
-    <hyperlink ref="AY15" r:id="rId192" display="https://3o.hk/images/2023/04/17/4.png"/>
-    <hyperlink ref="BE14" r:id="rId193" display="https://3o.hk/images/2023/04/17/27.png"/>
-    <hyperlink ref="BE12" r:id="rId194" display="https://3o.hk/images/2023/04/17/26.png"/>
-    <hyperlink ref="BE13" r:id="rId195" display="https://3o.hk/images/2023/04/17/24.png"/>
-    <hyperlink ref="BE10" r:id="rId195" display="https://3o.hk/images/2023/04/17/24.png"/>
-    <hyperlink ref="BE3" r:id="rId196" display="https://3o.hk/images/2023/04/17/o76.png"/>
-    <hyperlink ref="BE4" r:id="rId197" display="https://3o.hk/images/2023/04/17/16.png"/>
-    <hyperlink ref="BE5" r:id="rId198" display="https://3o.hk/images/2023/04/17/o77.png"/>
-    <hyperlink ref="BE6" r:id="rId199" display="https://3o.hk/images/2023/04/17/o56.png"/>
-    <hyperlink ref="BE7" r:id="rId200" display="https://3o.hk/images/2023/04/17/o55.png"/>
-    <hyperlink ref="BE8" r:id="rId201" display="https://3o.hk/images/2023/04/17/23.png"/>
-    <hyperlink ref="BE9" r:id="rId202" display="https://3o.hk/images/2023/04/17/o96.png"/>
-    <hyperlink ref="BE11" r:id="rId203" display="https://3o.hk/images/2023/04/17/25.png"/>
-    <hyperlink ref="BK4" r:id="rId204" display="https://3o.hk/images/2023/04/17/o87.png"/>
-    <hyperlink ref="BK3" r:id="rId205" display="https://3o.hk/images/2023/04/17/o86.png"/>
-    <hyperlink ref="BK6" r:id="rId206" display="https://3o.hk/images/2023/04/17/o68.png"/>
-    <hyperlink ref="BK7" r:id="rId207" display="https://3o.hk/images/2023/04/17/o41.png"/>
-    <hyperlink ref="BQ3" r:id="rId208" display="https://www.baidu.com/img/baidu_85beaf5496f291521eb75ba38eacbd87.svg"/>
-    <hyperlink ref="BW14" r:id="rId209" display="https://3o.hk/images/2023/04/17/o80.png"/>
+    <hyperlink ref="AY7" r:id="rId185" display="https://pic.zhaotu.me/2023/04/17/221f88baea1af3207d.png"/>
+    <hyperlink ref="AY8" r:id="rId186" display="https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png"/>
+    <hyperlink ref="AY9" r:id="rId187" display="https://3o.hk/images/2023/04/17/o73.png"/>
+    <hyperlink ref="BE14" r:id="rId188" display="https://3o.hk/images/2023/04/17/27.png"/>
+    <hyperlink ref="BE12" r:id="rId189" display="https://3o.hk/images/2023/04/17/26.png"/>
+    <hyperlink ref="BE13" r:id="rId190" display="https://3o.hk/images/2023/04/17/24.png"/>
+    <hyperlink ref="BE10" r:id="rId190" display="https://3o.hk/images/2023/04/17/24.png"/>
+    <hyperlink ref="BE3" r:id="rId191" display="https://3o.hk/images/2023/04/17/o76.png"/>
+    <hyperlink ref="BE4" r:id="rId192" display="https://3o.hk/images/2023/04/17/16.png"/>
+    <hyperlink ref="BE5" r:id="rId193" display="https://3o.hk/images/2023/04/17/o77.png"/>
+    <hyperlink ref="BE6" r:id="rId194" display="https://3o.hk/images/2023/04/17/o56.png"/>
+    <hyperlink ref="BE7" r:id="rId195" display="https://3o.hk/images/2023/04/17/o55.png"/>
+    <hyperlink ref="BE8" r:id="rId196" display="https://3o.hk/images/2023/04/17/23.png"/>
+    <hyperlink ref="BE9" r:id="rId197" display="https://3o.hk/images/2023/04/17/o96.png"/>
+    <hyperlink ref="BE11" r:id="rId198" display="https://3o.hk/images/2023/04/17/25.png"/>
+    <hyperlink ref="BK4" r:id="rId199" display="https://3o.hk/images/2023/04/17/o87.png"/>
+    <hyperlink ref="BK3" r:id="rId200" display="https://3o.hk/images/2023/04/17/o86.png"/>
+    <hyperlink ref="BK6" r:id="rId201" display="https://3o.hk/images/2023/04/17/o68.png"/>
+    <hyperlink ref="BK7" r:id="rId202" display="https://3o.hk/images/2023/04/17/o41.png"/>
+    <hyperlink ref="BQ3" r:id="rId203" display="https://www.baidu.com/img/baidu_85beaf5496f291521eb75ba38eacbd87.svg"/>
+    <hyperlink ref="BW14" r:id="rId204" display="https://3o.hk/images/2023/04/17/o80.png"/>
     <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="CC12" r:id="rId210" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
+    <hyperlink ref="CC12" r:id="rId205" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
     <hyperlink ref="CI8" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="CC9" r:id="rId211" display="https://3o.hk/images/2023/04/17/o66.png"/>
-    <hyperlink ref="CC24" r:id="rId212" display="https://3o.hk/images/2023/04/17/o1.png"/>
-    <hyperlink ref="CC17" r:id="rId213" display="https://3o.hk/images/2023/04/17/o63.png"/>
-    <hyperlink ref="CC22" r:id="rId214" display="https://3o.hk/images/2023/04/17/o69.png"/>
-    <hyperlink ref="CC19" r:id="rId215" display="https://3o.hk/images/2023/04/17/o78.png"/>
-    <hyperlink ref="BW16" r:id="rId216" display="https://3o.hk/images/2023/04/17/28.png"/>
-    <hyperlink ref="AF13" r:id="rId217" display="https://gan.cool" tooltip="https://gan.cool"/>
-    <hyperlink ref="BV8" r:id="rId218" display="https://www.flexclip.com/cn/tools/compress-video/"/>
-    <hyperlink ref="BW8" r:id="rId219" display="https://api.iowen.cn/favicon/www.flexclip.com.png"/>
+    <hyperlink ref="CC9" r:id="rId206" display="https://3o.hk/images/2023/04/17/o66.png"/>
+    <hyperlink ref="CC24" r:id="rId207" display="https://3o.hk/images/2023/04/17/o1.png"/>
+    <hyperlink ref="CC17" r:id="rId208" display="https://3o.hk/images/2023/04/17/o63.png"/>
+    <hyperlink ref="CC22" r:id="rId209" display="https://3o.hk/images/2023/04/17/o69.png"/>
+    <hyperlink ref="CC19" r:id="rId210" display="https://3o.hk/images/2023/04/17/o78.png"/>
+    <hyperlink ref="BW16" r:id="rId211" display="https://3o.hk/images/2023/04/17/28.png"/>
+    <hyperlink ref="AF13" r:id="rId212" display="https://gan.cool" tooltip="https://gan.cool"/>
+    <hyperlink ref="BV8" r:id="rId213" display="https://www.flexclip.com/cn/tools/compress-video/"/>
+    <hyperlink ref="BW8" r:id="rId214" display="https://api.iowen.cn/favicon/www.flexclip.com.png"/>
+    <hyperlink ref="AX12" r:id="rId215" display="https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d"/>
+    <hyperlink ref="AX13" r:id="rId216" display="http://www.ypojie.com"/>
+    <hyperlink ref="AX14" r:id="rId217" display="http://snip.qq.com"/>
+    <hyperlink ref="AX15" r:id="rId218" display="https://www.xxrjzs.com"/>
+    <hyperlink ref="AY14" r:id="rId219" display="https://3o.hk/images/2023/04/17/4.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="575">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1156,6 +1156,9 @@
     <t>http://www.mcool.com/free.php</t>
   </si>
   <si>
+    <t>https://www.mcool.com/favicon.ico</t>
+  </si>
+  <si>
     <t>免费设计素材模板下载图库共享网站</t>
   </si>
   <si>
@@ -1523,15 +1526,6 @@
   </si>
   <si>
     <t>一个分享好看的像素画的网站</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>https://1nav.ml</t>
-  </si>
-  <si>
-    <t>测试前面有空的站点，之后的会不会渲染</t>
   </si>
   <si>
     <t>Screen Sizes</t>
@@ -1752,10 +1746,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1814,21 +1808,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1841,16 +1828,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1872,16 +1852,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,7 +1868,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,17 +1897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1934,8 +1912,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1956,13 +1950,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,79 +2004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,13 +2022,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2083,60 +2131,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,8 +2162,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2185,15 +2194,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2233,17 +2233,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2255,145 +2249,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2402,73 +2396,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2791,8 +2785,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AQ12" workbookViewId="0">
-      <selection activeCell="BB17" sqref="BB17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BZ8" sqref="BZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3242,7 +3236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="156.75" spans="1:95">
+    <row r="3" spans="1:95">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -3445,7 +3439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" ht="370.5" spans="1:94">
+    <row r="4" spans="1:94">
       <c r="A4" s="8" t="s">
         <v>98</v>
       </c>
@@ -3635,7 +3629,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" ht="228" spans="1:94">
+    <row r="5" spans="1:94">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
@@ -3798,7 +3792,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" ht="299.25" spans="1:88">
+    <row r="6" spans="1:88">
       <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
@@ -3963,7 +3957,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" ht="156.75" spans="1:88">
+    <row r="7" spans="1:88">
       <c r="A7" s="8" t="s">
         <v>240</v>
       </c>
@@ -4114,7 +4108,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" ht="142.5" spans="1:89">
+    <row r="8" spans="1:89">
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>
@@ -4238,7 +4232,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" ht="242.25" spans="1:88">
+    <row r="9" ht="18.75" spans="1:88">
       <c r="A9" s="1" t="s">
         <v>323</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" ht="256.5" spans="1:88">
+    <row r="10" spans="1:88">
       <c r="A10" s="1" t="s">
         <v>247</v>
       </c>
@@ -4454,58 +4448,61 @@
       <c r="CB10" s="14" t="s">
         <v>379</v>
       </c>
+      <c r="CC10" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="CD10" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="CH10" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" ht="228" spans="7:88">
+    <row r="11" spans="7:88">
       <c r="G11" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>70</v>
@@ -4514,666 +4511,657 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BD11" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BE11" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BV11" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CB11" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="CH11" s="14" t="s">
         <v>410</v>
+      </c>
+      <c r="CH11" s="15" t="s">
+        <v>411</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" ht="142.5" spans="7:82">
+    <row r="12" spans="7:82">
       <c r="G12" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="CC12" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="13" ht="114" spans="13:82">
+    <row r="13" spans="13:82">
       <c r="M13" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>373</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="BV13" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="BX13" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="CA13" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="14" ht="114" spans="13:82">
+    <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BV14" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="BW14" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="BX14" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="BW14" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="BX14" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="CA14" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="15" ht="85.5" spans="19:82">
+    <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="AY15" s="1"/>
+        <v>483</v>
+      </c>
       <c r="AZ15" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="16" ht="71.25" spans="19:82">
+    <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="CB16" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="CD16" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="CD16" s="1" t="s">
-        <v>497</v>
-      </c>
     </row>
-    <row r="17" ht="185.25" spans="19:82">
+    <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
-      <c r="AW17" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AX17" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BV17" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="BX17" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="BV17" s="14" t="s">
+      <c r="CA17" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CB17" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CC17" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="CB17" s="14" t="s">
+      <c r="CD17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="CC17" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>512</v>
-      </c>
     </row>
-    <row r="18" ht="370.5" spans="36:82">
+    <row r="18" spans="36:82">
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BV18" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="BX18" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="BV18" s="14" t="s">
+      <c r="CA18" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CB18" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CD18" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="CB18" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>518</v>
-      </c>
     </row>
-    <row r="19" ht="156.75" spans="36:82">
+    <row r="19" spans="36:82">
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="BV19" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="BX19" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="BV19" s="14" t="s">
+      <c r="CA19" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CB19" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CC19" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="CB19" s="14" t="s">
+      <c r="CD19" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="CC19" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>525</v>
-      </c>
     </row>
-    <row r="20" ht="99.75" spans="36:82">
+    <row r="20" spans="36:82">
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="BV20" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="BX20" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="BV20" s="14" t="s">
+      <c r="CA20" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CB20" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CD20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="CB20" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>531</v>
-      </c>
     </row>
-    <row r="21" ht="128.25" spans="36:82">
+    <row r="21" spans="36:82">
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BV21" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="BX21" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="BV21" s="14" t="s">
+      <c r="CA21" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CB21" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CD21" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="CB21" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
-    <row r="22" ht="99.75" spans="36:82">
+    <row r="22" spans="36:82">
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="BV22" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="BX22" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="BV22" s="14" t="s">
+      <c r="CA22" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CB22" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CC22" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="CB22" s="14" t="s">
+      <c r="CD22" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="CC22" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>544</v>
-      </c>
     </row>
-    <row r="23" ht="85.5" spans="36:82">
+    <row r="23" spans="36:82">
       <c r="AJ23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="BV23" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="BX23" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="BV23" s="14" t="s">
+      <c r="CA23" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CB23" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CD23" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="CB23" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>550</v>
-      </c>
     </row>
-    <row r="24" ht="71.25" spans="36:83">
+    <row r="24" spans="36:83">
       <c r="AJ24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="BV24" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="BX24" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="BV24" s="14" t="s">
+      <c r="CA24" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CB24" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CC24" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="CB24" s="14" t="s">
+      <c r="CD24" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="CC24" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="CE24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" ht="71.25" spans="36:82">
+    <row r="25" spans="36:82">
       <c r="AJ25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BV25" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="BX25" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="BV25" s="19" t="s">
+      <c r="CA25" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CB25" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CD25" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="73:82">
+      <c r="BU26" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="CB25" s="14" t="s">
+      <c r="BV26" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="CD25" s="1" t="s">
-        <v>557</v>
+      <c r="BX26" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="CD26" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
-    <row r="26" ht="114" spans="73:82">
-      <c r="BU26" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="BV26" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="BX26" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="CA26" s="1" t="s">
+    <row r="27" spans="73:82">
+      <c r="BU27" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="CB26" s="14" t="s">
+      <c r="BV27" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="CD26" s="1" t="s">
-        <v>557</v>
+      <c r="BX27" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="CB27" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="CD27" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
-    <row r="27" ht="57" spans="73:82">
-      <c r="BU27" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="BV27" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="BX27" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="CA27" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="CB27" s="12" t="s">
+    <row r="28" spans="79:82">
+      <c r="CA28" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="CD27" s="1" t="s">
+      <c r="CB28" s="14" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="28" ht="85.5" spans="79:82">
-      <c r="CA28" s="1" t="s">
+      <c r="CD28" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="CB28" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5275,140 +5263,140 @@
     <hyperlink ref="AX9" r:id="rId91" display="http://zh.snipaste.com"/>
     <hyperlink ref="AX10" r:id="rId92" display="http://www.lanzoux.com/s/wp"/>
     <hyperlink ref="AX11" r:id="rId93" display="http://www.lanzoux.com/s/APP" tooltip="http://www.lanzoux.com/s/APP"/>
-    <hyperlink ref="AX17" r:id="rId94" display="https://1nav.ml" tooltip="https://1nav.ml"/>
-    <hyperlink ref="BD3" r:id="rId95" display="http://space.bilibili.com/38053181?👋我和小白很早之前就关注的up主，上课老师还放了他的视频"/>
-    <hyperlink ref="BD4" r:id="rId96" display="https://space.bilibili.com/449144107"/>
-    <hyperlink ref="BD5" r:id="rId97" display="http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程"/>
-    <hyperlink ref="BD6" r:id="rId98" display="http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏"/>
-    <hyperlink ref="BD7" r:id="rId99" display="http://www.hellocjc.com"/>
-    <hyperlink ref="BD8" r:id="rId100" display="http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐"/>
-    <hyperlink ref="BD9" r:id="rId101" display="http://space.bilibili.com/25433581"/>
-    <hyperlink ref="BD10" r:id="rId102" display="http://www.bilibili.com/video/BV1YW411e7n5/"/>
-    <hyperlink ref="BD11" r:id="rId103" display="http://www.bilibili.com/video/BV1EW411171A/"/>
-    <hyperlink ref="BD12" r:id="rId104" display="http://www.bilibili.com/video/BV1J4411C7am?p=5/"/>
-    <hyperlink ref="BD13" r:id="rId105" display="http://www.bilibili.com/video/BV12x411f7Gp?p=9"/>
-    <hyperlink ref="BD14" r:id="rId106" display="http://www.bilibili.com/video/BV1bb411F7Sh/"/>
-    <hyperlink ref="BJ3" r:id="rId107" display="http://m.52jingsai.com"/>
-    <hyperlink ref="BJ4" r:id="rId108" display="http://bbs.1zj.com/forum-41-1.html"/>
-    <hyperlink ref="BJ5" r:id="rId109" display="https://task.huitu.com"/>
-    <hyperlink ref="BJ6" r:id="rId110" display="http://www.5iidea.com/xyj"/>
-    <hyperlink ref="BJ7" r:id="rId111" display="http://designmag.cn"/>
-    <hyperlink ref="BP3" r:id="rId112" display="http://image.baidu.com/?fr=shitu/"/>
-    <hyperlink ref="BP4" r:id="rId113" display="http://trace.moe"/>
-    <hyperlink ref="BP5" r:id="rId114" display="http://saucenao.com"/>
-    <hyperlink ref="BP6" r:id="rId115" display="http://pic.sogou.com/pic/index.jsp" tooltip="http://pic.sogou.com/pic/index.jsp"/>
-    <hyperlink ref="BP7" r:id="rId116" display="http://m.image.so.com"/>
-    <hyperlink ref="BV3" r:id="rId117" display="https://www.gaituya.com"/>
-    <hyperlink ref="BV4" r:id="rId118" display="https://img.logosc.cn"/>
-    <hyperlink ref="BV5" r:id="rId119" display="http://www.bossdesign.cn/pdftools"/>
-    <hyperlink ref="BV6" r:id="rId120" display="https://www.pdf2go.com/zh"/>
-    <hyperlink ref="BV7" r:id="rId121" display="http://app.xunjiepdf.com"/>
-    <hyperlink ref="BV9" r:id="rId122" display="http://www.aconvert.com/cn/"/>
-    <hyperlink ref="BV10" r:id="rId123" display="http://zhuanhuan.supfree.net"/>
-    <hyperlink ref="BV11" r:id="rId124" display="https://ezgif.com"/>
-    <hyperlink ref="BV12" r:id="rId125" display="http://www.zamzar.com"/>
-    <hyperlink ref="BV13" r:id="rId126" display="http://smallpdf.com"/>
-    <hyperlink ref="BV14" r:id="rId127" display="http://www.pngtosvg.com"/>
-    <hyperlink ref="BV15" r:id="rId128" display="http://www.remove.bg/zh"/>
-    <hyperlink ref="BV16" r:id="rId129" display="http://tool.lanrentuku.com/guifan/ui.html"/>
-    <hyperlink ref="BV17" r:id="rId130" display="http://screensiz.es/"/>
-    <hyperlink ref="BV18" r:id="rId131" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
-    <hyperlink ref="BV19" r:id="rId132" display="http://material.io/blog/device-metrics"/>
-    <hyperlink ref="BV20" r:id="rId133" display="http://cli.im/deqr"/>
-    <hyperlink ref="BV21" r:id="rId134" display="http://tinify.cn"/>
-    <hyperlink ref="BV22" r:id="rId135" display="http://www.yasuotu.com"/>
-    <hyperlink ref="BV23" r:id="rId136" display="http://www.processon.com"/>
-    <hyperlink ref="BV24" r:id="rId137" display="http://koutu.58pic.com"/>
-    <hyperlink ref="BV25" r:id="rId138" display="http://www.unscreen.com/upload"/>
-    <hyperlink ref="BV26" r:id="rId139" display="https://products.groupdocs.app/zh/conversion/total"/>
-    <hyperlink ref="BV27" r:id="rId140" display="https://vectordad.com"/>
-    <hyperlink ref="CN3" r:id="rId141" display="http://www.freehost.cc"/>
-    <hyperlink ref="CN4" r:id="rId142" display="http://www.xiadj.cf"/>
-    <hyperlink ref="CN5" r:id="rId143" display="https://dh.4everland.app"/>
+    <hyperlink ref="BD3" r:id="rId94" display="http://space.bilibili.com/38053181?👋我和小白很早之前就关注的up主，上课老师还放了他的视频"/>
+    <hyperlink ref="BD4" r:id="rId95" display="https://space.bilibili.com/449144107"/>
+    <hyperlink ref="BD5" r:id="rId96" display="http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程"/>
+    <hyperlink ref="BD6" r:id="rId97" display="http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏"/>
+    <hyperlink ref="BD7" r:id="rId98" display="http://www.hellocjc.com"/>
+    <hyperlink ref="BD8" r:id="rId99" display="http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐"/>
+    <hyperlink ref="BD9" r:id="rId100" display="http://space.bilibili.com/25433581"/>
+    <hyperlink ref="BD10" r:id="rId101" display="http://www.bilibili.com/video/BV1YW411e7n5/"/>
+    <hyperlink ref="BD11" r:id="rId102" display="http://www.bilibili.com/video/BV1EW411171A/"/>
+    <hyperlink ref="BD12" r:id="rId103" display="http://www.bilibili.com/video/BV1J4411C7am?p=5/"/>
+    <hyperlink ref="BD13" r:id="rId104" display="http://www.bilibili.com/video/BV12x411f7Gp?p=9"/>
+    <hyperlink ref="BD14" r:id="rId105" display="http://www.bilibili.com/video/BV1bb411F7Sh/"/>
+    <hyperlink ref="BJ3" r:id="rId106" display="http://m.52jingsai.com"/>
+    <hyperlink ref="BJ4" r:id="rId107" display="http://bbs.1zj.com/forum-41-1.html"/>
+    <hyperlink ref="BJ5" r:id="rId108" display="https://task.huitu.com"/>
+    <hyperlink ref="BJ6" r:id="rId109" display="http://www.5iidea.com/xyj"/>
+    <hyperlink ref="BJ7" r:id="rId110" display="http://designmag.cn"/>
+    <hyperlink ref="BP3" r:id="rId111" display="http://image.baidu.com/?fr=shitu/"/>
+    <hyperlink ref="BP4" r:id="rId112" display="http://trace.moe"/>
+    <hyperlink ref="BP5" r:id="rId113" display="http://saucenao.com"/>
+    <hyperlink ref="BP6" r:id="rId114" display="http://pic.sogou.com/pic/index.jsp" tooltip="http://pic.sogou.com/pic/index.jsp"/>
+    <hyperlink ref="BP7" r:id="rId115" display="http://m.image.so.com"/>
+    <hyperlink ref="BV3" r:id="rId116" display="https://www.gaituya.com"/>
+    <hyperlink ref="BV4" r:id="rId117" display="https://img.logosc.cn"/>
+    <hyperlink ref="BV5" r:id="rId118" display="http://www.bossdesign.cn/pdftools"/>
+    <hyperlink ref="BV6" r:id="rId119" display="https://www.pdf2go.com/zh"/>
+    <hyperlink ref="BV7" r:id="rId120" display="http://app.xunjiepdf.com"/>
+    <hyperlink ref="BV9" r:id="rId121" display="http://www.aconvert.com/cn/"/>
+    <hyperlink ref="BV10" r:id="rId122" display="http://zhuanhuan.supfree.net"/>
+    <hyperlink ref="BV11" r:id="rId123" display="https://ezgif.com"/>
+    <hyperlink ref="BV12" r:id="rId124" display="http://www.zamzar.com"/>
+    <hyperlink ref="BV13" r:id="rId125" display="http://smallpdf.com"/>
+    <hyperlink ref="BV14" r:id="rId126" display="http://www.pngtosvg.com"/>
+    <hyperlink ref="BV15" r:id="rId127" display="http://www.remove.bg/zh"/>
+    <hyperlink ref="BV16" r:id="rId128" display="http://tool.lanrentuku.com/guifan/ui.html"/>
+    <hyperlink ref="BV17" r:id="rId129" display="http://screensiz.es/"/>
+    <hyperlink ref="BV18" r:id="rId130" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
+    <hyperlink ref="BV19" r:id="rId131" display="http://material.io/blog/device-metrics"/>
+    <hyperlink ref="BV20" r:id="rId132" display="http://cli.im/deqr"/>
+    <hyperlink ref="BV21" r:id="rId133" display="http://tinify.cn"/>
+    <hyperlink ref="BV22" r:id="rId134" display="http://www.yasuotu.com"/>
+    <hyperlink ref="BV23" r:id="rId135" display="http://www.processon.com"/>
+    <hyperlink ref="BV24" r:id="rId136" display="http://koutu.58pic.com"/>
+    <hyperlink ref="BV25" r:id="rId137" display="http://www.unscreen.com/upload"/>
+    <hyperlink ref="BV26" r:id="rId138" display="https://products.groupdocs.app/zh/conversion/total"/>
+    <hyperlink ref="BV27" r:id="rId139" display="https://vectordad.com"/>
+    <hyperlink ref="CN3" r:id="rId140" display="http://www.freehost.cc"/>
+    <hyperlink ref="CN4" r:id="rId141" display="http://www.xiadj.cf"/>
+    <hyperlink ref="CN5" r:id="rId142" display="https://dh.4everland.app"/>
     <hyperlink ref="CB3" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="CB4" r:id="rId144" display="https://brandingstyleguides.com/guide"/>
-    <hyperlink ref="CB5" r:id="rId145" display="http://zymf.ys168.com"/>
-    <hyperlink ref="CB6" r:id="rId146" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
-    <hyperlink ref="CB7" r:id="rId147" display="http://www.ls.graphics"/>
-    <hyperlink ref="CB8" r:id="rId148" display="https://www.freepik.com"/>
-    <hyperlink ref="CB9" r:id="rId149" display="http://www.yunmiss.com/list/1.html"/>
-    <hyperlink ref="CB10" r:id="rId150" display="http://www.mcool.com/free.php"/>
-    <hyperlink ref="CB11" r:id="rId151" display="https://blender.kim"/>
-    <hyperlink ref="CB12" r:id="rId152" display="http://www.modown.cn/?aff=70874"/>
-    <hyperlink ref="CB13" r:id="rId153" display="https://www.3d66.com"/>
-    <hyperlink ref="CB14" r:id="rId154" display="https://www.cgmodel.com"/>
-    <hyperlink ref="CB15" r:id="rId155" display="http://www.51pptmoban.com"/>
-    <hyperlink ref="CB17" r:id="rId156" display="http://aigei.com/design/?m=b_4425938"/>
-    <hyperlink ref="CB16" r:id="rId157" display="http://www.1ppt.com"/>
-    <hyperlink ref="CB18" r:id="rId158" display="http://www.5sucai.com"/>
-    <hyperlink ref="CB19" r:id="rId159" display="http://www.sheji567.com"/>
-    <hyperlink ref="CB20" r:id="rId160" display="http://www.51yuansu.com"/>
-    <hyperlink ref="CB21" r:id="rId161" display="http://undraw.co/illustrations"/>
-    <hyperlink ref="CB22" r:id="rId162" display="http://www.huiyi8.com/yinxiao"/>
-    <hyperlink ref="CB23" r:id="rId163" display="http://www.zifh.com"/>
-    <hyperlink ref="CB24" r:id="rId164" display="http://www.maoken.com"/>
-    <hyperlink ref="CB25" r:id="rId165" display="http://www.ziticangku.com"/>
-    <hyperlink ref="CB26" r:id="rId166" display="http://www.100font.com"/>
-    <hyperlink ref="CB27" r:id="rId167" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
-    <hyperlink ref="CB28" r:id="rId168" display="http://www.pptfans.cn/pptcourse"/>
-    <hyperlink ref="CH3" r:id="rId169" display="http://by.360xueke.com"/>
-    <hyperlink ref="CH4" r:id="rId170" display="http://www.cnki.net"/>
-    <hyperlink ref="CH5" r:id="rId171" display="http://www.wanfangdata.com.cn"/>
-    <hyperlink ref="CH6" r:id="rId172" display="http://www.cqvip.com"/>
-    <hyperlink ref="CH7" r:id="rId173" display="http://www.paperask.com"/>
+    <hyperlink ref="CB4" r:id="rId143" display="https://brandingstyleguides.com/guide"/>
+    <hyperlink ref="CB5" r:id="rId144" display="http://zymf.ys168.com"/>
+    <hyperlink ref="CB6" r:id="rId145" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
+    <hyperlink ref="CB7" r:id="rId146" display="http://www.ls.graphics"/>
+    <hyperlink ref="CB8" r:id="rId147" display="https://www.freepik.com"/>
+    <hyperlink ref="CB9" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
+    <hyperlink ref="CB10" r:id="rId149" display="http://www.mcool.com/free.php"/>
+    <hyperlink ref="CB11" r:id="rId150" display="https://blender.kim"/>
+    <hyperlink ref="CB12" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
+    <hyperlink ref="CB13" r:id="rId152" display="https://www.3d66.com"/>
+    <hyperlink ref="CB14" r:id="rId153" display="https://www.cgmodel.com"/>
+    <hyperlink ref="CB15" r:id="rId154" display="http://www.51pptmoban.com"/>
+    <hyperlink ref="CB17" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
+    <hyperlink ref="CB16" r:id="rId156" display="http://www.1ppt.com"/>
+    <hyperlink ref="CB18" r:id="rId157" display="http://www.5sucai.com"/>
+    <hyperlink ref="CB19" r:id="rId158" display="http://www.sheji567.com"/>
+    <hyperlink ref="CB20" r:id="rId159" display="http://www.51yuansu.com"/>
+    <hyperlink ref="CB21" r:id="rId160" display="http://undraw.co/illustrations"/>
+    <hyperlink ref="CB22" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
+    <hyperlink ref="CB23" r:id="rId162" display="http://www.zifh.com"/>
+    <hyperlink ref="CB24" r:id="rId163" display="http://www.maoken.com"/>
+    <hyperlink ref="CB25" r:id="rId164" display="http://www.ziticangku.com"/>
+    <hyperlink ref="CB26" r:id="rId165" display="http://www.100font.com"/>
+    <hyperlink ref="CB27" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
+    <hyperlink ref="CB28" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
+    <hyperlink ref="CH3" r:id="rId168" display="http://by.360xueke.com"/>
+    <hyperlink ref="CH4" r:id="rId169" display="http://www.cnki.net"/>
+    <hyperlink ref="CH5" r:id="rId170" display="http://www.wanfangdata.com.cn"/>
+    <hyperlink ref="CH6" r:id="rId171" display="http://www.cqvip.com"/>
+    <hyperlink ref="CH7" r:id="rId172" display="http://www.paperask.com"/>
     <hyperlink ref="CH8" r:id="rId21" display="https://gpt.1nav.ml"/>
-    <hyperlink ref="CH9" r:id="rId174" display="http://www.paperray.com"/>
-    <hyperlink ref="CH10" r:id="rId175" display="http://www.paperdatas.com"/>
-    <hyperlink ref="CH11" r:id="rId176" display="http://www.paperfree.cn/freeActivity/index.html"/>
-    <hyperlink ref="AM3" r:id="rId177" display="https://3o.hk/images/2023/04/17/1.png"/>
-    <hyperlink ref="AM4" r:id="rId178" display="https://3o.hk/images/2023/04/17/19.png"/>
-    <hyperlink ref="AS3" r:id="rId179" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
-    <hyperlink ref="AY4" r:id="rId180" display="https://lf-cdn-tos.bytescm.com/obj/static/ies/ulike/web/resource/fe_official/assets/imgs/lv/favicon.ico"/>
-    <hyperlink ref="U10" r:id="rId181" display="https://3o.hk/images/2023/04/17/20.png"/>
-    <hyperlink ref="U12" r:id="rId182" display="https://3o.hk/images/2023/04/18/image.png" tooltip="https://3o.hk/images/2023/04/18/image.png"/>
-    <hyperlink ref="U17" r:id="rId183" display="https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png"/>
-    <hyperlink ref="AG6" r:id="rId184" display="https://3o.hk/images/2023/04/17/21.png"/>
+    <hyperlink ref="CH9" r:id="rId173" display="http://www.paperray.com"/>
+    <hyperlink ref="CH10" r:id="rId174" display="http://www.paperdatas.com"/>
+    <hyperlink ref="CH11" r:id="rId175" display="http://www.paperfree.cn/freeActivity/index.html"/>
+    <hyperlink ref="AM3" r:id="rId176" display="https://3o.hk/images/2023/04/17/1.png"/>
+    <hyperlink ref="AM4" r:id="rId177" display="https://3o.hk/images/2023/04/17/19.png"/>
+    <hyperlink ref="AS3" r:id="rId178" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
+    <hyperlink ref="AY4" r:id="rId179" display="https://lf-cdn-tos.bytescm.com/obj/static/ies/ulike/web/resource/fe_official/assets/imgs/lv/favicon.ico"/>
+    <hyperlink ref="U10" r:id="rId180" display="https://3o.hk/images/2023/04/17/20.png"/>
+    <hyperlink ref="U12" r:id="rId181" display="https://3o.hk/images/2023/04/18/image.png" tooltip="https://3o.hk/images/2023/04/18/image.png"/>
+    <hyperlink ref="U17" r:id="rId182" display="https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png"/>
+    <hyperlink ref="AG6" r:id="rId183" display="https://3o.hk/images/2023/04/17/21.png"/>
     <hyperlink ref="AY6" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="AY7" r:id="rId185" display="https://pic.zhaotu.me/2023/04/17/221f88baea1af3207d.png"/>
-    <hyperlink ref="AY8" r:id="rId186" display="https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png"/>
-    <hyperlink ref="AY9" r:id="rId187" display="https://3o.hk/images/2023/04/17/o73.png"/>
-    <hyperlink ref="BE14" r:id="rId188" display="https://3o.hk/images/2023/04/17/27.png"/>
-    <hyperlink ref="BE12" r:id="rId189" display="https://3o.hk/images/2023/04/17/26.png"/>
-    <hyperlink ref="BE13" r:id="rId190" display="https://3o.hk/images/2023/04/17/24.png"/>
-    <hyperlink ref="BE10" r:id="rId190" display="https://3o.hk/images/2023/04/17/24.png"/>
-    <hyperlink ref="BE3" r:id="rId191" display="https://3o.hk/images/2023/04/17/o76.png"/>
-    <hyperlink ref="BE4" r:id="rId192" display="https://3o.hk/images/2023/04/17/16.png"/>
-    <hyperlink ref="BE5" r:id="rId193" display="https://3o.hk/images/2023/04/17/o77.png"/>
-    <hyperlink ref="BE6" r:id="rId194" display="https://3o.hk/images/2023/04/17/o56.png"/>
-    <hyperlink ref="BE7" r:id="rId195" display="https://3o.hk/images/2023/04/17/o55.png"/>
-    <hyperlink ref="BE8" r:id="rId196" display="https://3o.hk/images/2023/04/17/23.png"/>
-    <hyperlink ref="BE9" r:id="rId197" display="https://3o.hk/images/2023/04/17/o96.png"/>
-    <hyperlink ref="BE11" r:id="rId198" display="https://3o.hk/images/2023/04/17/25.png"/>
-    <hyperlink ref="BK4" r:id="rId199" display="https://3o.hk/images/2023/04/17/o87.png"/>
-    <hyperlink ref="BK3" r:id="rId200" display="https://3o.hk/images/2023/04/17/o86.png"/>
-    <hyperlink ref="BK6" r:id="rId201" display="https://3o.hk/images/2023/04/17/o68.png"/>
-    <hyperlink ref="BK7" r:id="rId202" display="https://3o.hk/images/2023/04/17/o41.png"/>
-    <hyperlink ref="BQ3" r:id="rId203" display="https://www.baidu.com/img/baidu_85beaf5496f291521eb75ba38eacbd87.svg"/>
-    <hyperlink ref="BW14" r:id="rId204" display="https://3o.hk/images/2023/04/17/o80.png"/>
+    <hyperlink ref="AY7" r:id="rId184" display="https://pic.zhaotu.me/2023/04/17/221f88baea1af3207d.png"/>
+    <hyperlink ref="AY8" r:id="rId185" display="https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png"/>
+    <hyperlink ref="AY9" r:id="rId186" display="https://3o.hk/images/2023/04/17/o73.png"/>
+    <hyperlink ref="BE14" r:id="rId187" display="https://3o.hk/images/2023/04/17/27.png"/>
+    <hyperlink ref="BE12" r:id="rId188" display="https://3o.hk/images/2023/04/17/26.png"/>
+    <hyperlink ref="BE13" r:id="rId189" display="https://3o.hk/images/2023/04/17/24.png"/>
+    <hyperlink ref="BE10" r:id="rId189" display="https://3o.hk/images/2023/04/17/24.png"/>
+    <hyperlink ref="BE3" r:id="rId190" display="https://3o.hk/images/2023/04/17/o76.png"/>
+    <hyperlink ref="BE4" r:id="rId191" display="https://3o.hk/images/2023/04/17/16.png"/>
+    <hyperlink ref="BE5" r:id="rId192" display="https://3o.hk/images/2023/04/17/o77.png"/>
+    <hyperlink ref="BE6" r:id="rId193" display="https://3o.hk/images/2023/04/17/o56.png"/>
+    <hyperlink ref="BE7" r:id="rId194" display="https://3o.hk/images/2023/04/17/o55.png"/>
+    <hyperlink ref="BE8" r:id="rId195" display="https://3o.hk/images/2023/04/17/23.png"/>
+    <hyperlink ref="BE9" r:id="rId196" display="https://3o.hk/images/2023/04/17/o96.png"/>
+    <hyperlink ref="BE11" r:id="rId197" display="https://3o.hk/images/2023/04/17/25.png"/>
+    <hyperlink ref="BK4" r:id="rId198" display="https://3o.hk/images/2023/04/17/o87.png"/>
+    <hyperlink ref="BK3" r:id="rId199" display="https://3o.hk/images/2023/04/17/o86.png"/>
+    <hyperlink ref="BK6" r:id="rId200" display="https://3o.hk/images/2023/04/17/o68.png"/>
+    <hyperlink ref="BK7" r:id="rId201" display="https://3o.hk/images/2023/04/17/o41.png"/>
+    <hyperlink ref="BQ3" r:id="rId202" display="https://www.baidu.com/img/baidu_85beaf5496f291521eb75ba38eacbd87.svg"/>
+    <hyperlink ref="BW14" r:id="rId203" display="https://3o.hk/images/2023/04/17/o80.png"/>
     <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="CC12" r:id="rId205" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
+    <hyperlink ref="CC12" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
     <hyperlink ref="CI8" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="CC9" r:id="rId206" display="https://3o.hk/images/2023/04/17/o66.png"/>
-    <hyperlink ref="CC24" r:id="rId207" display="https://3o.hk/images/2023/04/17/o1.png"/>
-    <hyperlink ref="CC17" r:id="rId208" display="https://3o.hk/images/2023/04/17/o63.png"/>
-    <hyperlink ref="CC22" r:id="rId209" display="https://3o.hk/images/2023/04/17/o69.png"/>
-    <hyperlink ref="CC19" r:id="rId210" display="https://3o.hk/images/2023/04/17/o78.png"/>
-    <hyperlink ref="BW16" r:id="rId211" display="https://3o.hk/images/2023/04/17/28.png"/>
-    <hyperlink ref="AF13" r:id="rId212" display="https://gan.cool" tooltip="https://gan.cool"/>
-    <hyperlink ref="BV8" r:id="rId213" display="https://www.flexclip.com/cn/tools/compress-video/"/>
-    <hyperlink ref="BW8" r:id="rId214" display="https://api.iowen.cn/favicon/www.flexclip.com.png"/>
-    <hyperlink ref="AX12" r:id="rId215" display="https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d"/>
-    <hyperlink ref="AX13" r:id="rId216" display="http://www.ypojie.com"/>
-    <hyperlink ref="AX14" r:id="rId217" display="http://snip.qq.com"/>
-    <hyperlink ref="AX15" r:id="rId218" display="https://www.xxrjzs.com"/>
-    <hyperlink ref="AY14" r:id="rId219" display="https://3o.hk/images/2023/04/17/4.png"/>
+    <hyperlink ref="CC9" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
+    <hyperlink ref="CC24" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
+    <hyperlink ref="CC17" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
+    <hyperlink ref="CC22" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
+    <hyperlink ref="CC19" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
+    <hyperlink ref="BW16" r:id="rId210" display="https://3o.hk/images/2023/04/17/28.png"/>
+    <hyperlink ref="AF13" r:id="rId211" display="https://gan.cool" tooltip="https://gan.cool"/>
+    <hyperlink ref="BV8" r:id="rId212" display="https://www.flexclip.com/cn/tools/compress-video/"/>
+    <hyperlink ref="BW8" r:id="rId213" display="https://api.iowen.cn/favicon/www.flexclip.com.png"/>
+    <hyperlink ref="AX12" r:id="rId214" display="https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d"/>
+    <hyperlink ref="AX13" r:id="rId215" display="http://www.ypojie.com"/>
+    <hyperlink ref="AX14" r:id="rId216" display="http://snip.qq.com"/>
+    <hyperlink ref="AX15" r:id="rId217" display="https://www.xxrjzs.com"/>
+    <hyperlink ref="AY14" r:id="rId218" display="https://3o.hk/images/2023/04/17/4.png"/>
+    <hyperlink ref="CC10" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="578">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1547,6 +1547,15 @@
   </si>
   <si>
     <t>免费提供免费的音效配乐|3D模型|视频|游戏素材资源下载</t>
+  </si>
+  <si>
+    <t>Instagram（需魔法）</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com</t>
+  </si>
+  <si>
+    <t>类似于国内小红书</t>
   </si>
   <si>
     <t>IPhone屏幕尺寸</t>
@@ -1746,10 +1755,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1808,14 +1817,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,7 +1848,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1841,6 +1859,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1860,23 +1885,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,8 +1913,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1912,24 +1929,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1950,43 +1959,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,7 +1995,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,37 +2049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,19 +2067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,7 +2085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,25 +2115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,7 +2133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,60 +2150,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2222,6 +2177,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2236,8 +2206,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2249,10 +2258,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2261,16 +2270,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2282,112 +2291,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2785,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BZ8" sqref="BZ8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4909,28 +4918,37 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="36:82">
+    <row r="18" spans="19:82">
+      <c r="S18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -4939,25 +4957,25 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="CC19" s="14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -4966,22 +4984,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -4990,22 +5008,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5014,25 +5032,25 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="CC22" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5041,22 +5059,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="36:83">
@@ -5065,25 +5083,25 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="CC24" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="CE24" s="1" t="s">
         <v>70</v>
@@ -5095,73 +5113,73 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="BX25" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CB25" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="CD25" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="CA25" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="CB25" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="73:82">
       <c r="BU27" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -5397,6 +5415,7 @@
     <hyperlink ref="AX15" r:id="rId217" display="https://www.xxrjzs.com"/>
     <hyperlink ref="AY14" r:id="rId218" display="https://3o.hk/images/2023/04/17/4.png"/>
     <hyperlink ref="CC10" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
+    <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="579">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1514,6 +1514,9 @@
   </si>
   <si>
     <t>http://www.1ppt.com</t>
+  </si>
+  <si>
+    <t>免费ppt下载网站，广告超多，注意甄别！！</t>
   </si>
   <si>
     <t>像素画</t>
@@ -1755,10 +1758,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1816,21 +1819,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1840,7 +1828,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1854,45 +1849,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,9 +1871,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1929,8 +1893,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1941,6 +1936,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1959,61 +1962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,25 +1992,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,7 +2112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,61 +2136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,30 +2153,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2207,6 +2186,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -2227,15 +2224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2250,6 +2238,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2258,10 +2261,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2270,16 +2273,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2291,112 +2294,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2794,8 +2797,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CF17" sqref="CF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4871,25 +4874,25 @@
       <c r="CA16" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="CB16" s="14" t="s">
+      <c r="CB16" s="15" t="s">
         <v>499</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4897,58 +4900,58 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CC17" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -4957,25 +4960,25 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="CC19" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -4984,22 +4987,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5008,22 +5011,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5032,25 +5035,25 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CC22" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5059,22 +5062,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="36:83">
@@ -5083,25 +5086,25 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CC24" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CE24" s="1" t="s">
         <v>70</v>
@@ -5113,73 +5116,73 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BV25" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="BX25" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CB25" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="CD25" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="BV25" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="BX25" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="CA25" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="CB25" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="73:82">
       <c r="BU27" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="582">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -850,6 +850,117 @@
     <t>👍迅捷PDF转换器，免费版可以借我的会员有效期：2023-4-3</t>
   </si>
   <si>
+    <t>免费样机（MOCKUP🔥）</t>
+  </si>
+  <si>
+    <t>https://mockupplanet.com</t>
+  </si>
+  <si>
+    <t>免费样机图片下载网（MOCKUP🔥）</t>
+  </si>
+  <si>
+    <t>免费论文查重-1</t>
+  </si>
+  <si>
+    <t>http://www.paperask.com</t>
+  </si>
+  <si>
+    <t>这几个每天免费一次，用完一个换一个就行了</t>
+  </si>
+  <si>
+    <t>&lt;i style="color:#e67c86"&gt;夏DJ导航站介绍&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://airtap.io/w/xiadj</t>
+  </si>
+  <si>
+    <t>/favicon.ico</t>
+  </si>
+  <si>
+    <t>由小张用&lt;i style="color:red;"&gt;❤&lt;/i&gt;制作</t>
+  </si>
+  <si>
+    <t>zijiren</t>
+  </si>
+  <si>
+    <t>Muzli Search</t>
+  </si>
+  <si>
+    <t>https://search.muz.li</t>
+  </si>
+  <si>
+    <t>https://search.muz.li/assets/images/favicon.png</t>
+  </si>
+  <si>
+    <t>搜索、发现、测试并为您的项目创建漂亮的调色板</t>
+  </si>
+  <si>
+    <t>设计百宝箱</t>
+  </si>
+  <si>
+    <t>http://www.shejibox.cn</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/17.png</t>
+  </si>
+  <si>
+    <t>设计百宝箱-全球高质量设计师网址导航大全</t>
+  </si>
+  <si>
+    <t>设宝网</t>
+  </si>
+  <si>
+    <t>https://www.sheboo.com/</t>
+  </si>
+  <si>
+    <t>设宝网-设计师轻分享交流平台，设计素材分享，作品点评，插画、UI、字体设计师</t>
+  </si>
+  <si>
+    <t>浏览器扩展插件商店</t>
+  </si>
+  <si>
+    <t>https://chrome.zzzmh.cn</t>
+  </si>
+  <si>
+    <t>极简插件_Chrome扩展插件商店（无套路）</t>
+  </si>
+  <si>
+    <t>各种设计软件</t>
+  </si>
+  <si>
+    <t>http://pan.baidu.com/s/1eYDWh0J9E_Z9FaO2H-A96g#list/path=%2F&amp;vmode=list</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png</t>
+  </si>
+  <si>
+    <t>打开是百度网盘链接，有会员的可以用，没用的话还是前面那个吧😂</t>
+  </si>
+  <si>
+    <t>字体设计up主</t>
+  </si>
+  <si>
+    <t>http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/23.png</t>
+  </si>
+  <si>
+    <t>孙慢慢字体设计</t>
+  </si>
+  <si>
+    <t>免费视频压缩</t>
+  </si>
+  <si>
+    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
+  </si>
+  <si>
+    <t>兵哥推荐，免费的视频压缩工具</t>
+  </si>
+  <si>
     <t>免费高质量样机</t>
   </si>
   <si>
@@ -859,106 +970,88 @@
     <t>免费高质量样机、插和UI工具</t>
   </si>
   <si>
-    <t>免费论文查重-1</t>
-  </si>
-  <si>
-    <t>http://www.paperask.com</t>
-  </si>
-  <si>
-    <t>这几个每天免费一次，用完一个换一个就行了</t>
-  </si>
-  <si>
-    <t>&lt;i style="color:#e67c86"&gt;夏DJ导航站介绍&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>https://airtap.io/w/xiadj</t>
-  </si>
-  <si>
-    <t>/favicon.ico</t>
-  </si>
-  <si>
-    <t>由小张用&lt;i style="color:red;"&gt;❤&lt;/i&gt;制作</t>
-  </si>
-  <si>
-    <t>zijiren</t>
-  </si>
-  <si>
-    <t>Muzli Search</t>
-  </si>
-  <si>
-    <t>https://search.muz.li</t>
-  </si>
-  <si>
-    <t>https://search.muz.li/assets/images/favicon.png</t>
-  </si>
-  <si>
-    <t>搜索、发现、测试并为您的项目创建漂亮的调色板</t>
-  </si>
-  <si>
-    <t>设计百宝箱</t>
-  </si>
-  <si>
-    <t>http://www.shejibox.cn</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/17.png</t>
-  </si>
-  <si>
-    <t>设计百宝箱-全球高质量设计师网址导航大全</t>
-  </si>
-  <si>
-    <t>设宝网</t>
-  </si>
-  <si>
-    <t>https://www.sheboo.com/</t>
-  </si>
-  <si>
-    <t>设宝网-设计师轻分享交流平台，设计素材分享，作品点评，插画、UI、字体设计师</t>
-  </si>
-  <si>
-    <t>浏览器扩展插件商店</t>
-  </si>
-  <si>
-    <t>https://chrome.zzzmh.cn</t>
-  </si>
-  <si>
-    <t>极简插件_Chrome扩展插件商店（无套路）</t>
-  </si>
-  <si>
-    <t>各种设计软件</t>
-  </si>
-  <si>
-    <t>http://pan.baidu.com/s/1eYDWh0J9E_Z9FaO2H-A96g#list/path=%2F&amp;vmode=list</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png</t>
-  </si>
-  <si>
-    <t>打开是百度网盘链接，有会员的可以用，没用的话还是前面那个吧😂</t>
-  </si>
-  <si>
-    <t>字体设计up主</t>
-  </si>
-  <si>
-    <t>http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/23.png</t>
-  </si>
-  <si>
-    <t>孙慢慢字体设计</t>
-  </si>
-  <si>
-    <t>免费视频压缩</t>
-  </si>
-  <si>
-    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
-  </si>
-  <si>
-    <t>兵哥推荐，免费的视频压缩工具</t>
+    <t>小陈GPT💕(可降重)</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml</t>
+  </si>
+  <si>
+    <t>https://gpt.1nav.ml/favicon.ico</t>
+  </si>
+  <si>
+    <t>向她提问，几乎无所不能</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
+    <t>小陈GPT💕</t>
+  </si>
+  <si>
+    <t>lottie</t>
+  </si>
+  <si>
+    <t>https://lottiefiles.com</t>
+  </si>
+  <si>
+    <t>https://lottiefiles.com/favicons-new/apple-icon-144x144.png</t>
+  </si>
+  <si>
+    <t>世界上最大的洛蒂动画平台。随时随地添加免费动画（即使您不了解运动设计），或使用LottieFiles的设计和开发工具轻松创建、协作和发布运动</t>
+  </si>
+  <si>
+    <t>国外设计欣赏网站</t>
+  </si>
+  <si>
+    <t>http://www.doooor.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png</t>
+  </si>
+  <si>
+    <t>DOOOOR是一个品鉴国外优秀设计作品创意欣赏类平台。</t>
+  </si>
+  <si>
+    <t>C4DNB</t>
+  </si>
+  <si>
+    <t>http://c4dnb.com</t>
+  </si>
+  <si>
+    <t>C4D软件下载-荔枝资源站-更加注重用户体验</t>
+  </si>
+  <si>
+    <t>Snipaste</t>
+  </si>
+  <si>
+    <t>http://zh.snipaste.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o73.png</t>
+  </si>
+  <si>
+    <t>👍Snipaste 是一个简单但强大的截图工具，也可以让你将截图贴回到屏幕上！</t>
+  </si>
+  <si>
+    <t>PS,AI,PR,AE,C4D教程</t>
+  </si>
+  <si>
+    <t>http://space.bilibili.com/25433581</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o96.png</t>
+  </si>
+  <si>
+    <t>up主京译达雅（PS,AI,PR,AE,C4D等教程）</t>
+  </si>
+  <si>
+    <t>在线转换</t>
+  </si>
+  <si>
+    <t>http://www.aconvert.com/cn/</t>
+  </si>
+  <si>
+    <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像。</t>
   </si>
   <si>
     <t>✨freepik✨</t>
@@ -970,88 +1063,88 @@
     <t>矢量图，照片，psd样机等免费下载</t>
   </si>
   <si>
-    <t>小陈GPT💕(可降重)</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml/favicon.ico</t>
-  </si>
-  <si>
-    <t>向她提问，几乎无所不能</t>
-  </si>
-  <si>
-    <t>gpt</t>
-  </si>
-  <si>
-    <t>小陈GPT💕</t>
-  </si>
-  <si>
-    <t>lottie</t>
-  </si>
-  <si>
-    <t>https://lottiefiles.com</t>
-  </si>
-  <si>
-    <t>https://lottiefiles.com/favicons-new/apple-icon-144x144.png</t>
-  </si>
-  <si>
-    <t>世界上最大的洛蒂动画平台。随时随地添加免费动画（即使您不了解运动设计），或使用LottieFiles的设计和开发工具轻松创建、协作和发布运动</t>
-  </si>
-  <si>
-    <t>国外设计欣赏网站</t>
-  </si>
-  <si>
-    <t>http://www.doooor.com</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png</t>
-  </si>
-  <si>
-    <t>DOOOOR是一个品鉴国外优秀设计作品创意欣赏类平台。</t>
-  </si>
-  <si>
-    <t>C4DNB</t>
-  </si>
-  <si>
-    <t>http://c4dnb.com</t>
-  </si>
-  <si>
-    <t>C4D软件下载-荔枝资源站-更加注重用户体验</t>
-  </si>
-  <si>
-    <t>Snipaste</t>
-  </si>
-  <si>
-    <t>http://zh.snipaste.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o73.png</t>
-  </si>
-  <si>
-    <t>👍Snipaste 是一个简单但强大的截图工具，也可以让你将截图贴回到屏幕上！</t>
-  </si>
-  <si>
-    <t>PS,AI,PR,AE,C4D教程</t>
-  </si>
-  <si>
-    <t>http://space.bilibili.com/25433581</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o96.png</t>
-  </si>
-  <si>
-    <t>up主京译达雅（PS,AI,PR,AE,C4D等教程）</t>
-  </si>
-  <si>
-    <t>在线转换</t>
-  </si>
-  <si>
-    <t>http://www.aconvert.com/cn/</t>
-  </si>
-  <si>
-    <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像。</t>
+    <t>免费论文查重-2</t>
+  </si>
+  <si>
+    <t>http://www.paperray.com</t>
+  </si>
+  <si>
+    <t>#docs</t>
+  </si>
+  <si>
+    <t>🍀精选设计资源导航网站</t>
+  </si>
+  <si>
+    <t>后期屋（国内）</t>
+  </si>
+  <si>
+    <t>https://lanfucai.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o42x.png</t>
+  </si>
+  <si>
+    <t>后期屋-ae模板网ae插件网视频素材下载站</t>
+  </si>
+  <si>
+    <t>灰大设计导航</t>
+  </si>
+  <si>
+    <t>http://www.pslkzs.com/nav.php</t>
+  </si>
+  <si>
+    <t>灰大设计导航是灰色执照创建的设计师导航网站</t>
+  </si>
+  <si>
+    <t>UI中国</t>
+  </si>
+  <si>
+    <t>http://ui.cn</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/20.png</t>
+  </si>
+  <si>
+    <t>UICN用户体验设计平台</t>
+  </si>
+  <si>
+    <t>ps插件网</t>
+  </si>
+  <si>
+    <t>http://chajianps.cn</t>
+  </si>
+  <si>
+    <t>ps插件网-立志帮助更多的中国PS插件用户</t>
+  </si>
+  <si>
+    <t>各种电脑软件</t>
+  </si>
+  <si>
+    <t>http://www.lanzoux.com/s/wp</t>
+  </si>
+  <si>
+    <t>打开是蓝奏云各种电脑软件的下载链接</t>
+  </si>
+  <si>
+    <t>敬伟PS教程(有趣，好评)</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1YW411e7n5/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/24.png</t>
+  </si>
+  <si>
+    <t>👍敬伟PS教程全集，建议初学者看这个，特别详细！！！</t>
+  </si>
+  <si>
+    <t>在线格式转换</t>
+  </si>
+  <si>
+    <t>http://zhuanhuan.supfree.net</t>
+  </si>
+  <si>
+    <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
   </si>
   <si>
     <t>云米素材（部分免费）</t>
@@ -1066,88 +1159,79 @@
     <t>云米创意,素材,原创设计,创意平台,psd素材,贴图素材,高清素材</t>
   </si>
   <si>
-    <t>免费论文查重-2</t>
-  </si>
-  <si>
-    <t>http://www.paperray.com</t>
-  </si>
-  <si>
-    <t>#docs</t>
-  </si>
-  <si>
-    <t>🍀精选设计资源导航网站</t>
-  </si>
-  <si>
-    <t>后期屋（国内）</t>
-  </si>
-  <si>
-    <t>https://lanfucai.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o42x.png</t>
-  </si>
-  <si>
-    <t>后期屋-ae模板网ae插件网视频素材下载站</t>
-  </si>
-  <si>
-    <t>灰大设计导航</t>
-  </si>
-  <si>
-    <t>http://www.pslkzs.com/nav.php</t>
-  </si>
-  <si>
-    <t>灰大设计导航是灰色执照创建的设计师导航网站</t>
-  </si>
-  <si>
-    <t>UI中国</t>
-  </si>
-  <si>
-    <t>http://ui.cn</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/20.png</t>
-  </si>
-  <si>
-    <t>UICN用户体验设计平台</t>
-  </si>
-  <si>
-    <t>ps插件网</t>
-  </si>
-  <si>
-    <t>http://chajianps.cn</t>
-  </si>
-  <si>
-    <t>ps插件网-立志帮助更多的中国PS插件用户</t>
-  </si>
-  <si>
-    <t>各种电脑软件</t>
-  </si>
-  <si>
-    <t>http://www.lanzoux.com/s/wp</t>
-  </si>
-  <si>
-    <t>打开是蓝奏云各种电脑软件的下载链接</t>
-  </si>
-  <si>
-    <t>敬伟PS教程(有趣，好评)</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1YW411e7n5/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/24.png</t>
-  </si>
-  <si>
-    <t>👍敬伟PS教程全集，建议初学者看这个，特别详细！！！</t>
-  </si>
-  <si>
-    <t>在线格式转换</t>
-  </si>
-  <si>
-    <t>http://zhuanhuan.supfree.net</t>
-  </si>
-  <si>
-    <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
+    <t>免费论文查重-3</t>
+  </si>
+  <si>
+    <t>http://www.paperdatas.com</t>
+  </si>
+  <si>
+    <t>aescripts+aeplugins</t>
+  </si>
+  <si>
+    <t>https://aescripts.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png</t>
+  </si>
+  <si>
+    <t>主流插件网站（国外）</t>
+  </si>
+  <si>
+    <t>UI设计师导航网 - 优阁</t>
+  </si>
+  <si>
+    <t>http://so.uigreat.com</t>
+  </si>
+  <si>
+    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
+  </si>
+  <si>
+    <t>纹藏</t>
+  </si>
+  <si>
+    <t>http://wenzang.art</t>
+  </si>
+  <si>
+    <t>纹藏Wenzang.art中国纹样线上博物馆</t>
+  </si>
+  <si>
+    <t>iTab新标签页</t>
+  </si>
+  <si>
+    <t>https://itab.link</t>
+  </si>
+  <si>
+    <t>👍iTab新标签页（强烈推荐，已经安利了好几个人了）</t>
+  </si>
+  <si>
+    <t>手机软件</t>
+  </si>
+  <si>
+    <t>http://www.lanzoux.com/s/APP</t>
+  </si>
+  <si>
+    <t>只能手机端打开，影视、动漫、小说、工具类等~</t>
+  </si>
+  <si>
+    <t>系列AE教程（全41讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/25.png</t>
+  </si>
+  <si>
+    <t>AE软件课程入门【2018全套零基础AE教程】</t>
+  </si>
+  <si>
+    <t>gif编辑器</t>
+  </si>
+  <si>
+    <t>https://ezgif.com</t>
+  </si>
+  <si>
+    <t>亲测可以制作动态qq头像</t>
   </si>
   <si>
     <t>模库网</t>
@@ -1162,79 +1246,82 @@
     <t>免费设计素材模板下载图库共享网站</t>
   </si>
   <si>
-    <t>免费论文查重-3</t>
-  </si>
-  <si>
-    <t>http://www.paperdatas.com</t>
-  </si>
-  <si>
-    <t>aescripts+aeplugins</t>
-  </si>
-  <si>
-    <t>https://aescripts.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png</t>
-  </si>
-  <si>
-    <t>主流插件网站（国外）</t>
-  </si>
-  <si>
-    <t>UI设计师导航网 - 优阁</t>
-  </si>
-  <si>
-    <t>http://so.uigreat.com</t>
-  </si>
-  <si>
-    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
-  </si>
-  <si>
-    <t>纹藏</t>
-  </si>
-  <si>
-    <t>http://wenzang.art</t>
-  </si>
-  <si>
-    <t>纹藏Wenzang.art中国纹样线上博物馆</t>
-  </si>
-  <si>
-    <t>iTab新标签页</t>
-  </si>
-  <si>
-    <t>https://itab.link</t>
-  </si>
-  <si>
-    <t>👍iTab新标签页（强烈推荐，已经安利了好几个人了）</t>
-  </si>
-  <si>
-    <t>手机软件</t>
-  </si>
-  <si>
-    <t>http://www.lanzoux.com/s/APP</t>
-  </si>
-  <si>
-    <t>只能手机端打开，影视、动漫、小说、工具类等~</t>
-  </si>
-  <si>
-    <t>系列AE教程（全41讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/25.png</t>
-  </si>
-  <si>
-    <t>AE软件课程入门【2018全套零基础AE教程】</t>
-  </si>
-  <si>
-    <t>gif编辑器</t>
-  </si>
-  <si>
-    <t>https://ezgif.com</t>
-  </si>
-  <si>
-    <t>亲测可以制作动态qq头像</t>
+    <t>免费论文查重-4</t>
+  </si>
+  <si>
+    <t>http://www.paperfree.cn/freeActivity/index.html</t>
+  </si>
+  <si>
+    <t>配色集</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/485723138</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
+  </si>
+  <si>
+    <t>老师推荐的B站分享配色的up主</t>
+  </si>
+  <si>
+    <t>创造狮 创意工作者导航</t>
+  </si>
+  <si>
+    <t>http://www.chuangzaoshi.com</t>
+  </si>
+  <si>
+    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
+  </si>
+  <si>
+    <t>动效设计学习网-Motion Great</t>
+  </si>
+  <si>
+    <t>http://www.motiongreat.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/18/image.png</t>
+  </si>
+  <si>
+    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
+  </si>
+  <si>
+    <t>Infinity新标签页</t>
+  </si>
+  <si>
+    <t>http://cn.infinitynewtab.com</t>
+  </si>
+  <si>
+    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
+  </si>
+  <si>
+    <t>adobe全家桶（不限速下载）</t>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
+  </si>
+  <si>
+    <t>转载阿虚大佬的</t>
+  </si>
+  <si>
+    <t>AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/26.png</t>
+  </si>
+  <si>
+    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>Zamzar 在线格式转换</t>
+  </si>
+  <si>
+    <t>http://www.zamzar.com</t>
+  </si>
+  <si>
+    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
   </si>
   <si>
     <t>魔酷网</t>
@@ -1246,82 +1333,52 @@
     <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
   </si>
   <si>
-    <t>免费论文查重-4</t>
-  </si>
-  <si>
-    <t>http://www.paperfree.cn/freeActivity/index.html</t>
-  </si>
-  <si>
-    <t>配色集</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/485723138</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
-  </si>
-  <si>
-    <t>老师推荐的B站分享配色的up主</t>
-  </si>
-  <si>
-    <t>创造狮 创意工作者导航</t>
-  </si>
-  <si>
-    <t>http://www.chuangzaoshi.com</t>
-  </si>
-  <si>
-    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
-  </si>
-  <si>
-    <t>动效设计学习网-Motion Great</t>
-  </si>
-  <si>
-    <t>http://www.motiongreat.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/18/image.png</t>
-  </si>
-  <si>
-    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
-  </si>
-  <si>
-    <t>Infinity新标签页</t>
-  </si>
-  <si>
-    <t>http://cn.infinitynewtab.com</t>
-  </si>
-  <si>
-    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
-  </si>
-  <si>
-    <t>adobe全家桶（不限速下载）</t>
-  </si>
-  <si>
-    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
-  </si>
-  <si>
-    <t>转载阿虚大佬的</t>
-  </si>
-  <si>
-    <t>AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/26.png</t>
-  </si>
-  <si>
-    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>Zamzar 在线格式转换</t>
-  </si>
-  <si>
-    <t>http://www.zamzar.com</t>
-  </si>
-  <si>
-    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
+    <t>设计师网站导航</t>
+  </si>
+  <si>
+    <t>http://hao.shijuechuanda.com</t>
+  </si>
+  <si>
+    <t>设计网址导航 | 视觉传达</t>
+  </si>
+  <si>
+    <t>http://dribbble.com</t>
+  </si>
+  <si>
+    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
+  </si>
+  <si>
+    <t>干的库Pr插件</t>
+  </si>
+  <si>
+    <t>https://gan.cool</t>
+  </si>
+  <si>
+    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
+  </si>
+  <si>
+    <t>亿破姐</t>
+  </si>
+  <si>
+    <t>http://www.ypojie.com</t>
+  </si>
+  <si>
+    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
+  </si>
+  <si>
+    <t>PS2019教程（全80讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
+  </si>
+  <si>
+    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
+  </si>
+  <si>
+    <t>文档格式在线转换</t>
+  </si>
+  <si>
+    <t>http://smallpdf.com</t>
   </si>
   <si>
     <t>魔顿网</t>
@@ -1336,52 +1393,55 @@
     <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
   </si>
   <si>
-    <t>设计师网站导航</t>
-  </si>
-  <si>
-    <t>http://hao.shijuechuanda.com</t>
-  </si>
-  <si>
-    <t>设计网址导航 | 视觉传达</t>
-  </si>
-  <si>
-    <t>http://dribbble.com</t>
-  </si>
-  <si>
-    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
-  </si>
-  <si>
-    <t>干的库Pr插件</t>
-  </si>
-  <si>
-    <t>https://gan.cool</t>
-  </si>
-  <si>
-    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
-  </si>
-  <si>
-    <t>亿破姐</t>
-  </si>
-  <si>
-    <t>http://www.ypojie.com</t>
-  </si>
-  <si>
-    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
-  </si>
-  <si>
-    <t>PS2019教程（全80讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
-  </si>
-  <si>
-    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
-  </si>
-  <si>
-    <t>文档格式在线转换</t>
-  </si>
-  <si>
-    <t>http://smallpdf.com</t>
+    <t>奶牛导航</t>
+  </si>
+  <si>
+    <t>http://ebook.name/nav.html</t>
+  </si>
+  <si>
+    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>http://www.behance.net</t>
+  </si>
+  <si>
+    <t>系列设计作品开放平台</t>
+  </si>
+  <si>
+    <t>滚动截屏</t>
+  </si>
+  <si>
+    <t>http://snip.qq.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/4.png</t>
+  </si>
+  <si>
+    <t>腾讯qq出品-滚动截屏</t>
+  </si>
+  <si>
+    <t>Pr教程(全57集)</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/27.png</t>
+  </si>
+  <si>
+    <t>Pr2015教程全57集</t>
+  </si>
+  <si>
+    <t>png→svg</t>
+  </si>
+  <si>
+    <t>http://www.pngtosvg.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o80.png</t>
   </si>
   <si>
     <t>3D溜溜网</t>
@@ -1393,55 +1453,31 @@
     <t>【3D模型免费下载】打造一流的3DMax模型库_3D溜溜网 3d66.com</t>
   </si>
   <si>
-    <t>奶牛导航</t>
-  </si>
-  <si>
-    <t>http://ebook.name/nav.html</t>
-  </si>
-  <si>
-    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>http://www.behance.net</t>
-  </si>
-  <si>
-    <t>系列设计作品开放平台</t>
-  </si>
-  <si>
-    <t>滚动截屏</t>
-  </si>
-  <si>
-    <t>http://snip.qq.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/4.png</t>
-  </si>
-  <si>
-    <t>腾讯qq出品-滚动截屏</t>
-  </si>
-  <si>
-    <t>Pr教程(全57集)</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/27.png</t>
-  </si>
-  <si>
-    <t>Pr2015教程全57集</t>
-  </si>
-  <si>
-    <t>png→svg</t>
-  </si>
-  <si>
-    <t>http://www.pngtosvg.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o80.png</t>
+    <t>Pinterest (花瓣它爹)</t>
+  </si>
+  <si>
+    <t>http://www.pinterest.com</t>
+  </si>
+  <si>
+    <t>设计灵感收集地，图片分享类的社交网站</t>
+  </si>
+  <si>
+    <t>小熊软件助手</t>
+  </si>
+  <si>
+    <t>https://www.xxrjzs.com</t>
+  </si>
+  <si>
+    <t>自建网盘下载速度快</t>
+  </si>
+  <si>
+    <t>在线抠图</t>
+  </si>
+  <si>
+    <t>http://www.remove.bg/zh</t>
+  </si>
+  <si>
+    <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
   </si>
   <si>
     <t>CG模型网</t>
@@ -1453,31 +1489,25 @@
     <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
   </si>
   <si>
-    <t>Pinterest (花瓣它爹)</t>
-  </si>
-  <si>
-    <t>http://www.pinterest.com</t>
-  </si>
-  <si>
-    <t>设计灵感收集地，图片分享类的社交网站</t>
-  </si>
-  <si>
-    <t>小熊软件助手</t>
-  </si>
-  <si>
-    <t>https://www.xxrjzs.com</t>
-  </si>
-  <si>
-    <t>自建网盘下载速度快</t>
-  </si>
-  <si>
-    <t>在线抠图</t>
-  </si>
-  <si>
-    <t>http://www.remove.bg/zh</t>
-  </si>
-  <si>
-    <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
+    <t>Boss设计</t>
+  </si>
+  <si>
+    <t>http://www.bossdesign.cn</t>
+  </si>
+  <si>
+    <t>收集国外设计素材网站的资源平台。</t>
+  </si>
+  <si>
+    <t>UI尺寸规范</t>
+  </si>
+  <si>
+    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/28.png</t>
+  </si>
+  <si>
+    <t>iPhone/iPad/Android UI尺寸规范</t>
   </si>
   <si>
     <t>51PPT</t>
@@ -1489,25 +1519,25 @@
     <t>51PPT模板网 - 幻灯片演示模板及素材下载</t>
   </si>
   <si>
-    <t>Boss设计</t>
-  </si>
-  <si>
-    <t>http://www.bossdesign.cn</t>
-  </si>
-  <si>
-    <t>收集国外设计素材网站的资源平台。</t>
-  </si>
-  <si>
-    <t>UI尺寸规范</t>
-  </si>
-  <si>
-    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/28.png</t>
-  </si>
-  <si>
-    <t>iPhone/iPad/Android UI尺寸规范</t>
+    <t>像素画</t>
+  </si>
+  <si>
+    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
+  </si>
+  <si>
+    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
+  </si>
+  <si>
+    <t>一个分享好看的像素画的网站</t>
+  </si>
+  <si>
+    <t>Screen Sizes</t>
+  </si>
+  <si>
+    <t>http://screensiz.es/</t>
+  </si>
+  <si>
+    <t>在线查询不同设备的屏幕尺寸</t>
   </si>
   <si>
     <t>第一PPT</t>
@@ -1519,25 +1549,22 @@
     <t>免费ppt下载网站，广告超多，注意甄别！！</t>
   </si>
   <si>
-    <t>像素画</t>
-  </si>
-  <si>
-    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
-  </si>
-  <si>
-    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
-  </si>
-  <si>
-    <t>一个分享好看的像素画的网站</t>
-  </si>
-  <si>
-    <t>Screen Sizes</t>
-  </si>
-  <si>
-    <t>http://screensiz.es/</t>
-  </si>
-  <si>
-    <t>在线查询不同设备的屏幕尺寸</t>
+    <t>Instagram（需魔法）</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com</t>
+  </si>
+  <si>
+    <t>类似于国内小红书</t>
+  </si>
+  <si>
+    <t>IPhone屏幕尺寸</t>
+  </si>
+  <si>
+    <t>http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions</t>
+  </si>
+  <si>
+    <t>IPhone各设备屏幕尺寸信息参数</t>
   </si>
   <si>
     <t>爱给网</t>
@@ -1552,22 +1579,13 @@
     <t>免费提供免费的音效配乐|3D模型|视频|游戏素材资源下载</t>
   </si>
   <si>
-    <t>Instagram（需魔法）</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com</t>
-  </si>
-  <si>
-    <t>类似于国内小红书</t>
-  </si>
-  <si>
-    <t>IPhone屏幕尺寸</t>
-  </si>
-  <si>
-    <t>http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions</t>
-  </si>
-  <si>
-    <t>IPhone各设备屏幕尺寸信息参数</t>
+    <t>安卓尺寸</t>
+  </si>
+  <si>
+    <t>http://material.io/blog/device-metrics</t>
+  </si>
+  <si>
+    <t>Google安卓主流设备尺寸</t>
   </si>
   <si>
     <t>5素材</t>
@@ -1579,13 +1597,13 @@
     <t>免费设计素材下载,免抠PNG图片素材,免抠PS素材模板,PSD免抠设计背景图片,平面广告海报图片模板素材，psd艺术字免抠图片等免费设计素材图片下载，电商淘宝素材模板，平面广告模板素材等在线素材下载，免费素材共享。</t>
   </si>
   <si>
-    <t>安卓尺寸</t>
-  </si>
-  <si>
-    <t>http://material.io/blog/device-metrics</t>
-  </si>
-  <si>
-    <t>Google安卓主流设备尺寸</t>
+    <t>草料二维码</t>
+  </si>
+  <si>
+    <t>http://cli.im/deqr</t>
+  </si>
+  <si>
+    <t>免费在线二维码解码器</t>
   </si>
   <si>
     <t>设计部落</t>
@@ -1600,13 +1618,13 @@
     <t>素材,图库,图片,图片下载,设计素材,PSD,矢量,AI,CDR,EPS,设计,免费素材网,素材天下,PS素材</t>
   </si>
   <si>
-    <t>草料二维码</t>
-  </si>
-  <si>
-    <t>http://cli.im/deqr</t>
-  </si>
-  <si>
-    <t>免费在线二维码解码器</t>
+    <t>png压缩</t>
+  </si>
+  <si>
+    <t>http://tinify.cn</t>
+  </si>
+  <si>
+    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
   </si>
   <si>
     <t>觅元素</t>
@@ -1618,13 +1636,13 @@
     <t>免抠素材,位图,透明背景素材,透明背景图片,免抠png,高清png</t>
   </si>
   <si>
-    <t>png压缩</t>
-  </si>
-  <si>
-    <t>http://tinify.cn</t>
-  </si>
-  <si>
-    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
+    <t>图片压缩</t>
+  </si>
+  <si>
+    <t>http://www.yasuotu.com</t>
+  </si>
+  <si>
+    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
   </si>
   <si>
     <t>矢量插画下载</t>
@@ -1636,13 +1654,13 @@
     <t>免抠矢量插画下载</t>
   </si>
   <si>
-    <t>图片压缩</t>
-  </si>
-  <si>
-    <t>http://www.yasuotu.com</t>
-  </si>
-  <si>
-    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
+    <t>ProcessOn -思维导图</t>
+  </si>
+  <si>
+    <t>http://www.processon.com</t>
+  </si>
+  <si>
+    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
   </si>
   <si>
     <t>绘艺素材-音效网</t>
@@ -1657,13 +1675,13 @@
     <t>绘艺素材音效网提供各类音效下载</t>
   </si>
   <si>
-    <t>ProcessOn -思维导图</t>
-  </si>
-  <si>
-    <t>http://www.processon.com</t>
-  </si>
-  <si>
-    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
+    <t>千图抠图工具</t>
+  </si>
+  <si>
+    <t>http://koutu.58pic.com</t>
+  </si>
+  <si>
+    <t>AI自动抠图-千图抠图工具</t>
   </si>
   <si>
     <t>免费商用字体</t>
@@ -1675,13 +1693,13 @@
     <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
   </si>
   <si>
-    <t>千图抠图工具</t>
-  </si>
-  <si>
-    <t>http://koutu.58pic.com</t>
-  </si>
-  <si>
-    <t>AI自动抠图-千图抠图工具</t>
+    <t>去除gif背景</t>
+  </si>
+  <si>
+    <t>http://www.unscreen.com/upload</t>
+  </si>
+  <si>
+    <t>AI自动抠图去除gif背景</t>
   </si>
   <si>
     <t>猫啃网(免费字体)</t>
@@ -1696,13 +1714,13 @@
     <t>免费下载无版权可商用字体-英文中文字体</t>
   </si>
   <si>
-    <t>去除gif背景</t>
-  </si>
-  <si>
-    <t>http://www.unscreen.com/upload</t>
-  </si>
-  <si>
-    <t>AI自动抠图去除gif背景</t>
+    <t>在线文件转换</t>
+  </si>
+  <si>
+    <t>https://products.groupdocs.app/zh/conversion/total</t>
+  </si>
+  <si>
+    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
   </si>
   <si>
     <t>字体仓库</t>
@@ -1711,28 +1729,19 @@
     <t>http://www.ziticangku.com</t>
   </si>
   <si>
-    <t>在线文件转换</t>
-  </si>
-  <si>
-    <t>https://products.groupdocs.app/zh/conversion/total</t>
-  </si>
-  <si>
-    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
+    <t>在线矢量设计</t>
+  </si>
+  <si>
+    <t>https://vectordad.com</t>
+  </si>
+  <si>
+    <t>图像艺术矢量化</t>
   </si>
   <si>
     <t>100font</t>
   </si>
   <si>
     <t>http://www.100font.com</t>
-  </si>
-  <si>
-    <t>在线矢量设计</t>
-  </si>
-  <si>
-    <t>https://vectordad.com</t>
-  </si>
-  <si>
-    <t>图像艺术矢量化</t>
   </si>
   <si>
     <t>Fonts2u</t>
@@ -1760,8 +1769,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1819,9 +1828,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,8 +1842,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,16 +1873,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1871,15 +1925,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1893,39 +1941,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,17 +1950,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1962,7 +1971,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,7 +2013,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,133 +2127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,19 +2145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,6 +2162,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2171,22 +2204,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2224,32 +2252,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,10 +2270,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2273,133 +2282,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2795,10 +2804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ28"/>
+  <dimension ref="A1:CQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CF17" sqref="CF17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="BV4" workbookViewId="0">
+      <selection activeCell="CE8" sqref="CE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4104,7 +4113,7 @@
       <c r="CA7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CB7" s="14" t="s">
+      <c r="CB7" s="15" t="s">
         <v>279</v>
       </c>
       <c r="CD7" s="1" t="s">
@@ -4349,17 +4358,14 @@
       <c r="CB9" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="CC9" s="14" t="s">
+      <c r="CD9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="CD9" s="1" t="s">
+      <c r="CG9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="CG9" s="1" t="s">
+      <c r="CH9" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="CH9" s="14" t="s">
-        <v>351</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>283</v>
@@ -4370,107 +4376,107 @@
         <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="P10" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="U10" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="V10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="AF10" s="14" t="s">
+      <c r="AH10" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX10" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="AX10" s="14" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD10" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="BD10" s="14" t="s">
+      <c r="BE10" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="BE10" s="14" t="s">
+      <c r="BF10" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BU10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="BV10" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BV10" s="14" t="s">
+      <c r="BX10" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CA10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CB10" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="CB10" s="14" t="s">
+      <c r="CC10" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="CC10" s="15" t="s">
+      <c r="CD10" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CG10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CH10" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="CH10" s="14" t="s">
-        <v>383</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>283</v>
@@ -4478,43 +4484,43 @@
     </row>
     <row r="11" spans="7:88">
       <c r="G11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="P11" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="V11" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="AF11" s="14" t="s">
+      <c r="AH11" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>70</v>
@@ -4523,40 +4529,43 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AX11" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="AX11" s="14" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BD11" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="BD11" s="14" t="s">
+      <c r="BE11" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="BE11" s="14" t="s">
+      <c r="BF11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BU11" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BV11" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="BV11" s="14" t="s">
+      <c r="BX11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CB11" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="CB11" s="14" t="s">
+      <c r="CC11" s="15" t="s">
         <v>408</v>
       </c>
       <c r="CD11" s="1" t="s">
@@ -4655,79 +4664,79 @@
       <c r="CB12" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="CC12" s="14" t="s">
+      <c r="CD12" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="13" spans="13:82">
       <c r="M13" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="P13" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="AF13" s="14" t="s">
+      <c r="AH13" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AX13" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="AX13" s="19" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BD13" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="BD13" s="14" t="s">
+      <c r="BE13" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BE13" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BU13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BV13" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="BV13" s="14" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="CB13" s="14" t="s">
+      <c r="CC13" s="14" t="s">
         <v>457</v>
       </c>
       <c r="CD13" s="1" t="s">
@@ -4874,7 +4883,7 @@
       <c r="CA16" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="CB16" s="15" t="s">
+      <c r="CB16" s="14" t="s">
         <v>499</v>
       </c>
       <c r="CD16" s="1" t="s">
@@ -4911,43 +4920,43 @@
       <c r="CA17" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="CB17" s="14" t="s">
+      <c r="CB17" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="CC17" s="14" t="s">
+      <c r="CD17" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="T18" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="T18" s="14" t="s">
+      <c r="V18" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="BV18" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="BV18" s="14" t="s">
+      <c r="BX18" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="CB18" s="14" t="s">
+      <c r="CC18" s="14" t="s">
         <v>519</v>
       </c>
       <c r="CD18" s="1" t="s">
@@ -4974,11 +4983,8 @@
       <c r="CB19" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="CC19" s="14" t="s">
+      <c r="CD19" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -4987,18 +4993,21 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BV20" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="BV20" s="14" t="s">
+      <c r="BX20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="CB20" s="14" t="s">
+      <c r="CC20" s="14" t="s">
         <v>532</v>
       </c>
       <c r="CD20" s="1" t="s">
@@ -5049,11 +5058,8 @@
       <c r="CB22" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="CC22" s="14" t="s">
+      <c r="CD22" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5062,25 +5068,28 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="BV23" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="BV23" s="14" t="s">
+      <c r="BX23" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="CB23" s="14" t="s">
+      <c r="CC23" s="14" t="s">
         <v>551</v>
       </c>
       <c r="CD23" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="36:83">
+    <row r="24" spans="36:82">
       <c r="AJ24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AV24" s="3"/>
@@ -5100,14 +5109,8 @@
       <c r="CB24" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="CC24" s="14" t="s">
+      <c r="CD24" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="CE24" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5116,73 +5119,90 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV25" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="BV25" s="19" t="s">
+      <c r="BX25" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="CB25" s="14" t="s">
+      <c r="CC25" s="14" t="s">
         <v>564</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="26" spans="73:82">
+    <row r="26" spans="73:83">
       <c r="BU26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV26" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="CD26" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="BV26" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="BX26" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="CB26" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>559</v>
+      <c r="CE26" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="73:82">
       <c r="BU27" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="CB27" s="12" t="s">
         <v>574</v>
       </c>
+      <c r="CB27" s="14" t="s">
+        <v>575</v>
+      </c>
       <c r="CD27" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="CB28" s="14" t="s">
+      <c r="CB28" s="12" t="s">
         <v>577</v>
       </c>
       <c r="CD28" s="1" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="79:82">
+      <c r="CA29" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="CB29" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="CD29" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5337,28 +5357,28 @@
     <hyperlink ref="CB4" r:id="rId143" display="https://brandingstyleguides.com/guide"/>
     <hyperlink ref="CB5" r:id="rId144" display="http://zymf.ys168.com"/>
     <hyperlink ref="CB6" r:id="rId145" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
-    <hyperlink ref="CB7" r:id="rId146" display="http://www.ls.graphics"/>
-    <hyperlink ref="CB8" r:id="rId147" display="https://www.freepik.com"/>
-    <hyperlink ref="CB9" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
-    <hyperlink ref="CB10" r:id="rId149" display="http://www.mcool.com/free.php"/>
-    <hyperlink ref="CB11" r:id="rId150" display="https://blender.kim"/>
-    <hyperlink ref="CB12" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
-    <hyperlink ref="CB13" r:id="rId152" display="https://www.3d66.com"/>
-    <hyperlink ref="CB14" r:id="rId153" display="https://www.cgmodel.com"/>
-    <hyperlink ref="CB15" r:id="rId154" display="http://www.51pptmoban.com"/>
-    <hyperlink ref="CB17" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
-    <hyperlink ref="CB16" r:id="rId156" display="http://www.1ppt.com"/>
-    <hyperlink ref="CB18" r:id="rId157" display="http://www.5sucai.com"/>
-    <hyperlink ref="CB19" r:id="rId158" display="http://www.sheji567.com"/>
-    <hyperlink ref="CB20" r:id="rId159" display="http://www.51yuansu.com"/>
-    <hyperlink ref="CB21" r:id="rId160" display="http://undraw.co/illustrations"/>
-    <hyperlink ref="CB22" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
-    <hyperlink ref="CB23" r:id="rId162" display="http://www.zifh.com"/>
-    <hyperlink ref="CB24" r:id="rId163" display="http://www.maoken.com"/>
-    <hyperlink ref="CB25" r:id="rId164" display="http://www.ziticangku.com"/>
-    <hyperlink ref="CB26" r:id="rId165" display="http://www.100font.com"/>
-    <hyperlink ref="CB27" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
-    <hyperlink ref="CB28" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
+    <hyperlink ref="CB8" r:id="rId146" display="http://www.ls.graphics"/>
+    <hyperlink ref="CB9" r:id="rId147" display="https://www.freepik.com"/>
+    <hyperlink ref="CB10" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
+    <hyperlink ref="CB11" r:id="rId149" display="http://www.mcool.com/free.php"/>
+    <hyperlink ref="CB12" r:id="rId150" display="https://blender.kim"/>
+    <hyperlink ref="CB13" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
+    <hyperlink ref="CB14" r:id="rId152" display="https://www.3d66.com"/>
+    <hyperlink ref="CB15" r:id="rId153" display="https://www.cgmodel.com"/>
+    <hyperlink ref="CB16" r:id="rId154" display="http://www.51pptmoban.com"/>
+    <hyperlink ref="CB18" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
+    <hyperlink ref="CB17" r:id="rId156" display="http://www.1ppt.com"/>
+    <hyperlink ref="CB19" r:id="rId157" display="http://www.5sucai.com"/>
+    <hyperlink ref="CB20" r:id="rId158" display="http://www.sheji567.com"/>
+    <hyperlink ref="CB21" r:id="rId159" display="http://www.51yuansu.com"/>
+    <hyperlink ref="CB22" r:id="rId160" display="http://undraw.co/illustrations"/>
+    <hyperlink ref="CB23" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
+    <hyperlink ref="CB24" r:id="rId162" display="http://www.zifh.com"/>
+    <hyperlink ref="CB25" r:id="rId163" display="http://www.maoken.com"/>
+    <hyperlink ref="CB26" r:id="rId164" display="http://www.ziticangku.com"/>
+    <hyperlink ref="CB27" r:id="rId165" display="http://www.100font.com"/>
+    <hyperlink ref="CB28" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
+    <hyperlink ref="CB29" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
     <hyperlink ref="CH3" r:id="rId168" display="http://by.360xueke.com"/>
     <hyperlink ref="CH4" r:id="rId169" display="http://www.cnki.net"/>
     <hyperlink ref="CH5" r:id="rId170" display="http://www.wanfangdata.com.cn"/>
@@ -5401,13 +5421,13 @@
     <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="CC12" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
+    <hyperlink ref="CC13" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
     <hyperlink ref="CI8" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="CC9" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
-    <hyperlink ref="CC24" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
-    <hyperlink ref="CC17" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
-    <hyperlink ref="CC22" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
-    <hyperlink ref="CC19" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
+    <hyperlink ref="CC10" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
+    <hyperlink ref="CC25" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
+    <hyperlink ref="CC18" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
+    <hyperlink ref="CC23" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
+    <hyperlink ref="CC20" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
     <hyperlink ref="BW16" r:id="rId210" display="https://3o.hk/images/2023/04/17/28.png"/>
     <hyperlink ref="AF13" r:id="rId211" display="https://gan.cool" tooltip="https://gan.cool"/>
     <hyperlink ref="BV8" r:id="rId212" display="https://www.flexclip.com/cn/tools/compress-video/"/>
@@ -5417,8 +5437,9 @@
     <hyperlink ref="AX14" r:id="rId216" display="http://snip.qq.com"/>
     <hyperlink ref="AX15" r:id="rId217" display="https://www.xxrjzs.com"/>
     <hyperlink ref="AY14" r:id="rId218" display="https://3o.hk/images/2023/04/17/4.png"/>
-    <hyperlink ref="CC10" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
+    <hyperlink ref="CC11" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
     <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
+    <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="586">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1331,6 +1331,18 @@
   </si>
   <si>
     <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
+  </si>
+  <si>
+    <t>Xmind</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/pc-xmind/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/xmind.cn/.png</t>
+  </si>
+  <si>
+    <t>XMind是一种著名的思维导图软件，可以帮助用户快速构建并整理思路，</t>
   </si>
   <si>
     <t>设计师网站导航</t>
@@ -1767,10 +1779,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1828,6 +1840,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1835,18 +1848,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1865,28 +1893,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1911,15 +1938,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1927,7 +1947,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1936,21 +1963,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1971,7 +1983,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,19 +2091,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,61 +2139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,67 +2151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,13 +2163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,6 +2174,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2185,36 +2223,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2252,13 +2260,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2270,10 +2282,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2282,16 +2294,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2303,112 +2315,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2806,8 +2818,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="BV4" workbookViewId="0">
-      <selection activeCell="CE8" sqref="CE8"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4668,240 +4680,252 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="13:82">
+    <row r="13" spans="7:82">
+      <c r="G13" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>372</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4909,58 +4933,58 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="CB17" s="15" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="CC18" s="14" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -4969,22 +4993,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -4993,25 +5017,25 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="CC20" s="14" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5020,22 +5044,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5044,22 +5068,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5068,25 +5092,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5095,22 +5119,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5119,45 +5143,45 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="CC25" s="14" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="73:83">
       <c r="BU26" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="CA26" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="CD26" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="CB26" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="CE26" s="1" t="s">
         <v>70</v>
@@ -5165,44 +5189,44 @@
     </row>
     <row r="27" spans="73:82">
       <c r="BU27" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="CB28" s="12" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -5440,6 +5464,8 @@
     <hyperlink ref="CC11" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
     <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
     <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
+    <hyperlink ref="H13" r:id="rId222" display="https://www.kelongwo.com/pc-xmind/"/>
+    <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500D1BC-6E5B-436E-9BE5-5E6A4DD1E0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6696418-6F4B-4F96-804C-41C45C5BE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="653">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1031,9 +1031,6 @@
   </si>
   <si>
     <t>gpt</t>
-  </si>
-  <si>
-    <t>小陈GPT💕</t>
   </si>
   <si>
     <t>lottie</t>
@@ -1965,12 +1962,66 @@
     <t>quicker-强烈安利</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>小陈GPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💕</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小陈GPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💕</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://1gpt.pages.dev</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像地址，前面打不开就用这个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://1gpt.pages.dev/favicon.ico</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://idesign.qq.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯设计导航</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯14年做的设计导航</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +2090,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2417,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2918,14 +2981,14 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="BA3" s="8" t="s">
         <v>69</v>
@@ -3853,14 +3916,14 @@
       </c>
     </row>
     <row r="9" spans="1:95" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>337</v>
+      <c r="A9" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>333</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>334</v>
+        <v>649</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>335</v>
@@ -3869,16 +3932,16 @@
         <v>336</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>86</v>
@@ -3894,185 +3957,188 @@
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="U9" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="V9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AH9" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AY9" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="AY9" s="12" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BD9" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="BE9" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="BF9" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BU9" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="BV9" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="BV9" s="12" t="s">
+      <c r="BX9" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="BX9" s="1" t="s">
+      <c r="CA9" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="CA9" s="1" t="s">
+      <c r="CB9" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="CB9" s="12" t="s">
+      <c r="CD9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CD9" s="1" t="s">
+      <c r="CG9" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="CG9" s="1" t="s">
+      <c r="CH9" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="CH9" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="P10" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="U10" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="V10" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AH10" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AX10" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="AX10" s="12" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD10" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BE10" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="BF10" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BU10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BV10" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="BV10" s="12" t="s">
+      <c r="BX10" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CA10" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CB10" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="CB10" s="13" t="s">
+      <c r="CD10" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CG10" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CH10" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="CH10" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>294</v>
@@ -4080,55 +4146,52 @@
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>397</v>
+        <v>252</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="P11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="V11" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AH11" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>69</v>
@@ -4137,50 +4200,50 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AX11" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="AX11" s="12" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BD11" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="BE11" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="BF11" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BU11" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BV11" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="BV11" s="12" t="s">
+      <c r="BX11" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CB11" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="CB11" s="12" t="s">
+      <c r="CD11" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="CD11" s="1" t="s">
+      <c r="CG11" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CG11" s="1" t="s">
+      <c r="CH11" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="CH11" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>294</v>
@@ -4188,400 +4251,421 @@
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="U12" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="V12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AH12" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AX12" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="BD12" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="BD12" s="12" t="s">
+      <c r="BE12" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="BF12" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BU12" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BV12" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="BV12" s="12" t="s">
+      <c r="BX12" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CA12" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="CB12" s="12" t="s">
+      <c r="CD12" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="CD12" s="1" t="s">
+      <c r="CG12" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="CG12" s="1" t="s">
+      <c r="CH12" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="CH12" s="12" t="s">
+      <c r="CJ12" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>101</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AH13" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX13" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="AX13" s="16" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BD13" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="BD13" s="12" t="s">
+      <c r="BE13" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="BE13" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BU13" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="BV13" s="12" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="CB13" s="12" t="s">
+      <c r="CC13" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="CC13" s="12" t="s">
+      <c r="CD13" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="CD13" s="1" t="s">
+      <c r="CG13" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="CG13" s="1" t="s">
+      <c r="CH13" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="CH13" s="12" t="s">
+      <c r="CJ13" t="s">
         <v>488</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="G14" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="V14" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AH14" t="s">
         <v>500</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>501</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AX14" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="AX14" s="12" t="s">
+      <c r="AY14" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="AY14" s="12" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BD14" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BE14" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BF14" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="BV14" s="12" t="s">
+      <c r="BW14" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="CB14" s="12" t="s">
+      <c r="CC14" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="CC14" s="13" t="s">
+      <c r="CD14" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="M15" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>652</v>
+      </c>
       <c r="S15" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="V15" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AX15" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="BV15" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="BV15" s="12" t="s">
+      <c r="BX15" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CA15" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="CB15" s="12" t="s">
+      <c r="CD15" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="S16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="V16" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BV16" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="BW16" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="BX16" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CA16" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="CB16" s="12" t="s">
+      <c r="CC16" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="CC16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="17" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S17" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4589,55 +4673,55 @@
       <c r="AX17" s="18"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="BV17" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="BV17" s="12" t="s">
+      <c r="BX17" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CA17" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="CB17" s="12" t="s">
+      <c r="CD17" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="V18" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BV18" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="BX18" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="CB18" s="12" t="s">
+      <c r="CD18" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
@@ -4646,22 +4730,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="BV19" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="BX19" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="CB19" s="12" t="s">
+      <c r="CD19" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
@@ -4670,22 +4754,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="BV20" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="BX20" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="CB20" s="13" t="s">
+      <c r="CD20" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
@@ -4694,25 +4778,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BV21" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="BX21" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CC21" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="CC21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
@@ -4721,22 +4805,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="BV22" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="BX22" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CA22" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="CB22" s="12" t="s">
+      <c r="CD22" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -4745,25 +4829,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="BV23" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="BX23" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CC23" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="CC23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -4772,22 +4856,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="BV24" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="BX24" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="CB24" s="12" t="s">
+      <c r="CD24" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -4796,65 +4880,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="CB25" s="12" t="s">
+      <c r="CD25" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="BV26" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="BX26" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CC26" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="CC26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="BV27" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="BX27" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CA27" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="CB27" s="12" t="s">
+      <c r="CD27" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>69</v>
@@ -4862,106 +4946,106 @@
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="BV28" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="BX28" t="s">
         <v>617</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CA28" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CB28" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CC28" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="CC28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="BV29" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BW29" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CA29" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="CA29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="CB29" s="12" t="s">
-        <v>628</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA30" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="CB30" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="CB30" s="12" t="s">
-        <v>630</v>
-      </c>
       <c r="CD30" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="CB31" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="CB31" s="10" t="s">
+      <c r="CD31" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="CB32" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="CB32" s="12" t="s">
+      <c r="CD32" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="CB33" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CC33" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="CC33" s="12" t="s">
+      <c r="CD33" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="CB34" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CD34" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -4988,7 +5072,7 @@
     <hyperlink ref="B8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="C8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="B9" r:id="rId21" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C9" r:id="rId22" tooltip="https://gpt.1nav.ml/favicon.ico" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="C6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="H4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="H5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
@@ -5202,10 +5286,10 @@
     <hyperlink ref="CB7" r:id="rId233" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H13" r:id="rId234" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B11" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B12" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
     <hyperlink ref="CB33" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
     <hyperlink ref="CC33" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B12" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B13" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
     <hyperlink ref="CB10" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
     <hyperlink ref="CB12" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
@@ -5227,11 +5311,14 @@
     <hyperlink ref="CJ13" r:id="rId258" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
     <hyperlink ref="AF14" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
     <hyperlink ref="AH14" r:id="rId260" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B13" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B14" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="BV29" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="BW29" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B10" r:id="rId264" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
+    <hyperlink ref="C10" r:id="rId265" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
+    <hyperlink ref="N15" r:id="rId266" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId264"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId267"/>
 </worksheet>
 </file>